--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="190">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -487,6 +487,9 @@
     <t>['15', '18', '31', '38', '59', '83']</t>
   </si>
   <si>
+    <t>['45']</t>
+  </si>
+  <si>
     <t>['27']</t>
   </si>
   <si>
@@ -526,9 +529,6 @@
     <t>['67']</t>
   </si>
   <si>
-    <t>['45']</t>
-  </si>
-  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -581,6 +581,9 @@
   </si>
   <si>
     <t>['74', '86']</t>
+  </si>
+  <si>
+    <t>['8', '63']</t>
   </si>
 </sst>
 </file>
@@ -942,7 +945,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK82"/>
+  <dimension ref="A1:BK83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1186,7 +1189,7 @@
         <v>102</v>
       </c>
       <c r="P2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1759,7 +1762,7 @@
         <v>103</v>
       </c>
       <c r="P5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -2141,7 +2144,7 @@
         <v>104</v>
       </c>
       <c r="P7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2332,7 +2335,7 @@
         <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2714,7 +2717,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -2905,7 +2908,7 @@
         <v>107</v>
       </c>
       <c r="P11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3183,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT12">
         <v>0</v>
@@ -3287,7 +3290,7 @@
         <v>105</v>
       </c>
       <c r="P13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3377,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4051,7 +4054,7 @@
         <v>110</v>
       </c>
       <c r="P17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4433,7 +4436,7 @@
         <v>112</v>
       </c>
       <c r="P19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5388,7 +5391,7 @@
         <v>114</v>
       </c>
       <c r="P24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5579,7 +5582,7 @@
         <v>115</v>
       </c>
       <c r="P25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -5961,7 +5964,7 @@
         <v>117</v>
       </c>
       <c r="P27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6343,7 +6346,7 @@
         <v>119</v>
       </c>
       <c r="P29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6534,7 +6537,7 @@
         <v>120</v>
       </c>
       <c r="P30" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -6725,7 +6728,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="Q31">
         <v>9</v>
@@ -11208,7 +11211,7 @@
         <v>0.5</v>
       </c>
       <c r="AT54">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AU54">
         <v>2.08</v>
@@ -12733,7 +12736,7 @@
         <v>3</v>
       </c>
       <c r="AS62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT62">
         <v>1.5</v>
@@ -12837,7 +12840,7 @@
         <v>143</v>
       </c>
       <c r="P63" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -16084,7 +16087,7 @@
         <v>154</v>
       </c>
       <c r="P80" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16275,7 +16278,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16608,6 +16611,197 @@
       </c>
       <c r="BK82">
         <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:63">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>5067834</v>
+      </c>
+      <c r="C83" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" t="s">
+        <v>64</v>
+      </c>
+      <c r="E83" s="2">
+        <v>44995.875</v>
+      </c>
+      <c r="F83">
+        <v>5</v>
+      </c>
+      <c r="G83" t="s">
+        <v>75</v>
+      </c>
+      <c r="H83" t="s">
+        <v>93</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>2</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>2</v>
+      </c>
+      <c r="N83">
+        <v>3</v>
+      </c>
+      <c r="O83" t="s">
+        <v>157</v>
+      </c>
+      <c r="P83" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q83">
+        <v>8</v>
+      </c>
+      <c r="R83">
+        <v>3</v>
+      </c>
+      <c r="S83">
+        <v>11</v>
+      </c>
+      <c r="T83">
+        <v>3</v>
+      </c>
+      <c r="U83">
+        <v>1.95</v>
+      </c>
+      <c r="V83">
+        <v>4.5</v>
+      </c>
+      <c r="W83">
+        <v>1.57</v>
+      </c>
+      <c r="X83">
+        <v>2.25</v>
+      </c>
+      <c r="Y83">
+        <v>3.75</v>
+      </c>
+      <c r="Z83">
+        <v>1.25</v>
+      </c>
+      <c r="AA83">
+        <v>11</v>
+      </c>
+      <c r="AB83">
+        <v>1.05</v>
+      </c>
+      <c r="AC83">
+        <v>2.11</v>
+      </c>
+      <c r="AD83">
+        <v>3.06</v>
+      </c>
+      <c r="AE83">
+        <v>3.92</v>
+      </c>
+      <c r="AF83">
+        <v>1.06</v>
+      </c>
+      <c r="AG83">
+        <v>6.8</v>
+      </c>
+      <c r="AH83">
+        <v>1.47</v>
+      </c>
+      <c r="AI83">
+        <v>2.5</v>
+      </c>
+      <c r="AJ83">
+        <v>2.36</v>
+      </c>
+      <c r="AK83">
+        <v>1.52</v>
+      </c>
+      <c r="AL83">
+        <v>2.1</v>
+      </c>
+      <c r="AM83">
+        <v>1.67</v>
+      </c>
+      <c r="AN83">
+        <v>1.3</v>
+      </c>
+      <c r="AO83">
+        <v>1.34</v>
+      </c>
+      <c r="AP83">
+        <v>1.6</v>
+      </c>
+      <c r="AQ83">
+        <v>3</v>
+      </c>
+      <c r="AR83">
+        <v>1</v>
+      </c>
+      <c r="AS83">
+        <v>2</v>
+      </c>
+      <c r="AT83">
+        <v>1.67</v>
+      </c>
+      <c r="AU83">
+        <v>1.37</v>
+      </c>
+      <c r="AV83">
+        <v>0.85</v>
+      </c>
+      <c r="AW83">
+        <v>2.22</v>
+      </c>
+      <c r="AX83">
+        <v>1.52</v>
+      </c>
+      <c r="AY83">
+        <v>7.8</v>
+      </c>
+      <c r="AZ83">
+        <v>3.25</v>
+      </c>
+      <c r="BA83">
+        <v>1.42</v>
+      </c>
+      <c r="BB83">
+        <v>1.78</v>
+      </c>
+      <c r="BC83">
+        <v>2.24</v>
+      </c>
+      <c r="BD83">
+        <v>3.08</v>
+      </c>
+      <c r="BE83">
+        <v>4.5</v>
+      </c>
+      <c r="BF83">
+        <v>8</v>
+      </c>
+      <c r="BG83">
+        <v>5</v>
+      </c>
+      <c r="BH83">
+        <v>16</v>
+      </c>
+      <c r="BI83">
+        <v>6</v>
+      </c>
+      <c r="BJ83">
+        <v>24</v>
+      </c>
+      <c r="BK83">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="200">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -490,6 +490,24 @@
     <t>['45']</t>
   </si>
   <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['45+1', '54']</t>
+  </si>
+  <si>
+    <t>['89']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['55', '90+5']</t>
+  </si>
+  <si>
     <t>['27']</t>
   </si>
   <si>
@@ -584,6 +602,18 @@
   </si>
   <si>
     <t>['8', '63']</t>
+  </si>
+  <si>
+    <t>['15', '42', '84']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['65', '74']</t>
   </si>
 </sst>
 </file>
@@ -945,7 +975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK83"/>
+  <dimension ref="A1:BK94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1189,7 +1219,7 @@
         <v>102</v>
       </c>
       <c r="P2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1762,7 +1792,7 @@
         <v>103</v>
       </c>
       <c r="P5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -2040,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT6">
         <v>1.33</v>
@@ -2144,7 +2174,7 @@
         <v>104</v>
       </c>
       <c r="P7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2335,7 +2365,7 @@
         <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2717,7 +2747,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -2908,7 +2938,7 @@
         <v>107</v>
       </c>
       <c r="P11" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3290,7 +3320,7 @@
         <v>105</v>
       </c>
       <c r="P13" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3568,10 +3598,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT14">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3759,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT15">
         <v>2</v>
@@ -3950,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT16">
         <v>0.5</v>
@@ -4054,7 +4084,7 @@
         <v>110</v>
       </c>
       <c r="P17" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4141,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT17">
         <v>1.5</v>
@@ -4335,7 +4365,7 @@
         <v>3</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4436,7 +4466,7 @@
         <v>112</v>
       </c>
       <c r="P19" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4526,7 +4556,7 @@
         <v>0.5</v>
       </c>
       <c r="AT19">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4717,7 +4747,7 @@
         <v>1.5</v>
       </c>
       <c r="AT20">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5099,7 +5129,7 @@
         <v>2</v>
       </c>
       <c r="AT22">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5287,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT23">
         <v>2</v>
@@ -5391,7 +5421,7 @@
         <v>114</v>
       </c>
       <c r="P24" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5478,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT24">
         <v>1</v>
@@ -5582,7 +5612,7 @@
         <v>115</v>
       </c>
       <c r="P25" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -5669,10 +5699,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT25">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -5860,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT26">
         <v>0</v>
@@ -5964,7 +5994,7 @@
         <v>117</v>
       </c>
       <c r="P27" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6054,7 +6084,7 @@
         <v>3</v>
       </c>
       <c r="AT27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU27">
         <v>0</v>
@@ -6242,7 +6272,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT28">
         <v>0</v>
@@ -6346,7 +6376,7 @@
         <v>119</v>
       </c>
       <c r="P29" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6537,7 +6567,7 @@
         <v>120</v>
       </c>
       <c r="P30" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -6919,7 +6949,7 @@
         <v>121</v>
       </c>
       <c r="P32" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7110,7 +7140,7 @@
         <v>122</v>
       </c>
       <c r="P33" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q33">
         <v>10</v>
@@ -7301,7 +7331,7 @@
         <v>123</v>
       </c>
       <c r="P34" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7391,7 +7421,7 @@
         <v>0</v>
       </c>
       <c r="AT34">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -8065,7 +8095,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8638,7 +8668,7 @@
         <v>128</v>
       </c>
       <c r="P41" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -8829,7 +8859,7 @@
         <v>129</v>
       </c>
       <c r="P42" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9211,7 +9241,7 @@
         <v>130</v>
       </c>
       <c r="P44" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9784,7 +9814,7 @@
         <v>102</v>
       </c>
       <c r="P47" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q47">
         <v>7</v>
@@ -9874,7 +9904,7 @@
         <v>0.5</v>
       </c>
       <c r="AT47">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU47">
         <v>1.93</v>
@@ -9975,7 +10005,7 @@
         <v>132</v>
       </c>
       <c r="P48" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10253,10 +10283,10 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU49">
         <v>1.69</v>
@@ -10357,7 +10387,7 @@
         <v>102</v>
       </c>
       <c r="P50" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10444,10 +10474,10 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT50">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU50">
         <v>1.02</v>
@@ -10548,7 +10578,7 @@
         <v>134</v>
       </c>
       <c r="P51" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -10638,7 +10668,7 @@
         <v>3</v>
       </c>
       <c r="AT51">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU51">
         <v>2.09</v>
@@ -10826,7 +10856,7 @@
         <v>1</v>
       </c>
       <c r="AS52">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT52">
         <v>1</v>
@@ -11020,7 +11050,7 @@
         <v>1.5</v>
       </c>
       <c r="AT53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU53">
         <v>1</v>
@@ -11208,7 +11238,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT54">
         <v>1.67</v>
@@ -11590,10 +11620,10 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT56">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU56">
         <v>1.23</v>
@@ -11781,7 +11811,7 @@
         <v>3</v>
       </c>
       <c r="AS57">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT57">
         <v>2</v>
@@ -12163,10 +12193,10 @@
         <v>3</v>
       </c>
       <c r="AS59">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT59">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU59">
         <v>2.6</v>
@@ -12354,7 +12384,7 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT60">
         <v>0</v>
@@ -12458,7 +12488,7 @@
         <v>102</v>
       </c>
       <c r="P61" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -12545,7 +12575,7 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT61">
         <v>2</v>
@@ -12649,7 +12679,7 @@
         <v>142</v>
       </c>
       <c r="P62" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13031,7 +13061,7 @@
         <v>144</v>
       </c>
       <c r="P64" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -13118,10 +13148,10 @@
         <v>1</v>
       </c>
       <c r="AS64">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT64">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU64">
         <v>1.4</v>
@@ -13222,7 +13252,7 @@
         <v>102</v>
       </c>
       <c r="P65" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q65">
         <v>14</v>
@@ -13795,7 +13825,7 @@
         <v>102</v>
       </c>
       <c r="P68" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -14177,7 +14207,7 @@
         <v>106</v>
       </c>
       <c r="P70" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14750,7 +14780,7 @@
         <v>149</v>
       </c>
       <c r="P73" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15132,7 +15162,7 @@
         <v>102</v>
       </c>
       <c r="P75" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -15705,7 +15735,7 @@
         <v>152</v>
       </c>
       <c r="P78" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -15896,7 +15926,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -16278,7 +16308,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16660,7 +16690,7 @@
         <v>157</v>
       </c>
       <c r="P83" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -16802,6 +16832,2107 @@
       </c>
       <c r="BK83">
         <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:63">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>5067836</v>
+      </c>
+      <c r="C84" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" t="s">
+        <v>64</v>
+      </c>
+      <c r="E84" s="2">
+        <v>44996.70833333334</v>
+      </c>
+      <c r="F84">
+        <v>5</v>
+      </c>
+      <c r="G84" t="s">
+        <v>80</v>
+      </c>
+      <c r="H84" t="s">
+        <v>90</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84" t="s">
+        <v>158</v>
+      </c>
+      <c r="P84" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q84">
+        <v>3</v>
+      </c>
+      <c r="R84">
+        <v>4</v>
+      </c>
+      <c r="S84">
+        <v>7</v>
+      </c>
+      <c r="T84">
+        <v>3.5</v>
+      </c>
+      <c r="U84">
+        <v>2.05</v>
+      </c>
+      <c r="V84">
+        <v>3.25</v>
+      </c>
+      <c r="W84">
+        <v>1.46</v>
+      </c>
+      <c r="X84">
+        <v>2.5</v>
+      </c>
+      <c r="Y84">
+        <v>3</v>
+      </c>
+      <c r="Z84">
+        <v>1.34</v>
+      </c>
+      <c r="AA84">
+        <v>8</v>
+      </c>
+      <c r="AB84">
+        <v>1.07</v>
+      </c>
+      <c r="AC84">
+        <v>2.68</v>
+      </c>
+      <c r="AD84">
+        <v>2.98</v>
+      </c>
+      <c r="AE84">
+        <v>2.43</v>
+      </c>
+      <c r="AF84">
+        <v>1.07</v>
+      </c>
+      <c r="AG84">
+        <v>7.5</v>
+      </c>
+      <c r="AH84">
+        <v>1.35</v>
+      </c>
+      <c r="AI84">
+        <v>2.95</v>
+      </c>
+      <c r="AJ84">
+        <v>2.5</v>
+      </c>
+      <c r="AK84">
+        <v>1.5</v>
+      </c>
+      <c r="AL84">
+        <v>1.8</v>
+      </c>
+      <c r="AM84">
+        <v>1.87</v>
+      </c>
+      <c r="AN84">
+        <v>1.49</v>
+      </c>
+      <c r="AO84">
+        <v>1.35</v>
+      </c>
+      <c r="AP84">
+        <v>1.41</v>
+      </c>
+      <c r="AQ84">
+        <v>0.5</v>
+      </c>
+      <c r="AR84">
+        <v>3</v>
+      </c>
+      <c r="AS84">
+        <v>1.33</v>
+      </c>
+      <c r="AT84">
+        <v>1.5</v>
+      </c>
+      <c r="AU84">
+        <v>1.84</v>
+      </c>
+      <c r="AV84">
+        <v>1.4</v>
+      </c>
+      <c r="AW84">
+        <v>3.24</v>
+      </c>
+      <c r="AX84">
+        <v>2.16</v>
+      </c>
+      <c r="AY84">
+        <v>7.3</v>
+      </c>
+      <c r="AZ84">
+        <v>2.03</v>
+      </c>
+      <c r="BA84">
+        <v>1.48</v>
+      </c>
+      <c r="BB84">
+        <v>1.83</v>
+      </c>
+      <c r="BC84">
+        <v>2.31</v>
+      </c>
+      <c r="BD84">
+        <v>3.04</v>
+      </c>
+      <c r="BE84">
+        <v>4.4</v>
+      </c>
+      <c r="BF84">
+        <v>2</v>
+      </c>
+      <c r="BG84">
+        <v>3</v>
+      </c>
+      <c r="BH84">
+        <v>0</v>
+      </c>
+      <c r="BI84">
+        <v>3</v>
+      </c>
+      <c r="BJ84">
+        <v>2</v>
+      </c>
+      <c r="BK84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:63">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>5067833</v>
+      </c>
+      <c r="C85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" t="s">
+        <v>64</v>
+      </c>
+      <c r="E85" s="2">
+        <v>44996.70833333334</v>
+      </c>
+      <c r="F85">
+        <v>5</v>
+      </c>
+      <c r="G85" t="s">
+        <v>78</v>
+      </c>
+      <c r="H85" t="s">
+        <v>95</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>2</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>3</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+      <c r="O85" t="s">
+        <v>102</v>
+      </c>
+      <c r="P85" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q85">
+        <v>2</v>
+      </c>
+      <c r="R85">
+        <v>3</v>
+      </c>
+      <c r="S85">
+        <v>5</v>
+      </c>
+      <c r="T85">
+        <v>3</v>
+      </c>
+      <c r="U85">
+        <v>1.85</v>
+      </c>
+      <c r="V85">
+        <v>4</v>
+      </c>
+      <c r="W85">
+        <v>1.57</v>
+      </c>
+      <c r="X85">
+        <v>2.25</v>
+      </c>
+      <c r="Y85">
+        <v>3.5</v>
+      </c>
+      <c r="Z85">
+        <v>1.26</v>
+      </c>
+      <c r="AA85">
+        <v>10.5</v>
+      </c>
+      <c r="AB85">
+        <v>1.04</v>
+      </c>
+      <c r="AC85">
+        <v>2.34</v>
+      </c>
+      <c r="AD85">
+        <v>2.86</v>
+      </c>
+      <c r="AE85">
+        <v>3.37</v>
+      </c>
+      <c r="AF85">
+        <v>1.11</v>
+      </c>
+      <c r="AG85">
+        <v>5.75</v>
+      </c>
+      <c r="AH85">
+        <v>1.5</v>
+      </c>
+      <c r="AI85">
+        <v>2.5</v>
+      </c>
+      <c r="AJ85">
+        <v>2.48</v>
+      </c>
+      <c r="AK85">
+        <v>1.5</v>
+      </c>
+      <c r="AL85">
+        <v>2.15</v>
+      </c>
+      <c r="AM85">
+        <v>1.62</v>
+      </c>
+      <c r="AN85">
+        <v>1.31</v>
+      </c>
+      <c r="AO85">
+        <v>1.38</v>
+      </c>
+      <c r="AP85">
+        <v>1.57</v>
+      </c>
+      <c r="AQ85">
+        <v>0.5</v>
+      </c>
+      <c r="AR85">
+        <v>0</v>
+      </c>
+      <c r="AS85">
+        <v>0.33</v>
+      </c>
+      <c r="AT85">
+        <v>1</v>
+      </c>
+      <c r="AU85">
+        <v>1.39</v>
+      </c>
+      <c r="AV85">
+        <v>1.77</v>
+      </c>
+      <c r="AW85">
+        <v>3.16</v>
+      </c>
+      <c r="AX85">
+        <v>1.67</v>
+      </c>
+      <c r="AY85">
+        <v>7.8</v>
+      </c>
+      <c r="AZ85">
+        <v>2.74</v>
+      </c>
+      <c r="BA85">
+        <v>1.23</v>
+      </c>
+      <c r="BB85">
+        <v>1.53</v>
+      </c>
+      <c r="BC85">
+        <v>1.85</v>
+      </c>
+      <c r="BD85">
+        <v>2.33</v>
+      </c>
+      <c r="BE85">
+        <v>3.14</v>
+      </c>
+      <c r="BF85">
+        <v>3</v>
+      </c>
+      <c r="BG85">
+        <v>5</v>
+      </c>
+      <c r="BH85">
+        <v>4</v>
+      </c>
+      <c r="BI85">
+        <v>2</v>
+      </c>
+      <c r="BJ85">
+        <v>7</v>
+      </c>
+      <c r="BK85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:63">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>5067841</v>
+      </c>
+      <c r="C86" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" t="s">
+        <v>64</v>
+      </c>
+      <c r="E86" s="2">
+        <v>44996.70833333334</v>
+      </c>
+      <c r="F86">
+        <v>6</v>
+      </c>
+      <c r="G86" t="s">
+        <v>87</v>
+      </c>
+      <c r="H86" t="s">
+        <v>70</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86" t="s">
+        <v>159</v>
+      </c>
+      <c r="P86" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q86">
+        <v>4</v>
+      </c>
+      <c r="R86">
+        <v>5</v>
+      </c>
+      <c r="S86">
+        <v>9</v>
+      </c>
+      <c r="T86">
+        <v>3.75</v>
+      </c>
+      <c r="U86">
+        <v>1.83</v>
+      </c>
+      <c r="V86">
+        <v>3.75</v>
+      </c>
+      <c r="W86">
+        <v>1.68</v>
+      </c>
+      <c r="X86">
+        <v>2.05</v>
+      </c>
+      <c r="Y86">
+        <v>4.4</v>
+      </c>
+      <c r="Z86">
+        <v>1.18</v>
+      </c>
+      <c r="AA86">
+        <v>14</v>
+      </c>
+      <c r="AB86">
+        <v>1.02</v>
+      </c>
+      <c r="AC86">
+        <v>2.6</v>
+      </c>
+      <c r="AD86">
+        <v>2.77</v>
+      </c>
+      <c r="AE86">
+        <v>2.67</v>
+      </c>
+      <c r="AF86">
+        <v>1.14</v>
+      </c>
+      <c r="AG86">
+        <v>5.25</v>
+      </c>
+      <c r="AH86">
+        <v>1.62</v>
+      </c>
+      <c r="AI86">
+        <v>2.25</v>
+      </c>
+      <c r="AJ86">
+        <v>2.94</v>
+      </c>
+      <c r="AK86">
+        <v>1.35</v>
+      </c>
+      <c r="AL86">
+        <v>2.4</v>
+      </c>
+      <c r="AM86">
+        <v>1.49</v>
+      </c>
+      <c r="AN86">
+        <v>1.43</v>
+      </c>
+      <c r="AO86">
+        <v>1.41</v>
+      </c>
+      <c r="AP86">
+        <v>1.43</v>
+      </c>
+      <c r="AQ86">
+        <v>2</v>
+      </c>
+      <c r="AR86">
+        <v>0.5</v>
+      </c>
+      <c r="AS86">
+        <v>2.33</v>
+      </c>
+      <c r="AT86">
+        <v>0.33</v>
+      </c>
+      <c r="AU86">
+        <v>1.48</v>
+      </c>
+      <c r="AV86">
+        <v>1.2</v>
+      </c>
+      <c r="AW86">
+        <v>2.68</v>
+      </c>
+      <c r="AX86">
+        <v>2.17</v>
+      </c>
+      <c r="AY86">
+        <v>7.4</v>
+      </c>
+      <c r="AZ86">
+        <v>2.01</v>
+      </c>
+      <c r="BA86">
+        <v>1.31</v>
+      </c>
+      <c r="BB86">
+        <v>1.64</v>
+      </c>
+      <c r="BC86">
+        <v>2.03</v>
+      </c>
+      <c r="BD86">
+        <v>2.69</v>
+      </c>
+      <c r="BE86">
+        <v>3.74</v>
+      </c>
+      <c r="BF86">
+        <v>3</v>
+      </c>
+      <c r="BG86">
+        <v>0</v>
+      </c>
+      <c r="BH86">
+        <v>5</v>
+      </c>
+      <c r="BI86">
+        <v>6</v>
+      </c>
+      <c r="BJ86">
+        <v>8</v>
+      </c>
+      <c r="BK86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:63">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>5067844</v>
+      </c>
+      <c r="C87" t="s">
+        <v>63</v>
+      </c>
+      <c r="D87" t="s">
+        <v>64</v>
+      </c>
+      <c r="E87" s="2">
+        <v>44996.79166666666</v>
+      </c>
+      <c r="F87">
+        <v>6</v>
+      </c>
+      <c r="G87" t="s">
+        <v>69</v>
+      </c>
+      <c r="H87" t="s">
+        <v>73</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>3</v>
+      </c>
+      <c r="O87" t="s">
+        <v>160</v>
+      </c>
+      <c r="P87" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q87">
+        <v>-1</v>
+      </c>
+      <c r="R87">
+        <v>-1</v>
+      </c>
+      <c r="S87">
+        <v>-1</v>
+      </c>
+      <c r="T87">
+        <v>2.96</v>
+      </c>
+      <c r="U87">
+        <v>1.87</v>
+      </c>
+      <c r="V87">
+        <v>4.55</v>
+      </c>
+      <c r="W87">
+        <v>1.62</v>
+      </c>
+      <c r="X87">
+        <v>2.15</v>
+      </c>
+      <c r="Y87">
+        <v>3.92</v>
+      </c>
+      <c r="Z87">
+        <v>1.23</v>
+      </c>
+      <c r="AA87">
+        <v>11.25</v>
+      </c>
+      <c r="AB87">
+        <v>1.02</v>
+      </c>
+      <c r="AC87">
+        <v>2.3</v>
+      </c>
+      <c r="AD87">
+        <v>2.7</v>
+      </c>
+      <c r="AE87">
+        <v>3.73</v>
+      </c>
+      <c r="AF87">
+        <v>1.09</v>
+      </c>
+      <c r="AG87">
+        <v>5.85</v>
+      </c>
+      <c r="AH87">
+        <v>1.57</v>
+      </c>
+      <c r="AI87">
+        <v>2.33</v>
+      </c>
+      <c r="AJ87">
+        <v>2.89</v>
+      </c>
+      <c r="AK87">
+        <v>1.36</v>
+      </c>
+      <c r="AL87">
+        <v>2.29</v>
+      </c>
+      <c r="AM87">
+        <v>1.58</v>
+      </c>
+      <c r="AN87">
+        <v>1.29</v>
+      </c>
+      <c r="AO87">
+        <v>1.38</v>
+      </c>
+      <c r="AP87">
+        <v>1.66</v>
+      </c>
+      <c r="AQ87">
+        <v>1</v>
+      </c>
+      <c r="AR87">
+        <v>0.5</v>
+      </c>
+      <c r="AS87">
+        <v>1.67</v>
+      </c>
+      <c r="AT87">
+        <v>0.33</v>
+      </c>
+      <c r="AU87">
+        <v>0.83</v>
+      </c>
+      <c r="AV87">
+        <v>0.97</v>
+      </c>
+      <c r="AW87">
+        <v>1.8</v>
+      </c>
+      <c r="AX87">
+        <v>1.77</v>
+      </c>
+      <c r="AY87">
+        <v>7.4</v>
+      </c>
+      <c r="AZ87">
+        <v>2.54</v>
+      </c>
+      <c r="BA87">
+        <v>1.33</v>
+      </c>
+      <c r="BB87">
+        <v>1.68</v>
+      </c>
+      <c r="BC87">
+        <v>2.09</v>
+      </c>
+      <c r="BD87">
+        <v>2.8</v>
+      </c>
+      <c r="BE87">
+        <v>3.92</v>
+      </c>
+      <c r="BF87">
+        <v>-1</v>
+      </c>
+      <c r="BG87">
+        <v>-1</v>
+      </c>
+      <c r="BH87">
+        <v>-1</v>
+      </c>
+      <c r="BI87">
+        <v>-1</v>
+      </c>
+      <c r="BJ87">
+        <v>-1</v>
+      </c>
+      <c r="BK87">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:63">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>5067842</v>
+      </c>
+      <c r="C88" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" t="s">
+        <v>64</v>
+      </c>
+      <c r="E88" s="2">
+        <v>44996.79513888889</v>
+      </c>
+      <c r="F88">
+        <v>6</v>
+      </c>
+      <c r="G88" t="s">
+        <v>86</v>
+      </c>
+      <c r="H88" t="s">
+        <v>72</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="O88" t="s">
+        <v>161</v>
+      </c>
+      <c r="P88" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q88">
+        <v>-1</v>
+      </c>
+      <c r="R88">
+        <v>-1</v>
+      </c>
+      <c r="S88">
+        <v>-1</v>
+      </c>
+      <c r="T88">
+        <v>2.77</v>
+      </c>
+      <c r="U88">
+        <v>1.98</v>
+      </c>
+      <c r="V88">
+        <v>5.07</v>
+      </c>
+      <c r="W88">
+        <v>1.57</v>
+      </c>
+      <c r="X88">
+        <v>2.38</v>
+      </c>
+      <c r="Y88">
+        <v>3.64</v>
+      </c>
+      <c r="Z88">
+        <v>1.26</v>
+      </c>
+      <c r="AA88">
+        <v>10.25</v>
+      </c>
+      <c r="AB88">
+        <v>1.03</v>
+      </c>
+      <c r="AC88">
+        <v>1.76</v>
+      </c>
+      <c r="AD88">
+        <v>3.3</v>
+      </c>
+      <c r="AE88">
+        <v>4.43</v>
+      </c>
+      <c r="AF88">
+        <v>1.07</v>
+      </c>
+      <c r="AG88">
+        <v>6.35</v>
+      </c>
+      <c r="AH88">
+        <v>1.5</v>
+      </c>
+      <c r="AI88">
+        <v>2.5</v>
+      </c>
+      <c r="AJ88">
+        <v>2.62</v>
+      </c>
+      <c r="AK88">
+        <v>1.43</v>
+      </c>
+      <c r="AL88">
+        <v>2.23</v>
+      </c>
+      <c r="AM88">
+        <v>1.61</v>
+      </c>
+      <c r="AN88">
+        <v>1.2</v>
+      </c>
+      <c r="AO88">
+        <v>1.34</v>
+      </c>
+      <c r="AP88">
+        <v>1.87</v>
+      </c>
+      <c r="AQ88">
+        <v>0.5</v>
+      </c>
+      <c r="AR88">
+        <v>2</v>
+      </c>
+      <c r="AS88">
+        <v>0.67</v>
+      </c>
+      <c r="AT88">
+        <v>1.67</v>
+      </c>
+      <c r="AU88">
+        <v>1.14</v>
+      </c>
+      <c r="AV88">
+        <v>0.95</v>
+      </c>
+      <c r="AW88">
+        <v>2.09</v>
+      </c>
+      <c r="AX88">
+        <v>1.43</v>
+      </c>
+      <c r="AY88">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ88">
+        <v>3.65</v>
+      </c>
+      <c r="BA88">
+        <v>1.38</v>
+      </c>
+      <c r="BB88">
+        <v>1.7</v>
+      </c>
+      <c r="BC88">
+        <v>2.12</v>
+      </c>
+      <c r="BD88">
+        <v>2.93</v>
+      </c>
+      <c r="BE88">
+        <v>4.2</v>
+      </c>
+      <c r="BF88">
+        <v>-1</v>
+      </c>
+      <c r="BG88">
+        <v>-1</v>
+      </c>
+      <c r="BH88">
+        <v>-1</v>
+      </c>
+      <c r="BI88">
+        <v>-1</v>
+      </c>
+      <c r="BJ88">
+        <v>-1</v>
+      </c>
+      <c r="BK88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:63">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>5067845</v>
+      </c>
+      <c r="C89" t="s">
+        <v>63</v>
+      </c>
+      <c r="D89" t="s">
+        <v>64</v>
+      </c>
+      <c r="E89" s="2">
+        <v>44996.85416666666</v>
+      </c>
+      <c r="F89">
+        <v>6</v>
+      </c>
+      <c r="G89" t="s">
+        <v>71</v>
+      </c>
+      <c r="H89" t="s">
+        <v>67</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89" t="s">
+        <v>102</v>
+      </c>
+      <c r="P89" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q89">
+        <v>1</v>
+      </c>
+      <c r="R89">
+        <v>3</v>
+      </c>
+      <c r="S89">
+        <v>4</v>
+      </c>
+      <c r="T89">
+        <v>3.25</v>
+      </c>
+      <c r="U89">
+        <v>1.83</v>
+      </c>
+      <c r="V89">
+        <v>4.33</v>
+      </c>
+      <c r="W89">
+        <v>1.68</v>
+      </c>
+      <c r="X89">
+        <v>2.05</v>
+      </c>
+      <c r="Y89">
+        <v>4.33</v>
+      </c>
+      <c r="Z89">
+        <v>1.19</v>
+      </c>
+      <c r="AA89">
+        <v>13.5</v>
+      </c>
+      <c r="AB89">
+        <v>1.02</v>
+      </c>
+      <c r="AC89">
+        <v>2.25</v>
+      </c>
+      <c r="AD89">
+        <v>2.68</v>
+      </c>
+      <c r="AE89">
+        <v>3.11</v>
+      </c>
+      <c r="AF89">
+        <v>1.14</v>
+      </c>
+      <c r="AG89">
+        <v>5</v>
+      </c>
+      <c r="AH89">
+        <v>1.52</v>
+      </c>
+      <c r="AI89">
+        <v>2.45</v>
+      </c>
+      <c r="AJ89">
+        <v>2.89</v>
+      </c>
+      <c r="AK89">
+        <v>1.36</v>
+      </c>
+      <c r="AL89">
+        <v>2.4</v>
+      </c>
+      <c r="AM89">
+        <v>1.5</v>
+      </c>
+      <c r="AN89">
+        <v>1.31</v>
+      </c>
+      <c r="AO89">
+        <v>1.4</v>
+      </c>
+      <c r="AP89">
+        <v>1.55</v>
+      </c>
+      <c r="AQ89">
+        <v>1</v>
+      </c>
+      <c r="AR89">
+        <v>1</v>
+      </c>
+      <c r="AS89">
+        <v>1</v>
+      </c>
+      <c r="AT89">
+        <v>1</v>
+      </c>
+      <c r="AU89">
+        <v>1.63</v>
+      </c>
+      <c r="AV89">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW89">
+        <v>2.57</v>
+      </c>
+      <c r="AX89">
+        <v>1.78</v>
+      </c>
+      <c r="AY89">
+        <v>7.6</v>
+      </c>
+      <c r="AZ89">
+        <v>2.5</v>
+      </c>
+      <c r="BA89">
+        <v>1.29</v>
+      </c>
+      <c r="BB89">
+        <v>1.64</v>
+      </c>
+      <c r="BC89">
+        <v>2.06</v>
+      </c>
+      <c r="BD89">
+        <v>2.41</v>
+      </c>
+      <c r="BE89">
+        <v>3.56</v>
+      </c>
+      <c r="BF89">
+        <v>3</v>
+      </c>
+      <c r="BG89">
+        <v>4</v>
+      </c>
+      <c r="BH89">
+        <v>5</v>
+      </c>
+      <c r="BI89">
+        <v>7</v>
+      </c>
+      <c r="BJ89">
+        <v>8</v>
+      </c>
+      <c r="BK89">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:63">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>5067839</v>
+      </c>
+      <c r="C90" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90" t="s">
+        <v>64</v>
+      </c>
+      <c r="E90" s="2">
+        <v>44996.85416666666</v>
+      </c>
+      <c r="F90">
+        <v>6</v>
+      </c>
+      <c r="G90" t="s">
+        <v>91</v>
+      </c>
+      <c r="H90" t="s">
+        <v>68</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>2</v>
+      </c>
+      <c r="O90" t="s">
+        <v>114</v>
+      </c>
+      <c r="P90" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q90">
+        <v>9</v>
+      </c>
+      <c r="R90">
+        <v>3</v>
+      </c>
+      <c r="S90">
+        <v>12</v>
+      </c>
+      <c r="T90">
+        <v>3.75</v>
+      </c>
+      <c r="U90">
+        <v>1.83</v>
+      </c>
+      <c r="V90">
+        <v>3.6</v>
+      </c>
+      <c r="W90">
+        <v>1.65</v>
+      </c>
+      <c r="X90">
+        <v>2.1</v>
+      </c>
+      <c r="Y90">
+        <v>4.1</v>
+      </c>
+      <c r="Z90">
+        <v>1.2</v>
+      </c>
+      <c r="AA90">
+        <v>12.5</v>
+      </c>
+      <c r="AB90">
+        <v>1.03</v>
+      </c>
+      <c r="AC90">
+        <v>2.68</v>
+      </c>
+      <c r="AD90">
+        <v>2.78</v>
+      </c>
+      <c r="AE90">
+        <v>2.58</v>
+      </c>
+      <c r="AF90">
+        <v>1.13</v>
+      </c>
+      <c r="AG90">
+        <v>5.5</v>
+      </c>
+      <c r="AH90">
+        <v>1.56</v>
+      </c>
+      <c r="AI90">
+        <v>2.33</v>
+      </c>
+      <c r="AJ90">
+        <v>2.73</v>
+      </c>
+      <c r="AK90">
+        <v>1.4</v>
+      </c>
+      <c r="AL90">
+        <v>2.25</v>
+      </c>
+      <c r="AM90">
+        <v>1.55</v>
+      </c>
+      <c r="AN90">
+        <v>1.44</v>
+      </c>
+      <c r="AO90">
+        <v>1.39</v>
+      </c>
+      <c r="AP90">
+        <v>1.41</v>
+      </c>
+      <c r="AQ90">
+        <v>3</v>
+      </c>
+      <c r="AR90">
+        <v>1.5</v>
+      </c>
+      <c r="AS90">
+        <v>2.33</v>
+      </c>
+      <c r="AT90">
+        <v>1.33</v>
+      </c>
+      <c r="AU90">
+        <v>1.68</v>
+      </c>
+      <c r="AV90">
+        <v>1.05</v>
+      </c>
+      <c r="AW90">
+        <v>2.73</v>
+      </c>
+      <c r="AX90">
+        <v>1.6</v>
+      </c>
+      <c r="AY90">
+        <v>7.7</v>
+      </c>
+      <c r="AZ90">
+        <v>2.95</v>
+      </c>
+      <c r="BA90">
+        <v>1.33</v>
+      </c>
+      <c r="BB90">
+        <v>1.68</v>
+      </c>
+      <c r="BC90">
+        <v>2.09</v>
+      </c>
+      <c r="BD90">
+        <v>2.8</v>
+      </c>
+      <c r="BE90">
+        <v>3.94</v>
+      </c>
+      <c r="BF90">
+        <v>11</v>
+      </c>
+      <c r="BG90">
+        <v>5</v>
+      </c>
+      <c r="BH90">
+        <v>11</v>
+      </c>
+      <c r="BI90">
+        <v>6</v>
+      </c>
+      <c r="BJ90">
+        <v>22</v>
+      </c>
+      <c r="BK90">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:63">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>5067835</v>
+      </c>
+      <c r="C91" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91" t="s">
+        <v>64</v>
+      </c>
+      <c r="E91" s="2">
+        <v>44996.88194444445</v>
+      </c>
+      <c r="F91">
+        <v>5</v>
+      </c>
+      <c r="G91" t="s">
+        <v>77</v>
+      </c>
+      <c r="H91" t="s">
+        <v>76</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+      <c r="N91">
+        <v>3</v>
+      </c>
+      <c r="O91" t="s">
+        <v>152</v>
+      </c>
+      <c r="P91" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q91">
+        <v>3</v>
+      </c>
+      <c r="R91">
+        <v>3</v>
+      </c>
+      <c r="S91">
+        <v>6</v>
+      </c>
+      <c r="T91">
+        <v>2.6</v>
+      </c>
+      <c r="U91">
+        <v>1.95</v>
+      </c>
+      <c r="V91">
+        <v>5.5</v>
+      </c>
+      <c r="W91">
+        <v>1.55</v>
+      </c>
+      <c r="X91">
+        <v>2.3</v>
+      </c>
+      <c r="Y91">
+        <v>3.4</v>
+      </c>
+      <c r="Z91">
+        <v>1.27</v>
+      </c>
+      <c r="AA91">
+        <v>10</v>
+      </c>
+      <c r="AB91">
+        <v>1.05</v>
+      </c>
+      <c r="AC91">
+        <v>1.77</v>
+      </c>
+      <c r="AD91">
+        <v>2.91</v>
+      </c>
+      <c r="AE91">
+        <v>4.35</v>
+      </c>
+      <c r="AF91">
+        <v>1.1</v>
+      </c>
+      <c r="AG91">
+        <v>6.25</v>
+      </c>
+      <c r="AH91">
+        <v>1.57</v>
+      </c>
+      <c r="AI91">
+        <v>2.33</v>
+      </c>
+      <c r="AJ91">
+        <v>2.5</v>
+      </c>
+      <c r="AK91">
+        <v>1.49</v>
+      </c>
+      <c r="AL91">
+        <v>2.2</v>
+      </c>
+      <c r="AM91">
+        <v>1.58</v>
+      </c>
+      <c r="AN91">
+        <v>1.19</v>
+      </c>
+      <c r="AO91">
+        <v>1.32</v>
+      </c>
+      <c r="AP91">
+        <v>1.88</v>
+      </c>
+      <c r="AQ91">
+        <v>3</v>
+      </c>
+      <c r="AR91">
+        <v>0</v>
+      </c>
+      <c r="AS91">
+        <v>2</v>
+      </c>
+      <c r="AT91">
+        <v>1.5</v>
+      </c>
+      <c r="AU91">
+        <v>1.36</v>
+      </c>
+      <c r="AV91">
+        <v>1.95</v>
+      </c>
+      <c r="AW91">
+        <v>3.31</v>
+      </c>
+      <c r="AX91">
+        <v>1.52</v>
+      </c>
+      <c r="AY91">
+        <v>7.8</v>
+      </c>
+      <c r="AZ91">
+        <v>3.25</v>
+      </c>
+      <c r="BA91">
+        <v>1.48</v>
+      </c>
+      <c r="BB91">
+        <v>1.81</v>
+      </c>
+      <c r="BC91">
+        <v>2.27</v>
+      </c>
+      <c r="BD91">
+        <v>3.18</v>
+      </c>
+      <c r="BE91">
+        <v>0</v>
+      </c>
+      <c r="BF91">
+        <v>3</v>
+      </c>
+      <c r="BG91">
+        <v>4</v>
+      </c>
+      <c r="BH91">
+        <v>7</v>
+      </c>
+      <c r="BI91">
+        <v>8</v>
+      </c>
+      <c r="BJ91">
+        <v>10</v>
+      </c>
+      <c r="BK91">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:63">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>5067831</v>
+      </c>
+      <c r="C92" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" t="s">
+        <v>64</v>
+      </c>
+      <c r="E92" s="2">
+        <v>44997.70833333334</v>
+      </c>
+      <c r="F92">
+        <v>5</v>
+      </c>
+      <c r="G92" t="s">
+        <v>89</v>
+      </c>
+      <c r="H92" t="s">
+        <v>100</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92" t="s">
+        <v>162</v>
+      </c>
+      <c r="P92" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q92">
+        <v>-1</v>
+      </c>
+      <c r="R92">
+        <v>-1</v>
+      </c>
+      <c r="S92">
+        <v>-1</v>
+      </c>
+      <c r="T92">
+        <v>3.2</v>
+      </c>
+      <c r="U92">
+        <v>1.83</v>
+      </c>
+      <c r="V92">
+        <v>4.5</v>
+      </c>
+      <c r="W92">
+        <v>1.58</v>
+      </c>
+      <c r="X92">
+        <v>2.2</v>
+      </c>
+      <c r="Y92">
+        <v>4.35</v>
+      </c>
+      <c r="Z92">
+        <v>1.18</v>
+      </c>
+      <c r="AA92">
+        <v>13.5</v>
+      </c>
+      <c r="AB92">
+        <v>1.03</v>
+      </c>
+      <c r="AC92">
+        <v>2.05</v>
+      </c>
+      <c r="AD92">
+        <v>2.9</v>
+      </c>
+      <c r="AE92">
+        <v>4</v>
+      </c>
+      <c r="AF92">
+        <v>1.12</v>
+      </c>
+      <c r="AG92">
+        <v>5.75</v>
+      </c>
+      <c r="AH92">
+        <v>1.63</v>
+      </c>
+      <c r="AI92">
+        <v>2.2</v>
+      </c>
+      <c r="AJ92">
+        <v>2.73</v>
+      </c>
+      <c r="AK92">
+        <v>1.4</v>
+      </c>
+      <c r="AL92">
+        <v>2.5</v>
+      </c>
+      <c r="AM92">
+        <v>1.48</v>
+      </c>
+      <c r="AN92">
+        <v>1.29</v>
+      </c>
+      <c r="AO92">
+        <v>1.35</v>
+      </c>
+      <c r="AP92">
+        <v>1.58</v>
+      </c>
+      <c r="AQ92">
+        <v>1.5</v>
+      </c>
+      <c r="AR92">
+        <v>1.5</v>
+      </c>
+      <c r="AS92">
+        <v>2</v>
+      </c>
+      <c r="AT92">
+        <v>1</v>
+      </c>
+      <c r="AU92">
+        <v>1.81</v>
+      </c>
+      <c r="AV92">
+        <v>1.21</v>
+      </c>
+      <c r="AW92">
+        <v>3.02</v>
+      </c>
+      <c r="AX92">
+        <v>1.49</v>
+      </c>
+      <c r="AY92">
+        <v>7.9</v>
+      </c>
+      <c r="AZ92">
+        <v>3.38</v>
+      </c>
+      <c r="BA92">
+        <v>1.37</v>
+      </c>
+      <c r="BB92">
+        <v>1.73</v>
+      </c>
+      <c r="BC92">
+        <v>2.16</v>
+      </c>
+      <c r="BD92">
+        <v>2.91</v>
+      </c>
+      <c r="BE92">
+        <v>4.2</v>
+      </c>
+      <c r="BF92">
+        <v>-1</v>
+      </c>
+      <c r="BG92">
+        <v>-1</v>
+      </c>
+      <c r="BH92">
+        <v>-1</v>
+      </c>
+      <c r="BI92">
+        <v>-1</v>
+      </c>
+      <c r="BJ92">
+        <v>-1</v>
+      </c>
+      <c r="BK92">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:63">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>5067843</v>
+      </c>
+      <c r="C93" t="s">
+        <v>63</v>
+      </c>
+      <c r="D93" t="s">
+        <v>64</v>
+      </c>
+      <c r="E93" s="2">
+        <v>44997.70833333334</v>
+      </c>
+      <c r="F93">
+        <v>6</v>
+      </c>
+      <c r="G93" t="s">
+        <v>79</v>
+      </c>
+      <c r="H93" t="s">
+        <v>65</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>2</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>2</v>
+      </c>
+      <c r="O93" t="s">
+        <v>163</v>
+      </c>
+      <c r="P93" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q93">
+        <v>-1</v>
+      </c>
+      <c r="R93">
+        <v>-1</v>
+      </c>
+      <c r="S93">
+        <v>-1</v>
+      </c>
+      <c r="T93">
+        <v>3.7</v>
+      </c>
+      <c r="U93">
+        <v>1.78</v>
+      </c>
+      <c r="V93">
+        <v>3.4</v>
+      </c>
+      <c r="W93">
+        <v>1.63</v>
+      </c>
+      <c r="X93">
+        <v>2.1</v>
+      </c>
+      <c r="Y93">
+        <v>3.9</v>
+      </c>
+      <c r="Z93">
+        <v>1.22</v>
+      </c>
+      <c r="AA93">
+        <v>12</v>
+      </c>
+      <c r="AB93">
+        <v>1.03</v>
+      </c>
+      <c r="AC93">
+        <v>3</v>
+      </c>
+      <c r="AD93">
+        <v>2.7</v>
+      </c>
+      <c r="AE93">
+        <v>2.75</v>
+      </c>
+      <c r="AF93">
+        <v>1.15</v>
+      </c>
+      <c r="AG93">
+        <v>5.33</v>
+      </c>
+      <c r="AH93">
+        <v>1.63</v>
+      </c>
+      <c r="AI93">
+        <v>2.2</v>
+      </c>
+      <c r="AJ93">
+        <v>2.94</v>
+      </c>
+      <c r="AK93">
+        <v>1.35</v>
+      </c>
+      <c r="AL93">
+        <v>2.2</v>
+      </c>
+      <c r="AM93">
+        <v>1.57</v>
+      </c>
+      <c r="AN93">
+        <v>1.46</v>
+      </c>
+      <c r="AO93">
+        <v>1.41</v>
+      </c>
+      <c r="AP93">
+        <v>1.38</v>
+      </c>
+      <c r="AQ93">
+        <v>1</v>
+      </c>
+      <c r="AR93">
+        <v>0</v>
+      </c>
+      <c r="AS93">
+        <v>1.67</v>
+      </c>
+      <c r="AT93">
+        <v>0</v>
+      </c>
+      <c r="AU93">
+        <v>1.03</v>
+      </c>
+      <c r="AV93">
+        <v>1.35</v>
+      </c>
+      <c r="AW93">
+        <v>2.38</v>
+      </c>
+      <c r="AX93">
+        <v>2.01</v>
+      </c>
+      <c r="AY93">
+        <v>7.3</v>
+      </c>
+      <c r="AZ93">
+        <v>2.18</v>
+      </c>
+      <c r="BA93">
+        <v>1.39</v>
+      </c>
+      <c r="BB93">
+        <v>1.71</v>
+      </c>
+      <c r="BC93">
+        <v>2.21</v>
+      </c>
+      <c r="BD93">
+        <v>2.93</v>
+      </c>
+      <c r="BE93">
+        <v>0</v>
+      </c>
+      <c r="BF93">
+        <v>-1</v>
+      </c>
+      <c r="BG93">
+        <v>-1</v>
+      </c>
+      <c r="BH93">
+        <v>-1</v>
+      </c>
+      <c r="BI93">
+        <v>-1</v>
+      </c>
+      <c r="BJ93">
+        <v>-1</v>
+      </c>
+      <c r="BK93">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:63">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>5067840</v>
+      </c>
+      <c r="C94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94" t="s">
+        <v>64</v>
+      </c>
+      <c r="E94" s="2">
+        <v>44997.70833333334</v>
+      </c>
+      <c r="F94">
+        <v>6</v>
+      </c>
+      <c r="G94" t="s">
+        <v>88</v>
+      </c>
+      <c r="H94" t="s">
+        <v>66</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94" t="s">
+        <v>102</v>
+      </c>
+      <c r="P94" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q94">
+        <v>-1</v>
+      </c>
+      <c r="R94">
+        <v>-1</v>
+      </c>
+      <c r="S94">
+        <v>-1</v>
+      </c>
+      <c r="T94">
+        <v>3.5</v>
+      </c>
+      <c r="U94">
+        <v>1.83</v>
+      </c>
+      <c r="V94">
+        <v>4</v>
+      </c>
+      <c r="W94">
+        <v>1.62</v>
+      </c>
+      <c r="X94">
+        <v>2.2</v>
+      </c>
+      <c r="Y94">
+        <v>4</v>
+      </c>
+      <c r="Z94">
+        <v>1.22</v>
+      </c>
+      <c r="AA94">
+        <v>13</v>
+      </c>
+      <c r="AB94">
+        <v>1.04</v>
+      </c>
+      <c r="AC94">
+        <v>2.5</v>
+      </c>
+      <c r="AD94">
+        <v>2.8</v>
+      </c>
+      <c r="AE94">
+        <v>3.2</v>
+      </c>
+      <c r="AF94">
+        <v>1.07</v>
+      </c>
+      <c r="AG94">
+        <v>5.85</v>
+      </c>
+      <c r="AH94">
+        <v>1.57</v>
+      </c>
+      <c r="AI94">
+        <v>2.33</v>
+      </c>
+      <c r="AJ94">
+        <v>2.89</v>
+      </c>
+      <c r="AK94">
+        <v>1.36</v>
+      </c>
+      <c r="AL94">
+        <v>2.25</v>
+      </c>
+      <c r="AM94">
+        <v>1.57</v>
+      </c>
+      <c r="AN94">
+        <v>1.28</v>
+      </c>
+      <c r="AO94">
+        <v>1.38</v>
+      </c>
+      <c r="AP94">
+        <v>1.45</v>
+      </c>
+      <c r="AQ94">
+        <v>2</v>
+      </c>
+      <c r="AR94">
+        <v>0</v>
+      </c>
+      <c r="AS94">
+        <v>1.33</v>
+      </c>
+      <c r="AT94">
+        <v>1</v>
+      </c>
+      <c r="AU94">
+        <v>1.93</v>
+      </c>
+      <c r="AV94">
+        <v>1.67</v>
+      </c>
+      <c r="AW94">
+        <v>3.6</v>
+      </c>
+      <c r="AX94">
+        <v>1.9</v>
+      </c>
+      <c r="AY94">
+        <v>7.4</v>
+      </c>
+      <c r="AZ94">
+        <v>2.32</v>
+      </c>
+      <c r="BA94">
+        <v>1.4</v>
+      </c>
+      <c r="BB94">
+        <v>1.67</v>
+      </c>
+      <c r="BC94">
+        <v>2.1</v>
+      </c>
+      <c r="BD94">
+        <v>2.63</v>
+      </c>
+      <c r="BE94">
+        <v>4.2</v>
+      </c>
+      <c r="BF94">
+        <v>-1</v>
+      </c>
+      <c r="BG94">
+        <v>-1</v>
+      </c>
+      <c r="BH94">
+        <v>-1</v>
+      </c>
+      <c r="BI94">
+        <v>-1</v>
+      </c>
+      <c r="BJ94">
+        <v>-1</v>
+      </c>
+      <c r="BK94">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="205">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -508,6 +508,18 @@
     <t>['55', '90+5']</t>
   </si>
   <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['45+3', '48']</t>
+  </si>
+  <si>
+    <t>['40', '75']</t>
+  </si>
+  <si>
+    <t>['21', '33', '90+7']</t>
+  </si>
+  <si>
     <t>['27']</t>
   </si>
   <si>
@@ -562,9 +574,6 @@
     <t>['60']</t>
   </si>
   <si>
-    <t>['90']</t>
-  </si>
-  <si>
     <t>['18']</t>
   </si>
   <si>
@@ -614,6 +623,12 @@
   </si>
   <si>
     <t>['65', '74']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['11', '63', '67']</t>
   </si>
 </sst>
 </file>
@@ -975,7 +990,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK94"/>
+  <dimension ref="A1:BK100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1219,7 +1234,7 @@
         <v>102</v>
       </c>
       <c r="P2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1500,7 +1515,7 @@
         <v>1.33</v>
       </c>
       <c r="AT3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1792,7 +1807,7 @@
         <v>103</v>
       </c>
       <c r="P5" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -1882,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="AT5">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2174,7 +2189,7 @@
         <v>104</v>
       </c>
       <c r="P7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2365,7 +2380,7 @@
         <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2747,7 +2762,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -2938,7 +2953,7 @@
         <v>107</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3025,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT11">
         <v>1</v>
@@ -3219,7 +3234,7 @@
         <v>2</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3320,7 +3335,7 @@
         <v>105</v>
       </c>
       <c r="P13" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3792,7 +3807,7 @@
         <v>0.33</v>
       </c>
       <c r="AT15">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4084,7 +4099,7 @@
         <v>110</v>
       </c>
       <c r="P17" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4174,7 +4189,7 @@
         <v>1.33</v>
       </c>
       <c r="AT17">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4466,7 +4481,7 @@
         <v>112</v>
       </c>
       <c r="P19" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4553,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT19">
         <v>0.33</v>
@@ -4744,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT20">
         <v>1.67</v>
@@ -4935,10 +4950,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT21">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5421,7 +5436,7 @@
         <v>114</v>
       </c>
       <c r="P24" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5612,7 +5627,7 @@
         <v>115</v>
       </c>
       <c r="P25" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -5994,7 +6009,7 @@
         <v>117</v>
       </c>
       <c r="P27" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6376,7 +6391,7 @@
         <v>119</v>
       </c>
       <c r="P29" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6567,7 +6582,7 @@
         <v>120</v>
       </c>
       <c r="P30" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -6949,7 +6964,7 @@
         <v>121</v>
       </c>
       <c r="P32" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7140,7 +7155,7 @@
         <v>122</v>
       </c>
       <c r="P33" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q33">
         <v>10</v>
@@ -7331,7 +7346,7 @@
         <v>123</v>
       </c>
       <c r="P34" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -8095,7 +8110,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8668,7 +8683,7 @@
         <v>128</v>
       </c>
       <c r="P41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -8859,7 +8874,7 @@
         <v>129</v>
       </c>
       <c r="P42" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -8946,7 +8961,7 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT42">
         <v>1</v>
@@ -9241,7 +9256,7 @@
         <v>130</v>
       </c>
       <c r="P44" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9522,7 +9537,7 @@
         <v>3</v>
       </c>
       <c r="AT45">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU45">
         <v>0</v>
@@ -9814,7 +9829,7 @@
         <v>102</v>
       </c>
       <c r="P47" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q47">
         <v>7</v>
@@ -9901,7 +9916,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT47">
         <v>1.33</v>
@@ -10005,7 +10020,7 @@
         <v>132</v>
       </c>
       <c r="P48" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10092,10 +10107,10 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU48">
         <v>0.98</v>
@@ -10387,7 +10402,7 @@
         <v>102</v>
       </c>
       <c r="P50" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10578,7 +10593,7 @@
         <v>134</v>
       </c>
       <c r="P51" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11047,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT53">
         <v>1</v>
@@ -11432,7 +11447,7 @@
         <v>3</v>
       </c>
       <c r="AT55">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU55">
         <v>1.44</v>
@@ -12002,7 +12017,7 @@
         <v>0</v>
       </c>
       <c r="AS58">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT58">
         <v>0</v>
@@ -12488,7 +12503,7 @@
         <v>102</v>
       </c>
       <c r="P61" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -12578,7 +12593,7 @@
         <v>2</v>
       </c>
       <c r="AT61">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU61">
         <v>1.88</v>
@@ -12679,7 +12694,7 @@
         <v>142</v>
       </c>
       <c r="P62" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12769,7 +12784,7 @@
         <v>2</v>
       </c>
       <c r="AT62">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU62">
         <v>1.28</v>
@@ -12957,10 +12972,10 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT63">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU63">
         <v>0</v>
@@ -13061,7 +13076,7 @@
         <v>144</v>
       </c>
       <c r="P64" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -13252,7 +13267,7 @@
         <v>102</v>
       </c>
       <c r="P65" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q65">
         <v>14</v>
@@ -13825,7 +13840,7 @@
         <v>102</v>
       </c>
       <c r="P68" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -14207,7 +14222,7 @@
         <v>106</v>
       </c>
       <c r="P70" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14780,7 +14795,7 @@
         <v>149</v>
       </c>
       <c r="P73" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15162,7 +15177,7 @@
         <v>102</v>
       </c>
       <c r="P75" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -15735,7 +15750,7 @@
         <v>152</v>
       </c>
       <c r="P78" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -15926,7 +15941,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -16308,7 +16323,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16690,7 +16705,7 @@
         <v>157</v>
       </c>
       <c r="P83" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -17072,7 +17087,7 @@
         <v>102</v>
       </c>
       <c r="P85" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -17454,16 +17469,16 @@
         <v>160</v>
       </c>
       <c r="P87" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q87">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R87">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S87">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T87">
         <v>2.96</v>
@@ -17580,22 +17595,22 @@
         <v>3.92</v>
       </c>
       <c r="BF87">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BG87">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH87">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI87">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BJ87">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BK87">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:63">
@@ -17645,16 +17660,16 @@
         <v>161</v>
       </c>
       <c r="P88" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q88">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R88">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S88">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="T88">
         <v>2.77</v>
@@ -17771,22 +17786,22 @@
         <v>4.2</v>
       </c>
       <c r="BF88">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG88">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH88">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BI88">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BJ88">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BK88">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:63">
@@ -18218,7 +18233,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -18412,13 +18427,13 @@
         <v>102</v>
       </c>
       <c r="Q92">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R92">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S92">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T92">
         <v>3.2</v>
@@ -18535,22 +18550,22 @@
         <v>4.2</v>
       </c>
       <c r="BF92">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG92">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BH92">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BI92">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ92">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BK92">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:63">
@@ -18603,13 +18618,13 @@
         <v>102</v>
       </c>
       <c r="Q93">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R93">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S93">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T93">
         <v>3.7</v>
@@ -18726,22 +18741,22 @@
         <v>0</v>
       </c>
       <c r="BF93">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG93">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH93">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BI93">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ93">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BK93">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:63">
@@ -18791,16 +18806,16 @@
         <v>102</v>
       </c>
       <c r="P94" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q94">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R94">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S94">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T94">
         <v>3.5</v>
@@ -18917,22 +18932,1168 @@
         <v>4.2</v>
       </c>
       <c r="BF94">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BG94">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH94">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI94">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BJ94">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BK94">
-        <v>-1</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:63">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>5067829</v>
+      </c>
+      <c r="C95" t="s">
+        <v>63</v>
+      </c>
+      <c r="D95" t="s">
+        <v>64</v>
+      </c>
+      <c r="E95" s="2">
+        <v>44997.77083333334</v>
+      </c>
+      <c r="F95">
+        <v>5</v>
+      </c>
+      <c r="G95" t="s">
+        <v>98</v>
+      </c>
+      <c r="H95" t="s">
+        <v>94</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>2</v>
+      </c>
+      <c r="O95" t="s">
+        <v>164</v>
+      </c>
+      <c r="P95" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q95">
+        <v>3</v>
+      </c>
+      <c r="R95">
+        <v>11</v>
+      </c>
+      <c r="S95">
+        <v>14</v>
+      </c>
+      <c r="T95">
+        <v>3.6</v>
+      </c>
+      <c r="U95">
+        <v>1.95</v>
+      </c>
+      <c r="V95">
+        <v>3.5</v>
+      </c>
+      <c r="W95">
+        <v>1.48</v>
+      </c>
+      <c r="X95">
+        <v>2.48</v>
+      </c>
+      <c r="Y95">
+        <v>3.55</v>
+      </c>
+      <c r="Z95">
+        <v>1.25</v>
+      </c>
+      <c r="AA95">
+        <v>10</v>
+      </c>
+      <c r="AB95">
+        <v>1.05</v>
+      </c>
+      <c r="AC95">
+        <v>2.4</v>
+      </c>
+      <c r="AD95">
+        <v>3</v>
+      </c>
+      <c r="AE95">
+        <v>3</v>
+      </c>
+      <c r="AF95">
+        <v>1.08</v>
+      </c>
+      <c r="AG95">
+        <v>7</v>
+      </c>
+      <c r="AH95">
+        <v>1.53</v>
+      </c>
+      <c r="AI95">
+        <v>2.4</v>
+      </c>
+      <c r="AJ95">
+        <v>2.38</v>
+      </c>
+      <c r="AK95">
+        <v>1.53</v>
+      </c>
+      <c r="AL95">
+        <v>1.98</v>
+      </c>
+      <c r="AM95">
+        <v>1.75</v>
+      </c>
+      <c r="AN95">
+        <v>1.44</v>
+      </c>
+      <c r="AO95">
+        <v>1.35</v>
+      </c>
+      <c r="AP95">
+        <v>1.4</v>
+      </c>
+      <c r="AQ95">
+        <v>3</v>
+      </c>
+      <c r="AR95">
+        <v>2</v>
+      </c>
+      <c r="AS95">
+        <v>2</v>
+      </c>
+      <c r="AT95">
+        <v>1.67</v>
+      </c>
+      <c r="AU95">
+        <v>1.86</v>
+      </c>
+      <c r="AV95">
+        <v>1.2</v>
+      </c>
+      <c r="AW95">
+        <v>3.06</v>
+      </c>
+      <c r="AX95">
+        <v>1.51</v>
+      </c>
+      <c r="AY95">
+        <v>7.8</v>
+      </c>
+      <c r="AZ95">
+        <v>3.3</v>
+      </c>
+      <c r="BA95">
+        <v>1.37</v>
+      </c>
+      <c r="BB95">
+        <v>1.8</v>
+      </c>
+      <c r="BC95">
+        <v>2.2</v>
+      </c>
+      <c r="BD95">
+        <v>3</v>
+      </c>
+      <c r="BE95">
+        <v>4.4</v>
+      </c>
+      <c r="BF95">
+        <v>2</v>
+      </c>
+      <c r="BG95">
+        <v>6</v>
+      </c>
+      <c r="BH95">
+        <v>3</v>
+      </c>
+      <c r="BI95">
+        <v>6</v>
+      </c>
+      <c r="BJ95">
+        <v>5</v>
+      </c>
+      <c r="BK95">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:63">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>5067832</v>
+      </c>
+      <c r="C96" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" t="s">
+        <v>64</v>
+      </c>
+      <c r="E96" s="2">
+        <v>44997.79166666666</v>
+      </c>
+      <c r="F96">
+        <v>5</v>
+      </c>
+      <c r="G96" t="s">
+        <v>84</v>
+      </c>
+      <c r="H96" t="s">
+        <v>92</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>2</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>3</v>
+      </c>
+      <c r="O96" t="s">
+        <v>165</v>
+      </c>
+      <c r="P96" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q96">
+        <v>5</v>
+      </c>
+      <c r="R96">
+        <v>1</v>
+      </c>
+      <c r="S96">
+        <v>6</v>
+      </c>
+      <c r="T96">
+        <v>3.75</v>
+      </c>
+      <c r="U96">
+        <v>1.95</v>
+      </c>
+      <c r="V96">
+        <v>3.4</v>
+      </c>
+      <c r="W96">
+        <v>1.53</v>
+      </c>
+      <c r="X96">
+        <v>2.3</v>
+      </c>
+      <c r="Y96">
+        <v>3.4</v>
+      </c>
+      <c r="Z96">
+        <v>1.27</v>
+      </c>
+      <c r="AA96">
+        <v>9.75</v>
+      </c>
+      <c r="AB96">
+        <v>1.05</v>
+      </c>
+      <c r="AC96">
+        <v>2.65</v>
+      </c>
+      <c r="AD96">
+        <v>2.65</v>
+      </c>
+      <c r="AE96">
+        <v>2.8</v>
+      </c>
+      <c r="AF96">
+        <v>1.06</v>
+      </c>
+      <c r="AG96">
+        <v>6.8</v>
+      </c>
+      <c r="AH96">
+        <v>1.5</v>
+      </c>
+      <c r="AI96">
+        <v>2.48</v>
+      </c>
+      <c r="AJ96">
+        <v>2.38</v>
+      </c>
+      <c r="AK96">
+        <v>1.53</v>
+      </c>
+      <c r="AL96">
+        <v>2</v>
+      </c>
+      <c r="AM96">
+        <v>1.71</v>
+      </c>
+      <c r="AN96">
+        <v>1.49</v>
+      </c>
+      <c r="AO96">
+        <v>1.37</v>
+      </c>
+      <c r="AP96">
+        <v>1.39</v>
+      </c>
+      <c r="AQ96">
+        <v>2</v>
+      </c>
+      <c r="AR96">
+        <v>1.5</v>
+      </c>
+      <c r="AS96">
+        <v>2.33</v>
+      </c>
+      <c r="AT96">
+        <v>1</v>
+      </c>
+      <c r="AU96">
+        <v>1.3</v>
+      </c>
+      <c r="AV96">
+        <v>1.48</v>
+      </c>
+      <c r="AW96">
+        <v>2.78</v>
+      </c>
+      <c r="AX96">
+        <v>1.94</v>
+      </c>
+      <c r="AY96">
+        <v>7.3</v>
+      </c>
+      <c r="AZ96">
+        <v>2.27</v>
+      </c>
+      <c r="BA96">
+        <v>1.4</v>
+      </c>
+      <c r="BB96">
+        <v>1.78</v>
+      </c>
+      <c r="BC96">
+        <v>2.23</v>
+      </c>
+      <c r="BD96">
+        <v>2.98</v>
+      </c>
+      <c r="BE96">
+        <v>4.4</v>
+      </c>
+      <c r="BF96">
+        <v>7</v>
+      </c>
+      <c r="BG96">
+        <v>5</v>
+      </c>
+      <c r="BH96">
+        <v>7</v>
+      </c>
+      <c r="BI96">
+        <v>2</v>
+      </c>
+      <c r="BJ96">
+        <v>14</v>
+      </c>
+      <c r="BK96">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:63">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>5067838</v>
+      </c>
+      <c r="C97" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97" t="s">
+        <v>64</v>
+      </c>
+      <c r="E97" s="2">
+        <v>44997.79513888889</v>
+      </c>
+      <c r="F97">
+        <v>6</v>
+      </c>
+      <c r="G97" t="s">
+        <v>83</v>
+      </c>
+      <c r="H97" t="s">
+        <v>99</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97" t="s">
+        <v>102</v>
+      </c>
+      <c r="P97" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q97">
+        <v>5</v>
+      </c>
+      <c r="R97">
+        <v>1</v>
+      </c>
+      <c r="S97">
+        <v>6</v>
+      </c>
+      <c r="T97">
+        <v>2.82</v>
+      </c>
+      <c r="U97">
+        <v>1.84</v>
+      </c>
+      <c r="V97">
+        <v>5.3</v>
+      </c>
+      <c r="W97">
+        <v>1.65</v>
+      </c>
+      <c r="X97">
+        <v>2.17</v>
+      </c>
+      <c r="Y97">
+        <v>4.14</v>
+      </c>
+      <c r="Z97">
+        <v>1.21</v>
+      </c>
+      <c r="AA97">
+        <v>11.5</v>
+      </c>
+      <c r="AB97">
+        <v>1.02</v>
+      </c>
+      <c r="AC97">
+        <v>2.2</v>
+      </c>
+      <c r="AD97">
+        <v>2.8</v>
+      </c>
+      <c r="AE97">
+        <v>3.8</v>
+      </c>
+      <c r="AF97">
+        <v>1.1</v>
+      </c>
+      <c r="AG97">
+        <v>5.55</v>
+      </c>
+      <c r="AH97">
+        <v>1.64</v>
+      </c>
+      <c r="AI97">
+        <v>2.18</v>
+      </c>
+      <c r="AJ97">
+        <v>2.99</v>
+      </c>
+      <c r="AK97">
+        <v>1.34</v>
+      </c>
+      <c r="AL97">
+        <v>2.43</v>
+      </c>
+      <c r="AM97">
+        <v>1.53</v>
+      </c>
+      <c r="AN97">
+        <v>1.22</v>
+      </c>
+      <c r="AO97">
+        <v>1.38</v>
+      </c>
+      <c r="AP97">
+        <v>1.77</v>
+      </c>
+      <c r="AQ97">
+        <v>1.5</v>
+      </c>
+      <c r="AR97">
+        <v>0.5</v>
+      </c>
+      <c r="AS97">
+        <v>1.33</v>
+      </c>
+      <c r="AT97">
+        <v>0.67</v>
+      </c>
+      <c r="AU97">
+        <v>1.23</v>
+      </c>
+      <c r="AV97">
+        <v>1.31</v>
+      </c>
+      <c r="AW97">
+        <v>2.54</v>
+      </c>
+      <c r="AX97">
+        <v>1.46</v>
+      </c>
+      <c r="AY97">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ97">
+        <v>3.5</v>
+      </c>
+      <c r="BA97">
+        <v>1.33</v>
+      </c>
+      <c r="BB97">
+        <v>1.66</v>
+      </c>
+      <c r="BC97">
+        <v>2.06</v>
+      </c>
+      <c r="BD97">
+        <v>2.76</v>
+      </c>
+      <c r="BE97">
+        <v>3.88</v>
+      </c>
+      <c r="BF97">
+        <v>2</v>
+      </c>
+      <c r="BG97">
+        <v>0</v>
+      </c>
+      <c r="BH97">
+        <v>9</v>
+      </c>
+      <c r="BI97">
+        <v>4</v>
+      </c>
+      <c r="BJ97">
+        <v>11</v>
+      </c>
+      <c r="BK97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:63">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>5067830</v>
+      </c>
+      <c r="C98" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" t="s">
+        <v>64</v>
+      </c>
+      <c r="E98" s="2">
+        <v>44997.85416666666</v>
+      </c>
+      <c r="F98">
+        <v>5</v>
+      </c>
+      <c r="G98" t="s">
+        <v>101</v>
+      </c>
+      <c r="H98" t="s">
+        <v>96</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>3</v>
+      </c>
+      <c r="N98">
+        <v>4</v>
+      </c>
+      <c r="O98" t="s">
+        <v>159</v>
+      </c>
+      <c r="P98" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q98">
+        <v>10</v>
+      </c>
+      <c r="R98">
+        <v>2</v>
+      </c>
+      <c r="S98">
+        <v>12</v>
+      </c>
+      <c r="T98">
+        <v>2.57</v>
+      </c>
+      <c r="U98">
+        <v>1.98</v>
+      </c>
+      <c r="V98">
+        <v>5.05</v>
+      </c>
+      <c r="W98">
+        <v>1.53</v>
+      </c>
+      <c r="X98">
+        <v>2.41</v>
+      </c>
+      <c r="Y98">
+        <v>3.48</v>
+      </c>
+      <c r="Z98">
+        <v>1.28</v>
+      </c>
+      <c r="AA98">
+        <v>9.5</v>
+      </c>
+      <c r="AB98">
+        <v>1.04</v>
+      </c>
+      <c r="AC98">
+        <v>1.95</v>
+      </c>
+      <c r="AD98">
+        <v>3</v>
+      </c>
+      <c r="AE98">
+        <v>4.4</v>
+      </c>
+      <c r="AF98">
+        <v>1.06</v>
+      </c>
+      <c r="AG98">
+        <v>6.85</v>
+      </c>
+      <c r="AH98">
+        <v>1.49</v>
+      </c>
+      <c r="AI98">
+        <v>2.65</v>
+      </c>
+      <c r="AJ98">
+        <v>2.5</v>
+      </c>
+      <c r="AK98">
+        <v>1.49</v>
+      </c>
+      <c r="AL98">
+        <v>2.14</v>
+      </c>
+      <c r="AM98">
+        <v>1.66</v>
+      </c>
+      <c r="AN98">
+        <v>1.22</v>
+      </c>
+      <c r="AO98">
+        <v>1.33</v>
+      </c>
+      <c r="AP98">
+        <v>1.87</v>
+      </c>
+      <c r="AQ98">
+        <v>3</v>
+      </c>
+      <c r="AR98">
+        <v>0</v>
+      </c>
+      <c r="AS98">
+        <v>1.5</v>
+      </c>
+      <c r="AT98">
+        <v>1</v>
+      </c>
+      <c r="AU98">
+        <v>1.87</v>
+      </c>
+      <c r="AV98">
+        <v>1.62</v>
+      </c>
+      <c r="AW98">
+        <v>3.49</v>
+      </c>
+      <c r="AX98">
+        <v>1.38</v>
+      </c>
+      <c r="AY98">
+        <v>8.6</v>
+      </c>
+      <c r="AZ98">
+        <v>3.96</v>
+      </c>
+      <c r="BA98">
+        <v>1.27</v>
+      </c>
+      <c r="BB98">
+        <v>1.59</v>
+      </c>
+      <c r="BC98">
+        <v>1.96</v>
+      </c>
+      <c r="BD98">
+        <v>2.46</v>
+      </c>
+      <c r="BE98">
+        <v>3.42</v>
+      </c>
+      <c r="BF98">
+        <v>6</v>
+      </c>
+      <c r="BG98">
+        <v>5</v>
+      </c>
+      <c r="BH98">
+        <v>7</v>
+      </c>
+      <c r="BI98">
+        <v>7</v>
+      </c>
+      <c r="BJ98">
+        <v>13</v>
+      </c>
+      <c r="BK98">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:63">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>5067837</v>
+      </c>
+      <c r="C99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99" t="s">
+        <v>64</v>
+      </c>
+      <c r="E99" s="2">
+        <v>44998.70833333334</v>
+      </c>
+      <c r="F99">
+        <v>6</v>
+      </c>
+      <c r="G99" t="s">
+        <v>82</v>
+      </c>
+      <c r="H99" t="s">
+        <v>85</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>2</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>3</v>
+      </c>
+      <c r="O99" t="s">
+        <v>166</v>
+      </c>
+      <c r="P99" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q99">
+        <v>2</v>
+      </c>
+      <c r="R99">
+        <v>1</v>
+      </c>
+      <c r="S99">
+        <v>3</v>
+      </c>
+      <c r="T99">
+        <v>5.3</v>
+      </c>
+      <c r="U99">
+        <v>1.96</v>
+      </c>
+      <c r="V99">
+        <v>2.58</v>
+      </c>
+      <c r="W99">
+        <v>1.54</v>
+      </c>
+      <c r="X99">
+        <v>2.39</v>
+      </c>
+      <c r="Y99">
+        <v>3.56</v>
+      </c>
+      <c r="Z99">
+        <v>1.27</v>
+      </c>
+      <c r="AA99">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AB99">
+        <v>1.04</v>
+      </c>
+      <c r="AC99">
+        <v>4</v>
+      </c>
+      <c r="AD99">
+        <v>2.95</v>
+      </c>
+      <c r="AE99">
+        <v>2.05</v>
+      </c>
+      <c r="AF99">
+        <v>1.06</v>
+      </c>
+      <c r="AG99">
+        <v>6.55</v>
+      </c>
+      <c r="AH99">
+        <v>1.53</v>
+      </c>
+      <c r="AI99">
+        <v>2.38</v>
+      </c>
+      <c r="AJ99">
+        <v>2.45</v>
+      </c>
+      <c r="AK99">
+        <v>1.52</v>
+      </c>
+      <c r="AL99">
+        <v>2.19</v>
+      </c>
+      <c r="AM99">
+        <v>1.64</v>
+      </c>
+      <c r="AN99">
+        <v>1.89</v>
+      </c>
+      <c r="AO99">
+        <v>1.33</v>
+      </c>
+      <c r="AP99">
+        <v>1.21</v>
+      </c>
+      <c r="AQ99">
+        <v>0.5</v>
+      </c>
+      <c r="AR99">
+        <v>1.5</v>
+      </c>
+      <c r="AS99">
+        <v>1.33</v>
+      </c>
+      <c r="AT99">
+        <v>1</v>
+      </c>
+      <c r="AU99">
+        <v>1.98</v>
+      </c>
+      <c r="AV99">
+        <v>0.75</v>
+      </c>
+      <c r="AW99">
+        <v>2.73</v>
+      </c>
+      <c r="AX99">
+        <v>2.77</v>
+      </c>
+      <c r="AY99">
+        <v>7.6</v>
+      </c>
+      <c r="AZ99">
+        <v>1.67</v>
+      </c>
+      <c r="BA99">
+        <v>1.41</v>
+      </c>
+      <c r="BB99">
+        <v>1.76</v>
+      </c>
+      <c r="BC99">
+        <v>2.22</v>
+      </c>
+      <c r="BD99">
+        <v>3.08</v>
+      </c>
+      <c r="BE99">
+        <v>4.4</v>
+      </c>
+      <c r="BF99">
+        <v>4</v>
+      </c>
+      <c r="BG99">
+        <v>5</v>
+      </c>
+      <c r="BH99">
+        <v>6</v>
+      </c>
+      <c r="BI99">
+        <v>4</v>
+      </c>
+      <c r="BJ99">
+        <v>10</v>
+      </c>
+      <c r="BK99">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:63">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>5067828</v>
+      </c>
+      <c r="C100" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100" t="s">
+        <v>64</v>
+      </c>
+      <c r="E100" s="2">
+        <v>44998.88194444445</v>
+      </c>
+      <c r="F100">
+        <v>5</v>
+      </c>
+      <c r="G100" t="s">
+        <v>74</v>
+      </c>
+      <c r="H100" t="s">
+        <v>97</v>
+      </c>
+      <c r="I100">
+        <v>2</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>2</v>
+      </c>
+      <c r="L100">
+        <v>3</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>4</v>
+      </c>
+      <c r="O100" t="s">
+        <v>167</v>
+      </c>
+      <c r="P100" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q100">
+        <v>1</v>
+      </c>
+      <c r="R100">
+        <v>9</v>
+      </c>
+      <c r="S100">
+        <v>10</v>
+      </c>
+      <c r="T100">
+        <v>2.88</v>
+      </c>
+      <c r="U100">
+        <v>1.95</v>
+      </c>
+      <c r="V100">
+        <v>4.5</v>
+      </c>
+      <c r="W100">
+        <v>1.58</v>
+      </c>
+      <c r="X100">
+        <v>2.25</v>
+      </c>
+      <c r="Y100">
+        <v>3.6</v>
+      </c>
+      <c r="Z100">
+        <v>1.25</v>
+      </c>
+      <c r="AA100">
+        <v>8.5</v>
+      </c>
+      <c r="AB100">
+        <v>1.04</v>
+      </c>
+      <c r="AC100">
+        <v>2.05</v>
+      </c>
+      <c r="AD100">
+        <v>3</v>
+      </c>
+      <c r="AE100">
+        <v>3.75</v>
+      </c>
+      <c r="AF100">
+        <v>1.1</v>
+      </c>
+      <c r="AG100">
+        <v>7.1</v>
+      </c>
+      <c r="AH100">
+        <v>1.5</v>
+      </c>
+      <c r="AI100">
+        <v>2.45</v>
+      </c>
+      <c r="AJ100">
+        <v>2.45</v>
+      </c>
+      <c r="AK100">
+        <v>1.52</v>
+      </c>
+      <c r="AL100">
+        <v>2.15</v>
+      </c>
+      <c r="AM100">
+        <v>1.62</v>
+      </c>
+      <c r="AN100">
+        <v>1.25</v>
+      </c>
+      <c r="AO100">
+        <v>1.36</v>
+      </c>
+      <c r="AP100">
+        <v>1.67</v>
+      </c>
+      <c r="AQ100">
+        <v>1.5</v>
+      </c>
+      <c r="AR100">
+        <v>0.5</v>
+      </c>
+      <c r="AS100">
+        <v>2</v>
+      </c>
+      <c r="AT100">
+        <v>0.33</v>
+      </c>
+      <c r="AU100">
+        <v>1.42</v>
+      </c>
+      <c r="AV100">
+        <v>1.88</v>
+      </c>
+      <c r="AW100">
+        <v>3.3</v>
+      </c>
+      <c r="AX100">
+        <v>1.65</v>
+      </c>
+      <c r="AY100">
+        <v>7.1</v>
+      </c>
+      <c r="AZ100">
+        <v>2.91</v>
+      </c>
+      <c r="BA100">
+        <v>1.36</v>
+      </c>
+      <c r="BB100">
+        <v>1.76</v>
+      </c>
+      <c r="BC100">
+        <v>2.21</v>
+      </c>
+      <c r="BD100">
+        <v>2.95</v>
+      </c>
+      <c r="BE100">
+        <v>4.4</v>
+      </c>
+      <c r="BF100">
+        <v>6</v>
+      </c>
+      <c r="BG100">
+        <v>7</v>
+      </c>
+      <c r="BH100">
+        <v>7</v>
+      </c>
+      <c r="BI100">
+        <v>7</v>
+      </c>
+      <c r="BJ100">
+        <v>13</v>
+      </c>
+      <c r="BK100">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK100"/>
+  <dimension ref="A1:BK104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT9" t="n">
         <v>0.33</v>
@@ -2527,7 +2527,7 @@
         <v>0.67</v>
       </c>
       <c r="AT10" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT17" t="n">
         <v>1</v>
@@ -6587,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU30" t="n">
         <v>1.29</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AT34" t="n">
         <v>1.5</v>
@@ -8008,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="AT37" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU37" t="n">
         <v>1.11</v>
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU38" t="n">
         <v>0</v>
@@ -9426,10 +9426,10 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT44" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU44" t="n">
         <v>1.55</v>
@@ -9629,7 +9629,7 @@
         <v>3</v>
       </c>
       <c r="AS45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT45" t="n">
         <v>1</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT54" t="n">
         <v>1.67</v>
@@ -13895,7 +13895,7 @@
         <v>1.5</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU66" t="n">
         <v>1.8</v>
@@ -14501,7 +14501,7 @@
         <v>0.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT69" t="n">
         <v>0.33</v>
@@ -15316,7 +15316,7 @@
         <v>0.67</v>
       </c>
       <c r="AT73" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU73" t="n">
         <v>1.46</v>
@@ -15719,7 +15719,7 @@
         <v>3</v>
       </c>
       <c r="AS75" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AT75" t="n">
         <v>3</v>
@@ -15922,7 +15922,7 @@
         <v>1</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT76" t="n">
         <v>1</v>
@@ -16534,7 +16534,7 @@
         <v>1.33</v>
       </c>
       <c r="AT79" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU79" t="n">
         <v>1.97</v>
@@ -16737,7 +16737,7 @@
         <v>3</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU80" t="n">
         <v>1.67</v>
@@ -17952,7 +17952,7 @@
         <v>3</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT86" t="n">
         <v>1.5</v>
@@ -20849,6 +20849,818 @@
       </c>
       <c r="BK100" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>5067849</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45002.79861111111</v>
+      </c>
+      <c r="F101" t="n">
+        <v>6</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Ferro Carril Oeste</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Deportivo Madryn</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>9</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>13</v>
+      </c>
+      <c r="T101" t="n">
+        <v>3</v>
+      </c>
+      <c r="U101" t="n">
+        <v>2</v>
+      </c>
+      <c r="V101" t="n">
+        <v>4</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X101" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>5067857</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45003.64583333334</v>
+      </c>
+      <c r="F102" t="n">
+        <v>7</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Almirante Brown</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Flandria</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>2</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>2</v>
+      </c>
+      <c r="L102" t="n">
+        <v>3</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="n">
+        <v>4</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>['4', '29', '50']</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>6</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2</v>
+      </c>
+      <c r="S102" t="n">
+        <v>8</v>
+      </c>
+      <c r="T102" t="n">
+        <v>3</v>
+      </c>
+      <c r="U102" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V102" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X102" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>5067846</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45003.66666666666</v>
+      </c>
+      <c r="F103" t="n">
+        <v>6</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Brown de Adrogué</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Aldosivi</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>2</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>2</v>
+      </c>
+      <c r="L103" t="n">
+        <v>2</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>2</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>['1', '35']</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>2</v>
+      </c>
+      <c r="R103" t="n">
+        <v>6</v>
+      </c>
+      <c r="S103" t="n">
+        <v>8</v>
+      </c>
+      <c r="T103" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U103" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V103" t="n">
+        <v>4</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X103" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>5067861</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45003.66666666666</v>
+      </c>
+      <c r="F104" t="n">
+        <v>7</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Nueva Chicago</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Agropecuario</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="n">
+        <v>1</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U104" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V104" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X104" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="221">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -675,6 +675,9 @@
   <si>
     <t>['53', '61']</t>
   </si>
+  <si>
+    <t>['90+2']</t>
+  </si>
 </sst>
 </file>
 
@@ -1035,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK117"/>
+  <dimension ref="A1:BK118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1366,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT2">
         <v>1</v>
@@ -4043,7 +4046,7 @@
         <v>1.67</v>
       </c>
       <c r="AT16">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -9197,7 +9200,7 @@
         <v>1</v>
       </c>
       <c r="AS43">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT43">
         <v>0.75</v>
@@ -15118,7 +15121,7 @@
         <v>2</v>
       </c>
       <c r="AS74">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT74">
         <v>1.75</v>
@@ -16649,7 +16652,7 @@
         <v>1.33</v>
       </c>
       <c r="AT82">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU82">
         <v>1.49</v>
@@ -23386,6 +23389,197 @@
       </c>
       <c r="BK117">
         <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:63">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>5067856</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45005.88194444445</v>
+      </c>
+      <c r="F118">
+        <v>7</v>
+      </c>
+      <c r="G118" t="s">
+        <v>65</v>
+      </c>
+      <c r="H118" t="s">
+        <v>69</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118" t="s">
+        <v>110</v>
+      </c>
+      <c r="P118" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q118">
+        <v>8</v>
+      </c>
+      <c r="R118">
+        <v>2</v>
+      </c>
+      <c r="S118">
+        <v>10</v>
+      </c>
+      <c r="T118">
+        <v>3.2</v>
+      </c>
+      <c r="U118">
+        <v>1.78</v>
+      </c>
+      <c r="V118">
+        <v>4.1</v>
+      </c>
+      <c r="W118">
+        <v>1.62</v>
+      </c>
+      <c r="X118">
+        <v>2.15</v>
+      </c>
+      <c r="Y118">
+        <v>3.75</v>
+      </c>
+      <c r="Z118">
+        <v>1.23</v>
+      </c>
+      <c r="AA118">
+        <v>11</v>
+      </c>
+      <c r="AB118">
+        <v>1.04</v>
+      </c>
+      <c r="AC118">
+        <v>1.86</v>
+      </c>
+      <c r="AD118">
+        <v>2.95</v>
+      </c>
+      <c r="AE118">
+        <v>4.1</v>
+      </c>
+      <c r="AF118">
+        <v>1.13</v>
+      </c>
+      <c r="AG118">
+        <v>5.25</v>
+      </c>
+      <c r="AH118">
+        <v>1.58</v>
+      </c>
+      <c r="AI118">
+        <v>2.28</v>
+      </c>
+      <c r="AJ118">
+        <v>2.81</v>
+      </c>
+      <c r="AK118">
+        <v>1.38</v>
+      </c>
+      <c r="AL118">
+        <v>2.2</v>
+      </c>
+      <c r="AM118">
+        <v>1.58</v>
+      </c>
+      <c r="AN118">
+        <v>1.3</v>
+      </c>
+      <c r="AO118">
+        <v>1.42</v>
+      </c>
+      <c r="AP118">
+        <v>1.53</v>
+      </c>
+      <c r="AQ118">
+        <v>1.33</v>
+      </c>
+      <c r="AR118">
+        <v>0.5</v>
+      </c>
+      <c r="AS118">
+        <v>1.25</v>
+      </c>
+      <c r="AT118">
+        <v>0.67</v>
+      </c>
+      <c r="AU118">
+        <v>1.26</v>
+      </c>
+      <c r="AV118">
+        <v>1.11</v>
+      </c>
+      <c r="AW118">
+        <v>2.37</v>
+      </c>
+      <c r="AX118">
+        <v>1.36</v>
+      </c>
+      <c r="AY118">
+        <v>8.5</v>
+      </c>
+      <c r="AZ118">
+        <v>4.15</v>
+      </c>
+      <c r="BA118">
+        <v>1.4</v>
+      </c>
+      <c r="BB118">
+        <v>1.88</v>
+      </c>
+      <c r="BC118">
+        <v>2.23</v>
+      </c>
+      <c r="BD118">
+        <v>3.04</v>
+      </c>
+      <c r="BE118">
+        <v>4.5</v>
+      </c>
+      <c r="BF118">
+        <v>3</v>
+      </c>
+      <c r="BG118">
+        <v>3</v>
+      </c>
+      <c r="BH118">
+        <v>6</v>
+      </c>
+      <c r="BI118">
+        <v>1</v>
+      </c>
+      <c r="BJ118">
+        <v>9</v>
+      </c>
+      <c r="BK118">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -250,22 +250,22 @@
     <t>Estudiantes Caseros</t>
   </si>
   <si>
-    <t>Deportivo Madryn</t>
+    <t>Flandria</t>
   </si>
   <si>
-    <t>Flandria</t>
+    <t>Almagro</t>
+  </si>
+  <si>
+    <t>San Telmo</t>
+  </si>
+  <si>
+    <t>Temperley</t>
   </si>
   <si>
     <t>Brown de Adrogué</t>
   </si>
   <si>
-    <t>Temperley</t>
-  </si>
-  <si>
-    <t>San Telmo</t>
-  </si>
-  <si>
-    <t>Almagro</t>
+    <t>Deportivo Madryn</t>
   </si>
   <si>
     <t>Villa Dálmine</t>
@@ -277,10 +277,10 @@
     <t>San Martín San Juan</t>
   </si>
   <si>
-    <t>Defensores Unidos</t>
+    <t>Guillermo Brown</t>
   </si>
   <si>
-    <t>Guillermo Brown</t>
+    <t>Defensores Unidos</t>
   </si>
   <si>
     <t>Deportivo Maipú</t>
@@ -298,10 +298,10 @@
     <t>Ferro Carril Oeste</t>
   </si>
   <si>
-    <t>Chacarita Juniors</t>
+    <t>Deportivo Riestra</t>
   </si>
   <si>
-    <t>Deportivo Riestra</t>
+    <t>Chacarita Juniors</t>
   </si>
   <si>
     <t>Tristán Suárez</t>
@@ -346,22 +346,22 @@
     <t>['64', '77']</t>
   </si>
   <si>
-    <t>['36']</t>
+    <t>['32', '73']</t>
   </si>
   <si>
     <t>['17', '74']</t>
   </si>
   <si>
-    <t>['32', '73']</t>
+    <t>['36']</t>
   </si>
   <si>
     <t>['65', '80']</t>
   </si>
   <si>
-    <t>['26']</t>
+    <t>['20', '70', '73', '89']</t>
   </si>
   <si>
-    <t>['20', '70', '73', '89']</t>
+    <t>['26']</t>
   </si>
   <si>
     <t>['5', '65']</t>
@@ -376,22 +376,22 @@
     <t>['65']</t>
   </si>
   <si>
-    <t>['44']</t>
+    <t>['90', '90+7']</t>
   </si>
   <si>
     <t>['42']</t>
   </si>
   <si>
-    <t>['90', '90+7']</t>
+    <t>['44']</t>
   </si>
   <si>
     <t>['8', '13']</t>
   </si>
   <si>
-    <t>['30', '55', '77']</t>
+    <t>['6', '55']</t>
   </si>
   <si>
-    <t>['6', '55']</t>
+    <t>['30', '55', '77']</t>
   </si>
   <si>
     <t>['29']</t>
@@ -400,10 +400,10 @@
     <t>['78']</t>
   </si>
   <si>
-    <t>['80']</t>
+    <t>['63', '80']</t>
   </si>
   <si>
-    <t>['63', '80']</t>
+    <t>['80']</t>
   </si>
   <si>
     <t>['11', '14', '47', '90+4']</t>
@@ -418,16 +418,16 @@
     <t>['3']</t>
   </si>
   <si>
-    <t>['15', '82']</t>
+    <t>['40']</t>
   </si>
   <si>
-    <t>['21']</t>
+    <t>['15', '82']</t>
   </si>
   <si>
     <t>['14']</t>
   </si>
   <si>
-    <t>['40']</t>
+    <t>['21']</t>
   </si>
   <si>
     <t>['50']</t>
@@ -460,10 +460,10 @@
     <t>['8', '59', '90+1']</t>
   </si>
   <si>
-    <t>['15', '26']</t>
+    <t>['35']</t>
   </si>
   <si>
-    <t>['35']</t>
+    <t>['15', '26']</t>
   </si>
   <si>
     <t>['90+1']</t>
@@ -502,10 +502,10 @@
     <t>['89']</t>
   </si>
   <si>
-    <t>['55', '90+5']</t>
+    <t>['45+2']</t>
   </si>
   <si>
-    <t>['45+2']</t>
+    <t>['55', '90+5']</t>
   </si>
   <si>
     <t>['90']</t>
@@ -574,10 +574,10 @@
     <t>['64']</t>
   </si>
   <si>
-    <t>['12', '56']</t>
+    <t>['5', '59']</t>
   </si>
   <si>
-    <t>['5', '59']</t>
+    <t>['12', '56']</t>
   </si>
   <si>
     <t>['45+6']</t>
@@ -589,13 +589,13 @@
     <t>['51', '78']</t>
   </si>
   <si>
-    <t>['67']</t>
+    <t>['70', '85']</t>
   </si>
   <si>
     <t>['25']</t>
   </si>
   <si>
-    <t>['70', '85']</t>
+    <t>['67']</t>
   </si>
   <si>
     <t>['29', '33', '78']</t>
@@ -1258,7 +1258,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>102</v>
       </c>
       <c r="P3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1640,7 +1640,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2595,7 +2595,7 @@
         <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -3723,7 +3723,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>5012310</v>
+        <v>5067773</v>
       </c>
       <c r="C15" t="s">
         <v>63</v>
@@ -3735,13 +3735,13 @@
         <v>44968.70833333334</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="s">
         <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -3768,22 +3768,22 @@
         <v>102</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S15">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T15">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="U15">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V15">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="W15">
         <v>1.61</v>
@@ -3792,25 +3792,25 @@
         <v>2.21</v>
       </c>
       <c r="Y15">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="Z15">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="AA15">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AB15">
         <v>1.01</v>
       </c>
       <c r="AC15">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="AD15">
-        <v>2.98</v>
+        <v>2.84</v>
       </c>
       <c r="AE15">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="AF15">
         <v>1.11</v>
@@ -3819,16 +3819,16 @@
         <v>6</v>
       </c>
       <c r="AH15">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AI15">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AJ15">
-        <v>2.55</v>
+        <v>2.73</v>
       </c>
       <c r="AK15">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="AL15">
         <v>2.1</v>
@@ -3837,13 +3837,13 @@
         <v>1.68</v>
       </c>
       <c r="AN15">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="AO15">
         <v>1.33</v>
       </c>
       <c r="AP15">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ15">
         <v>0</v>
@@ -3852,10 +3852,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0.33</v>
+        <v>1.67</v>
       </c>
       <c r="AT15">
-        <v>1.67</v>
+        <v>0.67</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3867,46 +3867,46 @@
         <v>0</v>
       </c>
       <c r="AX15">
-        <v>1.59</v>
+        <v>1.72</v>
       </c>
       <c r="AY15">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AZ15">
-        <v>2.93</v>
+        <v>2.62</v>
       </c>
       <c r="BA15">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="BB15">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="BC15">
-        <v>2.15</v>
+        <v>1.94</v>
       </c>
       <c r="BD15">
-        <v>2.85</v>
+        <v>2.43</v>
       </c>
       <c r="BE15">
-        <v>4.2</v>
+        <v>3.42</v>
       </c>
       <c r="BF15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BI15">
+        <v>1</v>
+      </c>
+      <c r="BJ15">
+        <v>8</v>
+      </c>
+      <c r="BK15">
         <v>5</v>
-      </c>
-      <c r="BJ15">
-        <v>9</v>
-      </c>
-      <c r="BK15">
-        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:63">
@@ -3914,7 +3914,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>5067773</v>
+        <v>5067768</v>
       </c>
       <c r="C16" t="s">
         <v>63</v>
@@ -3932,7 +3932,7 @@
         <v>79</v>
       </c>
       <c r="H16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -3947,43 +3947,43 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="s">
         <v>102</v>
       </c>
       <c r="P16" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S16">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="T16">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="W16">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="X16">
-        <v>2.21</v>
+        <v>2.31</v>
       </c>
       <c r="Y16">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z16">
         <v>1.19</v>
@@ -3995,59 +3995,59 @@
         <v>1.01</v>
       </c>
       <c r="AC16">
-        <v>2.35</v>
+        <v>2.02</v>
       </c>
       <c r="AD16">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="AE16">
-        <v>2.92</v>
+        <v>3.5</v>
       </c>
       <c r="AF16">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="AG16">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH16">
         <v>1.55</v>
       </c>
       <c r="AI16">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="AJ16">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="AK16">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="AL16">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AM16">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AN16">
+        <v>1.15</v>
+      </c>
+      <c r="AO16">
         <v>1.28</v>
       </c>
-      <c r="AO16">
+      <c r="AP16">
+        <v>1.95</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
         <v>1.33</v>
       </c>
-      <c r="AP16">
-        <v>1.45</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>0</v>
-      </c>
-      <c r="AS16">
+      <c r="AT16">
         <v>1.67</v>
       </c>
-      <c r="AT16">
-        <v>0.67</v>
-      </c>
       <c r="AU16">
         <v>0</v>
       </c>
@@ -4058,37 +4058,37 @@
         <v>0</v>
       </c>
       <c r="AX16">
-        <v>1.72</v>
+        <v>1.41</v>
       </c>
       <c r="AY16">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="AZ16">
-        <v>2.62</v>
+        <v>3.56</v>
       </c>
       <c r="BA16">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="BB16">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="BC16">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="BD16">
-        <v>2.43</v>
+        <v>2.46</v>
       </c>
       <c r="BE16">
-        <v>3.42</v>
+        <v>3.48</v>
       </c>
       <c r="BF16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BG16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH16">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BI16">
         <v>1</v>
@@ -4097,7 +4097,7 @@
         <v>8</v>
       </c>
       <c r="BK16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:63">
@@ -4105,7 +4105,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>5012313</v>
+        <v>5067767</v>
       </c>
       <c r="C17" t="s">
         <v>63</v>
@@ -4117,13 +4117,13 @@
         <v>44968.70833333334</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" t="s">
         <v>80</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -4135,13 +4135,13 @@
         <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17">
         <v>2</v>
       </c>
       <c r="N17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O17" t="s">
         <v>110</v>
@@ -4150,82 +4150,82 @@
         <v>186</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R17">
+        <v>3</v>
+      </c>
+      <c r="S17">
         <v>5</v>
       </c>
-      <c r="S17">
-        <v>8</v>
-      </c>
       <c r="T17">
+        <v>3.75</v>
+      </c>
+      <c r="U17">
+        <v>1.83</v>
+      </c>
+      <c r="V17">
         <v>3.25</v>
       </c>
-      <c r="U17">
-        <v>1.91</v>
-      </c>
-      <c r="V17">
-        <v>4</v>
-      </c>
       <c r="W17">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="X17">
-        <v>2.25</v>
+        <v>2.21</v>
       </c>
       <c r="Y17">
-        <v>3.74</v>
+        <v>3.6</v>
       </c>
       <c r="Z17">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AA17">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="AB17">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AC17">
+        <v>2.86</v>
+      </c>
+      <c r="AD17">
+        <v>2.94</v>
+      </c>
+      <c r="AE17">
         <v>2.33</v>
       </c>
-      <c r="AD17">
-        <v>3.04</v>
-      </c>
-      <c r="AE17">
-        <v>3.38</v>
-      </c>
       <c r="AF17">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AG17">
         <v>6</v>
       </c>
       <c r="AH17">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AI17">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="AJ17">
-        <v>2.51</v>
+        <v>2.65</v>
       </c>
       <c r="AK17">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="AL17">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AM17">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="AN17">
+        <v>1.45</v>
+      </c>
+      <c r="AO17">
         <v>1.33</v>
       </c>
-      <c r="AO17">
-        <v>1.36</v>
-      </c>
       <c r="AP17">
-        <v>1.53</v>
+        <v>1.28</v>
       </c>
       <c r="AQ17">
         <v>0</v>
@@ -4234,10 +4234,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AT17">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4249,46 +4249,46 @@
         <v>0</v>
       </c>
       <c r="AX17">
-        <v>1.69</v>
+        <v>2.12</v>
       </c>
       <c r="AY17">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AZ17">
-        <v>2.68</v>
+        <v>2</v>
       </c>
       <c r="BA17">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="BB17">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="BC17">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="BD17">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="BE17">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="BF17">
         <v>7</v>
       </c>
       <c r="BG17">
+        <v>4</v>
+      </c>
+      <c r="BH17">
         <v>7</v>
       </c>
-      <c r="BH17">
-        <v>9</v>
-      </c>
       <c r="BI17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ17">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BK17">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:63">
@@ -4487,7 +4487,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>5067767</v>
+        <v>5012313</v>
       </c>
       <c r="C19" t="s">
         <v>63</v>
@@ -4499,13 +4499,13 @@
         <v>44968.70833333334</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" t="s">
         <v>82</v>
       </c>
       <c r="H19" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -4517,13 +4517,13 @@
         <v>2</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19">
         <v>2</v>
       </c>
       <c r="N19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O19" t="s">
         <v>112</v>
@@ -4532,83 +4532,83 @@
         <v>187</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T19">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U19">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V19">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="W19">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="X19">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
       <c r="Y19">
-        <v>3.6</v>
+        <v>3.74</v>
       </c>
       <c r="Z19">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AA19">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="AB19">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AC19">
-        <v>2.86</v>
+        <v>2.33</v>
       </c>
       <c r="AD19">
-        <v>2.94</v>
+        <v>3.04</v>
       </c>
       <c r="AE19">
-        <v>2.33</v>
+        <v>3.38</v>
       </c>
       <c r="AF19">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AG19">
         <v>6</v>
       </c>
       <c r="AH19">
+        <v>1.48</v>
+      </c>
+      <c r="AI19">
+        <v>2.55</v>
+      </c>
+      <c r="AJ19">
+        <v>2.51</v>
+      </c>
+      <c r="AK19">
+        <v>1.4</v>
+      </c>
+      <c r="AL19">
+        <v>2.2</v>
+      </c>
+      <c r="AM19">
+        <v>1.64</v>
+      </c>
+      <c r="AN19">
+        <v>1.33</v>
+      </c>
+      <c r="AO19">
+        <v>1.36</v>
+      </c>
+      <c r="AP19">
         <v>1.53</v>
       </c>
-      <c r="AI19">
-        <v>2.4</v>
-      </c>
-      <c r="AJ19">
-        <v>2.65</v>
-      </c>
-      <c r="AK19">
-        <v>1.42</v>
-      </c>
-      <c r="AL19">
-        <v>2.1</v>
-      </c>
-      <c r="AM19">
-        <v>1.68</v>
-      </c>
-      <c r="AN19">
-        <v>1.45</v>
-      </c>
-      <c r="AO19">
-        <v>1.33</v>
-      </c>
-      <c r="AP19">
-        <v>1.28</v>
-      </c>
       <c r="AQ19">
         <v>0</v>
       </c>
@@ -4616,10 +4616,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4631,46 +4631,46 @@
         <v>0</v>
       </c>
       <c r="AX19">
-        <v>2.12</v>
+        <v>1.69</v>
       </c>
       <c r="AY19">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="AZ19">
-        <v>2</v>
+        <v>2.68</v>
       </c>
       <c r="BA19">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="BB19">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="BC19">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="BD19">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="BE19">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="BF19">
         <v>7</v>
       </c>
       <c r="BG19">
+        <v>7</v>
+      </c>
+      <c r="BH19">
+        <v>9</v>
+      </c>
+      <c r="BI19">
         <v>4</v>
       </c>
-      <c r="BH19">
-        <v>7</v>
-      </c>
-      <c r="BI19">
-        <v>3</v>
-      </c>
       <c r="BJ19">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BK19">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:63">
@@ -4678,7 +4678,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>5067768</v>
+        <v>5012310</v>
       </c>
       <c r="C20" t="s">
         <v>63</v>
@@ -4690,13 +4690,13 @@
         <v>44968.70833333334</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" t="s">
         <v>83</v>
       </c>
       <c r="H20" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -4711,95 +4711,95 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="s">
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S20">
         <v>6</v>
       </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="U20">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="V20">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="W20">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="X20">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="Y20">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Z20">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="AA20">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AB20">
         <v>1.01</v>
       </c>
       <c r="AC20">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="AD20">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="AE20">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="AF20">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="AG20">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH20">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AI20">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AJ20">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="AK20">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="AL20">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AM20">
+        <v>1.68</v>
+      </c>
+      <c r="AN20">
+        <v>1.2</v>
+      </c>
+      <c r="AO20">
+        <v>1.33</v>
+      </c>
+      <c r="AP20">
         <v>1.6</v>
       </c>
-      <c r="AN20">
-        <v>1.15</v>
-      </c>
-      <c r="AO20">
-        <v>1.28</v>
-      </c>
-      <c r="AP20">
-        <v>1.95</v>
-      </c>
       <c r="AQ20">
         <v>0</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.33</v>
+        <v>0.33</v>
       </c>
       <c r="AT20">
         <v>1.67</v>
@@ -4822,46 +4822,46 @@
         <v>0</v>
       </c>
       <c r="AX20">
-        <v>1.41</v>
+        <v>1.59</v>
       </c>
       <c r="AY20">
+        <v>7.7</v>
+      </c>
+      <c r="AZ20">
+        <v>2.93</v>
+      </c>
+      <c r="BA20">
+        <v>1.34</v>
+      </c>
+      <c r="BB20">
+        <v>1.71</v>
+      </c>
+      <c r="BC20">
+        <v>2.15</v>
+      </c>
+      <c r="BD20">
+        <v>2.85</v>
+      </c>
+      <c r="BE20">
+        <v>4.2</v>
+      </c>
+      <c r="BF20">
+        <v>2</v>
+      </c>
+      <c r="BG20">
+        <v>3</v>
+      </c>
+      <c r="BH20">
+        <v>7</v>
+      </c>
+      <c r="BI20">
+        <v>5</v>
+      </c>
+      <c r="BJ20">
         <v>9</v>
       </c>
-      <c r="AZ20">
-        <v>3.56</v>
-      </c>
-      <c r="BA20">
-        <v>1.28</v>
-      </c>
-      <c r="BB20">
-        <v>1.58</v>
-      </c>
-      <c r="BC20">
-        <v>1.99</v>
-      </c>
-      <c r="BD20">
-        <v>2.46</v>
-      </c>
-      <c r="BE20">
-        <v>3.48</v>
-      </c>
-      <c r="BF20">
-        <v>0</v>
-      </c>
-      <c r="BG20">
-        <v>3</v>
-      </c>
-      <c r="BH20">
+      <c r="BK20">
         <v>8</v>
-      </c>
-      <c r="BI20">
-        <v>1</v>
-      </c>
-      <c r="BJ20">
-        <v>8</v>
-      </c>
-      <c r="BK20">
-        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:63">
@@ -5293,7 +5293,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5442,7 +5442,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>5067771</v>
+        <v>5067770</v>
       </c>
       <c r="C24" t="s">
         <v>63</v>
@@ -5460,7 +5460,7 @@
         <v>87</v>
       </c>
       <c r="H24" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -5472,49 +5472,49 @@
         <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M24">
         <v>1</v>
       </c>
       <c r="N24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O24" t="s">
         <v>114</v>
       </c>
       <c r="P24" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="Q24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S24">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T24">
-        <v>4.5</v>
+        <v>2.95</v>
       </c>
       <c r="U24">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="V24">
-        <v>3.1</v>
+        <v>4.25</v>
       </c>
       <c r="W24">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X24">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y24">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Z24">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AA24">
         <v>10.5</v>
@@ -5523,46 +5523,46 @@
         <v>1.02</v>
       </c>
       <c r="AC24">
-        <v>3.54</v>
+        <v>2.1</v>
       </c>
       <c r="AD24">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="AE24">
-        <v>2.15</v>
+        <v>3.87</v>
       </c>
       <c r="AF24">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AG24">
         <v>5.5</v>
       </c>
       <c r="AH24">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AI24">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AJ24">
-        <v>2.56</v>
+        <v>2.94</v>
       </c>
       <c r="AK24">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="AL24">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="AM24">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="AN24">
-        <v>1.57</v>
+        <v>1.21</v>
       </c>
       <c r="AO24">
         <v>1.36</v>
       </c>
       <c r="AP24">
-        <v>1.25</v>
+        <v>1.58</v>
       </c>
       <c r="AQ24">
         <v>0</v>
@@ -5571,10 +5571,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="AT24">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -5586,46 +5586,46 @@
         <v>0</v>
       </c>
       <c r="AX24">
-        <v>2.63</v>
+        <v>1.57</v>
       </c>
       <c r="AY24">
         <v>7.8</v>
       </c>
       <c r="AZ24">
-        <v>1.7</v>
+        <v>2.98</v>
       </c>
       <c r="BA24">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="BB24">
-        <v>1.4</v>
+        <v>1.72</v>
       </c>
       <c r="BC24">
-        <v>1.73</v>
+        <v>2.15</v>
       </c>
       <c r="BD24">
-        <v>2.15</v>
+        <v>2.85</v>
       </c>
       <c r="BE24">
-        <v>2.85</v>
+        <v>4.2</v>
       </c>
       <c r="BF24">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BG24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BI24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BJ24">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="BK24">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:63">
@@ -5633,7 +5633,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>5067770</v>
+        <v>5067771</v>
       </c>
       <c r="C25" t="s">
         <v>63</v>
@@ -5651,7 +5651,7 @@
         <v>88</v>
       </c>
       <c r="H25" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -5663,49 +5663,49 @@
         <v>2</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M25">
         <v>1</v>
       </c>
       <c r="N25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O25" t="s">
         <v>115</v>
       </c>
       <c r="P25" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S25">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="T25">
-        <v>2.95</v>
+        <v>4.5</v>
       </c>
       <c r="U25">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="V25">
-        <v>4.25</v>
+        <v>3.1</v>
       </c>
       <c r="W25">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X25">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y25">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Z25">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AA25">
         <v>10.5</v>
@@ -5714,46 +5714,46 @@
         <v>1.02</v>
       </c>
       <c r="AC25">
-        <v>2.1</v>
+        <v>3.54</v>
       </c>
       <c r="AD25">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AE25">
-        <v>3.87</v>
+        <v>2.15</v>
       </c>
       <c r="AF25">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="AG25">
         <v>5.5</v>
       </c>
       <c r="AH25">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="AI25">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AJ25">
-        <v>2.94</v>
+        <v>2.56</v>
       </c>
       <c r="AK25">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="AL25">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AM25">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="AN25">
-        <v>1.21</v>
+        <v>1.57</v>
       </c>
       <c r="AO25">
         <v>1.36</v>
       </c>
       <c r="AP25">
-        <v>1.58</v>
+        <v>1.25</v>
       </c>
       <c r="AQ25">
         <v>0</v>
@@ -5762,10 +5762,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.33</v>
+        <v>2.33</v>
       </c>
       <c r="AT25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -5777,46 +5777,46 @@
         <v>0</v>
       </c>
       <c r="AX25">
-        <v>1.57</v>
+        <v>2.63</v>
       </c>
       <c r="AY25">
         <v>7.8</v>
       </c>
       <c r="AZ25">
-        <v>2.98</v>
+        <v>1.7</v>
       </c>
       <c r="BA25">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="BB25">
-        <v>1.72</v>
+        <v>1.4</v>
       </c>
       <c r="BC25">
+        <v>1.73</v>
+      </c>
+      <c r="BD25">
         <v>2.15</v>
       </c>
-      <c r="BD25">
+      <c r="BE25">
         <v>2.85</v>
       </c>
-      <c r="BE25">
-        <v>4.2</v>
-      </c>
       <c r="BF25">
+        <v>3</v>
+      </c>
+      <c r="BG25">
+        <v>3</v>
+      </c>
+      <c r="BH25">
         <v>10</v>
       </c>
-      <c r="BG25">
+      <c r="BI25">
         <v>4</v>
       </c>
-      <c r="BH25">
-        <v>12</v>
-      </c>
-      <c r="BI25">
-        <v>8</v>
-      </c>
       <c r="BJ25">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="BK25">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:63">
@@ -6033,7 +6033,7 @@
         <v>90</v>
       </c>
       <c r="H27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -6248,7 +6248,7 @@
         <v>118</v>
       </c>
       <c r="P28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6588,7 +6588,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>5067774</v>
+        <v>5067789</v>
       </c>
       <c r="C30" t="s">
         <v>63</v>
@@ -6600,31 +6600,31 @@
         <v>44974.875</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H30" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O30" t="s">
         <v>120</v>
@@ -6633,145 +6633,145 @@
         <v>191</v>
       </c>
       <c r="Q30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T30">
+        <v>2.5</v>
+      </c>
+      <c r="U30">
+        <v>1.95</v>
+      </c>
+      <c r="V30">
+        <v>6</v>
+      </c>
+      <c r="W30">
+        <v>1.57</v>
+      </c>
+      <c r="X30">
+        <v>2.25</v>
+      </c>
+      <c r="Y30">
         <v>3.5</v>
       </c>
-      <c r="U30">
-        <v>1.91</v>
-      </c>
-      <c r="V30">
-        <v>3.75</v>
-      </c>
-      <c r="W30">
-        <v>1.62</v>
-      </c>
-      <c r="X30">
-        <v>2.2</v>
-      </c>
-      <c r="Y30">
-        <v>4</v>
-      </c>
       <c r="Z30">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AA30">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AB30">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AC30">
-        <v>2.41</v>
+        <v>1.8</v>
       </c>
       <c r="AD30">
-        <v>3.04</v>
+        <v>3.34</v>
       </c>
       <c r="AE30">
-        <v>3.22</v>
+        <v>5</v>
       </c>
       <c r="AF30">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AG30">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AH30">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AI30">
-        <v>2.33</v>
+        <v>2.45</v>
       </c>
       <c r="AJ30">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="AK30">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="AL30">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="AM30">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AN30">
-        <v>1.4</v>
+        <v>1.15</v>
       </c>
       <c r="AO30">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AP30">
-        <v>1.45</v>
+        <v>1.98</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR30">
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AT30">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU30">
-        <v>1.29</v>
+        <v>1.58</v>
       </c>
       <c r="AV30">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AW30">
-        <v>1.29</v>
+        <v>3.11</v>
       </c>
       <c r="AX30">
-        <v>1.72</v>
+        <v>1.41</v>
       </c>
       <c r="AY30">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="AZ30">
-        <v>2.67</v>
+        <v>3.7</v>
       </c>
       <c r="BA30">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
       <c r="BB30">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="BC30">
-        <v>2.31</v>
+        <v>2.16</v>
       </c>
       <c r="BD30">
-        <v>3.3</v>
+        <v>2.85</v>
       </c>
       <c r="BE30">
         <v>0</v>
       </c>
       <c r="BF30">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BG30">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BH30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BI30">
         <v>0</v>
       </c>
       <c r="BJ30">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="BK30">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:63">
@@ -6779,7 +6779,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>5067777</v>
+        <v>5067790</v>
       </c>
       <c r="C31" t="s">
         <v>63</v>
@@ -6791,178 +6791,178 @@
         <v>44974.875</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G31" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="H31" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31">
         <v>1</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O31" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="P31" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31">
+        <v>4</v>
+      </c>
+      <c r="S31">
+        <v>7</v>
+      </c>
+      <c r="T31">
+        <v>2.5</v>
+      </c>
+      <c r="U31">
+        <v>2.05</v>
+      </c>
+      <c r="V31">
+        <v>5.5</v>
+      </c>
+      <c r="W31">
+        <v>1.49</v>
+      </c>
+      <c r="X31">
+        <v>2.4</v>
+      </c>
+      <c r="Y31">
+        <v>3.2</v>
+      </c>
+      <c r="Z31">
+        <v>1.3</v>
+      </c>
+      <c r="AA31">
         <v>9</v>
       </c>
-      <c r="R31">
-        <v>2</v>
-      </c>
-      <c r="S31">
-        <v>11</v>
-      </c>
-      <c r="T31">
-        <v>3.5</v>
-      </c>
-      <c r="U31">
-        <v>1.83</v>
-      </c>
-      <c r="V31">
-        <v>4</v>
-      </c>
-      <c r="W31">
-        <v>1.62</v>
-      </c>
-      <c r="X31">
-        <v>2.2</v>
-      </c>
-      <c r="Y31">
-        <v>4</v>
-      </c>
-      <c r="Z31">
-        <v>1.2</v>
-      </c>
-      <c r="AA31">
-        <v>10</v>
-      </c>
       <c r="AB31">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AC31">
-        <v>2.6</v>
+        <v>1.81</v>
       </c>
       <c r="AD31">
-        <v>2.97</v>
+        <v>3.48</v>
       </c>
       <c r="AE31">
-        <v>2.97</v>
+        <v>4.68</v>
       </c>
       <c r="AF31">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="AG31">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH31">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AI31">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="AJ31">
-        <v>2.52</v>
+        <v>2.25</v>
       </c>
       <c r="AK31">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="AL31">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AM31">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="AN31">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="AO31">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="AP31">
-        <v>1.45</v>
+        <v>1.98</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU31">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AV31">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AW31">
-        <v>0</v>
+        <v>2.81</v>
       </c>
       <c r="AX31">
-        <v>1.77</v>
+        <v>1.6</v>
       </c>
       <c r="AY31">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AZ31">
-        <v>2.53</v>
+        <v>2.88</v>
       </c>
       <c r="BA31">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="BB31">
-        <v>1.78</v>
+        <v>1.64</v>
       </c>
       <c r="BC31">
-        <v>2.24</v>
+        <v>2.03</v>
       </c>
       <c r="BD31">
-        <v>3.15</v>
+        <v>2.7</v>
       </c>
       <c r="BE31">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="BF31">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH31">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BI31">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BJ31">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BK31">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:63">
@@ -6970,7 +6970,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>5067790</v>
+        <v>5067774</v>
       </c>
       <c r="C32" t="s">
         <v>63</v>
@@ -6982,22 +6982,22 @@
         <v>44974.875</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="H32" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -7009,151 +7009,151 @@
         <v>2</v>
       </c>
       <c r="O32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P32" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q32">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R32">
         <v>4</v>
       </c>
       <c r="S32">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="T32">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U32">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="V32">
+        <v>3.75</v>
+      </c>
+      <c r="W32">
+        <v>1.62</v>
+      </c>
+      <c r="X32">
+        <v>2.2</v>
+      </c>
+      <c r="Y32">
+        <v>4</v>
+      </c>
+      <c r="Z32">
+        <v>1.2</v>
+      </c>
+      <c r="AA32">
+        <v>10.5</v>
+      </c>
+      <c r="AB32">
+        <v>1.02</v>
+      </c>
+      <c r="AC32">
+        <v>2.41</v>
+      </c>
+      <c r="AD32">
+        <v>3.04</v>
+      </c>
+      <c r="AE32">
+        <v>3.22</v>
+      </c>
+      <c r="AF32">
+        <v>1.08</v>
+      </c>
+      <c r="AG32">
         <v>5.5</v>
       </c>
-      <c r="W32">
-        <v>1.49</v>
-      </c>
-      <c r="X32">
-        <v>2.4</v>
-      </c>
-      <c r="Y32">
-        <v>3.2</v>
-      </c>
-      <c r="Z32">
-        <v>1.3</v>
-      </c>
-      <c r="AA32">
-        <v>9</v>
-      </c>
-      <c r="AB32">
-        <v>1.06</v>
-      </c>
-      <c r="AC32">
-        <v>1.81</v>
-      </c>
-      <c r="AD32">
-        <v>3.48</v>
-      </c>
-      <c r="AE32">
-        <v>4.68</v>
-      </c>
-      <c r="AF32">
-        <v>1.06</v>
-      </c>
-      <c r="AG32">
-        <v>7.5</v>
-      </c>
       <c r="AH32">
+        <v>1.57</v>
+      </c>
+      <c r="AI32">
+        <v>2.33</v>
+      </c>
+      <c r="AJ32">
+        <v>2.8</v>
+      </c>
+      <c r="AK32">
         <v>1.4</v>
       </c>
-      <c r="AI32">
-        <v>2.75</v>
-      </c>
-      <c r="AJ32">
+      <c r="AL32">
         <v>2.25</v>
       </c>
-      <c r="AK32">
-        <v>1.6</v>
-      </c>
-      <c r="AL32">
-        <v>2.1</v>
-      </c>
       <c r="AM32">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="AN32">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="AO32">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AP32">
-        <v>1.98</v>
+        <v>1.45</v>
       </c>
       <c r="AQ32">
         <v>1</v>
       </c>
       <c r="AR32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS32">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT32">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AU32">
-        <v>1.59</v>
+        <v>1.29</v>
       </c>
       <c r="AV32">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AW32">
-        <v>2.81</v>
+        <v>1.29</v>
       </c>
       <c r="AX32">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="AY32">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="AZ32">
-        <v>2.88</v>
+        <v>2.67</v>
       </c>
       <c r="BA32">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="BB32">
-        <v>1.64</v>
+        <v>1.83</v>
       </c>
       <c r="BC32">
-        <v>2.03</v>
+        <v>2.31</v>
       </c>
       <c r="BD32">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="BE32">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="BF32">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BG32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BH32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BI32">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BJ32">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BK32">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:63">
@@ -7161,7 +7161,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>5067789</v>
+        <v>5067777</v>
       </c>
       <c r="C33" t="s">
         <v>63</v>
@@ -7173,115 +7173,115 @@
         <v>44974.875</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="H33" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
+        <v>102</v>
+      </c>
+      <c r="P33" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q33">
+        <v>9</v>
+      </c>
+      <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <v>11</v>
+      </c>
+      <c r="T33">
+        <v>3.5</v>
+      </c>
+      <c r="U33">
+        <v>1.83</v>
+      </c>
+      <c r="V33">
         <v>4</v>
       </c>
-      <c r="O33" t="s">
-        <v>122</v>
-      </c>
-      <c r="P33" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q33">
-        <v>10</v>
-      </c>
-      <c r="R33">
-        <v>3</v>
-      </c>
-      <c r="S33">
-        <v>13</v>
-      </c>
-      <c r="T33">
-        <v>2.5</v>
-      </c>
-      <c r="U33">
-        <v>1.95</v>
-      </c>
-      <c r="V33">
-        <v>6</v>
-      </c>
       <c r="W33">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X33">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y33">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Z33">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AA33">
         <v>10</v>
       </c>
       <c r="AB33">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AC33">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="AD33">
-        <v>3.34</v>
+        <v>2.97</v>
       </c>
       <c r="AE33">
-        <v>5</v>
+        <v>2.97</v>
       </c>
       <c r="AF33">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="AG33">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH33">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AI33">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="AJ33">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="AK33">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="AL33">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="AM33">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AN33">
-        <v>1.15</v>
+        <v>1.36</v>
       </c>
       <c r="AO33">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AP33">
-        <v>1.98</v>
+        <v>1.45</v>
       </c>
       <c r="AQ33">
         <v>0</v>
@@ -7290,61 +7290,61 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT33">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="AU33">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AV33">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AW33">
-        <v>3.11</v>
+        <v>0</v>
       </c>
       <c r="AX33">
-        <v>1.41</v>
+        <v>1.77</v>
       </c>
       <c r="AY33">
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
       <c r="AZ33">
-        <v>3.7</v>
+        <v>2.53</v>
       </c>
       <c r="BA33">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="BB33">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="BC33">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="BD33">
-        <v>2.85</v>
+        <v>3.15</v>
       </c>
       <c r="BE33">
         <v>0</v>
       </c>
       <c r="BF33">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BG33">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BH33">
         <v>6</v>
       </c>
       <c r="BI33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ33">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="BK33">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:63">
@@ -7543,7 +7543,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>5067780</v>
+        <v>5067776</v>
       </c>
       <c r="C35" t="s">
         <v>63</v>
@@ -7561,22 +7561,22 @@
         <v>94</v>
       </c>
       <c r="H35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35">
         <v>3</v>
@@ -7585,148 +7585,148 @@
         <v>124</v>
       </c>
       <c r="P35" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R35">
         <v>1</v>
       </c>
       <c r="S35">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T35">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U35">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V35">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="W35">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="X35">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Y35">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Z35">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AA35">
-        <v>8.75</v>
+        <v>11</v>
       </c>
       <c r="AB35">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AC35">
-        <v>2.12</v>
+        <v>1.87</v>
       </c>
       <c r="AD35">
-        <v>3.18</v>
+        <v>3.22</v>
       </c>
       <c r="AE35">
-        <v>3.68</v>
+        <v>4.7</v>
       </c>
       <c r="AF35">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AG35">
+        <v>6.5</v>
+      </c>
+      <c r="AH35">
+        <v>1.53</v>
+      </c>
+      <c r="AI35">
+        <v>2.35</v>
+      </c>
+      <c r="AJ35">
+        <v>2.45</v>
+      </c>
+      <c r="AK35">
+        <v>1.42</v>
+      </c>
+      <c r="AL35">
+        <v>2.25</v>
+      </c>
+      <c r="AM35">
+        <v>1.57</v>
+      </c>
+      <c r="AN35">
+        <v>1.22</v>
+      </c>
+      <c r="AO35">
+        <v>1.34</v>
+      </c>
+      <c r="AP35">
+        <v>1.78</v>
+      </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
+        <v>2</v>
+      </c>
+      <c r="AT35">
+        <v>0.5</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>1.54</v>
+      </c>
+      <c r="AY35">
         <v>8</v>
       </c>
-      <c r="AH35">
-        <v>1.36</v>
-      </c>
-      <c r="AI35">
-        <v>2.88</v>
-      </c>
-      <c r="AJ35">
-        <v>2.3</v>
-      </c>
-      <c r="AK35">
-        <v>1.57</v>
-      </c>
-      <c r="AL35">
-        <v>1.95</v>
-      </c>
-      <c r="AM35">
-        <v>1.73</v>
-      </c>
-      <c r="AN35">
-        <v>1.25</v>
-      </c>
-      <c r="AO35">
-        <v>1.31</v>
-      </c>
-      <c r="AP35">
-        <v>1.8</v>
-      </c>
-      <c r="AQ35">
-        <v>0</v>
-      </c>
-      <c r="AR35">
-        <v>0</v>
-      </c>
-      <c r="AS35">
-        <v>2.33</v>
-      </c>
-      <c r="AT35">
-        <v>0</v>
-      </c>
-      <c r="AU35">
-        <v>0</v>
-      </c>
-      <c r="AV35">
-        <v>0</v>
-      </c>
-      <c r="AW35">
-        <v>0</v>
-      </c>
-      <c r="AX35">
-        <v>1.49</v>
-      </c>
-      <c r="AY35">
-        <v>7.9</v>
-      </c>
       <c r="AZ35">
-        <v>3.26</v>
+        <v>3.07</v>
       </c>
       <c r="BA35">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="BB35">
-        <v>1.79</v>
+        <v>1.61</v>
       </c>
       <c r="BC35">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="BD35">
-        <v>3.1</v>
+        <v>2.52</v>
       </c>
       <c r="BE35">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="BF35">
+        <v>11</v>
+      </c>
+      <c r="BG35">
+        <v>4</v>
+      </c>
+      <c r="BH35">
+        <v>6</v>
+      </c>
+      <c r="BI35">
+        <v>5</v>
+      </c>
+      <c r="BJ35">
+        <v>17</v>
+      </c>
+      <c r="BK35">
         <v>9</v>
-      </c>
-      <c r="BG35">
-        <v>5</v>
-      </c>
-      <c r="BH35">
-        <v>3</v>
-      </c>
-      <c r="BI35">
-        <v>6</v>
-      </c>
-      <c r="BJ35">
-        <v>12</v>
-      </c>
-      <c r="BK35">
-        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:63">
@@ -7734,7 +7734,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>5067776</v>
+        <v>5067780</v>
       </c>
       <c r="C36" t="s">
         <v>63</v>
@@ -7752,22 +7752,22 @@
         <v>95</v>
       </c>
       <c r="H36" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36">
         <v>3</v>
@@ -7776,148 +7776,148 @@
         <v>125</v>
       </c>
       <c r="P36" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <v>2.63</v>
+      </c>
+      <c r="U36">
+        <v>2.05</v>
+      </c>
+      <c r="V36">
+        <v>4.75</v>
+      </c>
+      <c r="W36">
+        <v>1.47</v>
+      </c>
+      <c r="X36">
+        <v>2.5</v>
+      </c>
+      <c r="Y36">
+        <v>3.2</v>
+      </c>
+      <c r="Z36">
+        <v>1.31</v>
+      </c>
+      <c r="AA36">
+        <v>8.75</v>
+      </c>
+      <c r="AB36">
+        <v>1.06</v>
+      </c>
+      <c r="AC36">
+        <v>2.12</v>
+      </c>
+      <c r="AD36">
+        <v>3.18</v>
+      </c>
+      <c r="AE36">
+        <v>3.68</v>
+      </c>
+      <c r="AF36">
+        <v>1.05</v>
+      </c>
+      <c r="AG36">
+        <v>8</v>
+      </c>
+      <c r="AH36">
+        <v>1.36</v>
+      </c>
+      <c r="AI36">
+        <v>2.88</v>
+      </c>
+      <c r="AJ36">
+        <v>2.3</v>
+      </c>
+      <c r="AK36">
+        <v>1.57</v>
+      </c>
+      <c r="AL36">
+        <v>1.95</v>
+      </c>
+      <c r="AM36">
+        <v>1.73</v>
+      </c>
+      <c r="AN36">
+        <v>1.25</v>
+      </c>
+      <c r="AO36">
+        <v>1.31</v>
+      </c>
+      <c r="AP36">
+        <v>1.8</v>
+      </c>
+      <c r="AQ36">
+        <v>0</v>
+      </c>
+      <c r="AR36">
+        <v>0</v>
+      </c>
+      <c r="AS36">
+        <v>2.33</v>
+      </c>
+      <c r="AT36">
+        <v>0</v>
+      </c>
+      <c r="AU36">
+        <v>0</v>
+      </c>
+      <c r="AV36">
+        <v>0</v>
+      </c>
+      <c r="AW36">
+        <v>0</v>
+      </c>
+      <c r="AX36">
+        <v>1.49</v>
+      </c>
+      <c r="AY36">
+        <v>7.9</v>
+      </c>
+      <c r="AZ36">
+        <v>3.26</v>
+      </c>
+      <c r="BA36">
+        <v>1.46</v>
+      </c>
+      <c r="BB36">
+        <v>1.79</v>
+      </c>
+      <c r="BC36">
+        <v>2.25</v>
+      </c>
+      <c r="BD36">
+        <v>3.1</v>
+      </c>
+      <c r="BE36">
+        <v>4.5</v>
+      </c>
+      <c r="BF36">
         <v>9</v>
       </c>
-      <c r="R36">
-        <v>1</v>
-      </c>
-      <c r="S36">
-        <v>10</v>
-      </c>
-      <c r="T36">
-        <v>2.75</v>
-      </c>
-      <c r="U36">
-        <v>1.95</v>
-      </c>
-      <c r="V36">
+      <c r="BG36">
         <v>5</v>
       </c>
-      <c r="W36">
-        <v>1.57</v>
-      </c>
-      <c r="X36">
-        <v>2.25</v>
-      </c>
-      <c r="Y36">
-        <v>3.6</v>
-      </c>
-      <c r="Z36">
-        <v>1.24</v>
-      </c>
-      <c r="AA36">
+      <c r="BH36">
+        <v>3</v>
+      </c>
+      <c r="BI36">
+        <v>6</v>
+      </c>
+      <c r="BJ36">
+        <v>12</v>
+      </c>
+      <c r="BK36">
         <v>11</v>
-      </c>
-      <c r="AB36">
-        <v>1.04</v>
-      </c>
-      <c r="AC36">
-        <v>1.87</v>
-      </c>
-      <c r="AD36">
-        <v>3.22</v>
-      </c>
-      <c r="AE36">
-        <v>4.7</v>
-      </c>
-      <c r="AF36">
-        <v>1.07</v>
-      </c>
-      <c r="AG36">
-        <v>6.5</v>
-      </c>
-      <c r="AH36">
-        <v>1.53</v>
-      </c>
-      <c r="AI36">
-        <v>2.35</v>
-      </c>
-      <c r="AJ36">
-        <v>2.45</v>
-      </c>
-      <c r="AK36">
-        <v>1.42</v>
-      </c>
-      <c r="AL36">
-        <v>2.25</v>
-      </c>
-      <c r="AM36">
-        <v>1.57</v>
-      </c>
-      <c r="AN36">
-        <v>1.22</v>
-      </c>
-      <c r="AO36">
-        <v>1.34</v>
-      </c>
-      <c r="AP36">
-        <v>1.78</v>
-      </c>
-      <c r="AQ36">
-        <v>0</v>
-      </c>
-      <c r="AR36">
-        <v>0</v>
-      </c>
-      <c r="AS36">
-        <v>2</v>
-      </c>
-      <c r="AT36">
-        <v>0.5</v>
-      </c>
-      <c r="AU36">
-        <v>0</v>
-      </c>
-      <c r="AV36">
-        <v>0</v>
-      </c>
-      <c r="AW36">
-        <v>0</v>
-      </c>
-      <c r="AX36">
-        <v>1.54</v>
-      </c>
-      <c r="AY36">
-        <v>8</v>
-      </c>
-      <c r="AZ36">
-        <v>3.07</v>
-      </c>
-      <c r="BA36">
-        <v>1.3</v>
-      </c>
-      <c r="BB36">
-        <v>1.61</v>
-      </c>
-      <c r="BC36">
-        <v>2</v>
-      </c>
-      <c r="BD36">
-        <v>2.52</v>
-      </c>
-      <c r="BE36">
-        <v>3.7</v>
-      </c>
-      <c r="BF36">
-        <v>11</v>
-      </c>
-      <c r="BG36">
-        <v>4</v>
-      </c>
-      <c r="BH36">
-        <v>6</v>
-      </c>
-      <c r="BI36">
-        <v>5</v>
-      </c>
-      <c r="BJ36">
-        <v>17</v>
-      </c>
-      <c r="BK36">
-        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:63">
@@ -7943,7 +7943,7 @@
         <v>71</v>
       </c>
       <c r="H37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -8134,7 +8134,7 @@
         <v>96</v>
       </c>
       <c r="H38" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -8325,7 +8325,7 @@
         <v>70</v>
       </c>
       <c r="H39" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -8689,7 +8689,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>5067785</v>
+        <v>5067782</v>
       </c>
       <c r="C41" t="s">
         <v>63</v>
@@ -8701,13 +8701,13 @@
         <v>44976.79166666666</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G41" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="H41" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -8719,82 +8719,82 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M41">
         <v>1</v>
       </c>
       <c r="N41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O41" t="s">
         <v>128</v>
       </c>
       <c r="P41" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="Q41">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R41">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S41">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T41">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="U41">
         <v>1.91</v>
       </c>
       <c r="V41">
+        <v>4.33</v>
+      </c>
+      <c r="W41">
+        <v>1.62</v>
+      </c>
+      <c r="X41">
+        <v>2.2</v>
+      </c>
+      <c r="Y41">
         <v>4.5</v>
       </c>
-      <c r="W41">
-        <v>1.57</v>
-      </c>
-      <c r="X41">
+      <c r="Z41">
+        <v>1.17</v>
+      </c>
+      <c r="AA41">
+        <v>10.5</v>
+      </c>
+      <c r="AB41">
+        <v>1.02</v>
+      </c>
+      <c r="AC41">
+        <v>2.22</v>
+      </c>
+      <c r="AD41">
+        <v>3</v>
+      </c>
+      <c r="AE41">
+        <v>3.11</v>
+      </c>
+      <c r="AF41">
+        <v>1.1</v>
+      </c>
+      <c r="AG41">
+        <v>5.5</v>
+      </c>
+      <c r="AH41">
+        <v>1.53</v>
+      </c>
+      <c r="AI41">
         <v>2.25</v>
       </c>
-      <c r="Y41">
-        <v>3.74</v>
-      </c>
-      <c r="Z41">
-        <v>1.22</v>
-      </c>
-      <c r="AA41">
-        <v>10</v>
-      </c>
-      <c r="AB41">
-        <v>1.03</v>
-      </c>
-      <c r="AC41">
-        <v>2.1</v>
-      </c>
-      <c r="AD41">
-        <v>2.85</v>
-      </c>
-      <c r="AE41">
-        <v>3.6</v>
-      </c>
-      <c r="AF41">
-        <v>1.08</v>
-      </c>
-      <c r="AG41">
-        <v>6</v>
-      </c>
-      <c r="AH41">
-        <v>1.44</v>
-      </c>
-      <c r="AI41">
-        <v>2.4</v>
-      </c>
       <c r="AJ41">
-        <v>2.47</v>
+        <v>2.65</v>
       </c>
       <c r="AK41">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AL41">
         <v>2.25</v>
@@ -8803,76 +8803,76 @@
         <v>1.58</v>
       </c>
       <c r="AN41">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AO41">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ41">
         <v>0</v>
       </c>
       <c r="AR41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS41">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AT41">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU41">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="AV41">
-        <v>1.1</v>
+        <v>1.59</v>
       </c>
       <c r="AW41">
-        <v>1.84</v>
+        <v>1.59</v>
       </c>
       <c r="AX41">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AY41">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AZ41">
-        <v>2.82</v>
+        <v>2.73</v>
       </c>
       <c r="BA41">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="BB41">
-        <v>1.5</v>
+        <v>1.77</v>
       </c>
       <c r="BC41">
-        <v>1.83</v>
+        <v>2.22</v>
       </c>
       <c r="BD41">
-        <v>2.27</v>
+        <v>3</v>
       </c>
       <c r="BE41">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="BF41">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BG41">
+        <v>7</v>
+      </c>
+      <c r="BH41">
         <v>4</v>
       </c>
-      <c r="BH41">
-        <v>10</v>
-      </c>
       <c r="BI41">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BJ41">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BK41">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:63">
@@ -8880,7 +8880,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>5067782</v>
+        <v>5067785</v>
       </c>
       <c r="C42" t="s">
         <v>63</v>
@@ -8892,13 +8892,13 @@
         <v>44976.79166666666</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="H42" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -8910,82 +8910,82 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M42">
         <v>1</v>
       </c>
       <c r="N42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O42" t="s">
         <v>129</v>
       </c>
       <c r="P42" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="Q42">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R42">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S42">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T42">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="U42">
         <v>1.91</v>
       </c>
       <c r="V42">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="W42">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X42">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y42">
-        <v>4.5</v>
+        <v>3.74</v>
       </c>
       <c r="Z42">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AA42">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AB42">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AC42">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AD42">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="AE42">
-        <v>3.11</v>
+        <v>3.6</v>
       </c>
       <c r="AF42">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AG42">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AH42">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AI42">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AJ42">
-        <v>2.65</v>
+        <v>2.47</v>
       </c>
       <c r="AK42">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AL42">
         <v>2.25</v>
@@ -8994,76 +8994,76 @@
         <v>1.58</v>
       </c>
       <c r="AN42">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AO42">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AP42">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AQ42">
         <v>0</v>
       </c>
       <c r="AR42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS42">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AT42">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU42">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="AV42">
-        <v>1.59</v>
+        <v>1.1</v>
       </c>
       <c r="AW42">
-        <v>1.59</v>
+        <v>1.84</v>
       </c>
       <c r="AX42">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AY42">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AZ42">
-        <v>2.73</v>
+        <v>2.82</v>
       </c>
       <c r="BA42">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="BB42">
-        <v>1.77</v>
+        <v>1.5</v>
       </c>
       <c r="BC42">
-        <v>2.22</v>
+        <v>1.83</v>
       </c>
       <c r="BD42">
-        <v>3</v>
+        <v>2.27</v>
       </c>
       <c r="BE42">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="BF42">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BG42">
+        <v>4</v>
+      </c>
+      <c r="BH42">
+        <v>10</v>
+      </c>
+      <c r="BI42">
+        <v>3</v>
+      </c>
+      <c r="BJ42">
+        <v>15</v>
+      </c>
+      <c r="BK42">
         <v>7</v>
-      </c>
-      <c r="BH42">
-        <v>4</v>
-      </c>
-      <c r="BI42">
-        <v>6</v>
-      </c>
-      <c r="BJ42">
-        <v>13</v>
-      </c>
-      <c r="BK42">
-        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:63">
@@ -9089,7 +9089,7 @@
         <v>65</v>
       </c>
       <c r="H43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -9850,7 +9850,7 @@
         <v>4</v>
       </c>
       <c r="G47" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s">
         <v>68</v>
@@ -10235,7 +10235,7 @@
         <v>77</v>
       </c>
       <c r="H49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -10423,7 +10423,7 @@
         <v>3</v>
       </c>
       <c r="G50" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H50" t="s">
         <v>100</v>
@@ -10599,7 +10599,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>5067800</v>
+        <v>5067799</v>
       </c>
       <c r="C51" t="s">
         <v>63</v>
@@ -10614,34 +10614,34 @@
         <v>3</v>
       </c>
       <c r="G51" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H51" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M51">
         <v>1</v>
       </c>
       <c r="N51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O51" t="s">
         <v>134</v>
       </c>
       <c r="P51" t="s">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -10653,136 +10653,136 @@
         <v>7</v>
       </c>
       <c r="T51">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="U51">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V51">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="W51">
+        <v>1.57</v>
+      </c>
+      <c r="X51">
+        <v>2.25</v>
+      </c>
+      <c r="Y51">
+        <v>4</v>
+      </c>
+      <c r="Z51">
+        <v>1.2</v>
+      </c>
+      <c r="AA51">
+        <v>10</v>
+      </c>
+      <c r="AB51">
+        <v>1.03</v>
+      </c>
+      <c r="AC51">
+        <v>2.65</v>
+      </c>
+      <c r="AD51">
+        <v>2.85</v>
+      </c>
+      <c r="AE51">
+        <v>2.65</v>
+      </c>
+      <c r="AF51">
+        <v>1.11</v>
+      </c>
+      <c r="AG51">
+        <v>6.75</v>
+      </c>
+      <c r="AH51">
         <v>1.5</v>
       </c>
-      <c r="X51">
-        <v>2.5</v>
-      </c>
-      <c r="Y51">
-        <v>3.24</v>
-      </c>
-      <c r="Z51">
-        <v>1.29</v>
-      </c>
-      <c r="AA51">
-        <v>9.5</v>
-      </c>
-      <c r="AB51">
-        <v>1.04</v>
-      </c>
-      <c r="AC51">
-        <v>1.98</v>
-      </c>
-      <c r="AD51">
-        <v>3.32</v>
-      </c>
-      <c r="AE51">
-        <v>4.06</v>
-      </c>
-      <c r="AF51">
-        <v>1.08</v>
-      </c>
-      <c r="AG51">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AH51">
+      <c r="AI51">
+        <v>2.35</v>
+      </c>
+      <c r="AJ51">
+        <v>2.65</v>
+      </c>
+      <c r="AK51">
+        <v>1.42</v>
+      </c>
+      <c r="AL51">
+        <v>2.2</v>
+      </c>
+      <c r="AM51">
+        <v>1.6</v>
+      </c>
+      <c r="AN51">
+        <v>1.35</v>
+      </c>
+      <c r="AO51">
+        <v>1.32</v>
+      </c>
+      <c r="AP51">
+        <v>1.5</v>
+      </c>
+      <c r="AQ51">
+        <v>0</v>
+      </c>
+      <c r="AR51">
+        <v>1</v>
+      </c>
+      <c r="AS51">
+        <v>1.75</v>
+      </c>
+      <c r="AT51">
+        <v>1.67</v>
+      </c>
+      <c r="AU51">
+        <v>2.08</v>
+      </c>
+      <c r="AV51">
+        <v>0.73</v>
+      </c>
+      <c r="AW51">
+        <v>2.81</v>
+      </c>
+      <c r="AX51">
+        <v>1.87</v>
+      </c>
+      <c r="AY51">
+        <v>7.2</v>
+      </c>
+      <c r="AZ51">
+        <v>2.33</v>
+      </c>
+      <c r="BA51">
         <v>1.4</v>
       </c>
-      <c r="AI51">
-        <v>2.73</v>
-      </c>
-      <c r="AJ51">
-        <v>2.25</v>
-      </c>
-      <c r="AK51">
-        <v>1.57</v>
-      </c>
-      <c r="AL51">
-        <v>1.95</v>
-      </c>
-      <c r="AM51">
-        <v>1.75</v>
-      </c>
-      <c r="AN51">
-        <v>1.28</v>
-      </c>
-      <c r="AO51">
-        <v>1.3</v>
-      </c>
-      <c r="AP51">
-        <v>1.65</v>
-      </c>
-      <c r="AQ51">
-        <v>3</v>
-      </c>
-      <c r="AR51">
-        <v>0</v>
-      </c>
-      <c r="AS51">
-        <v>3</v>
-      </c>
-      <c r="AT51">
-        <v>1.5</v>
-      </c>
-      <c r="AU51">
-        <v>2.09</v>
-      </c>
-      <c r="AV51">
-        <v>0</v>
-      </c>
-      <c r="AW51">
-        <v>2.09</v>
-      </c>
-      <c r="AX51">
-        <v>1.51</v>
-      </c>
-      <c r="AY51">
-        <v>8</v>
-      </c>
-      <c r="AZ51">
-        <v>3.2</v>
-      </c>
-      <c r="BA51">
-        <v>1.3</v>
-      </c>
       <c r="BB51">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="BC51">
-        <v>1.94</v>
+        <v>2.23</v>
       </c>
       <c r="BD51">
-        <v>2.52</v>
+        <v>3</v>
       </c>
       <c r="BE51">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="BF51">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG51">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BH51">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BI51">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BJ51">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BK51">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:63">
@@ -10790,7 +10790,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>5067808</v>
+        <v>5067800</v>
       </c>
       <c r="C52" t="s">
         <v>63</v>
@@ -10802,13 +10802,13 @@
         <v>44982.70833333334</v>
       </c>
       <c r="F52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H52" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -10820,160 +10820,160 @@
         <v>1</v>
       </c>
       <c r="L52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M52">
         <v>1</v>
       </c>
       <c r="N52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O52" t="s">
         <v>135</v>
       </c>
       <c r="P52" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="Q52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S52">
+        <v>7</v>
+      </c>
+      <c r="T52">
+        <v>2.88</v>
+      </c>
+      <c r="U52">
+        <v>2</v>
+      </c>
+      <c r="V52">
+        <v>4.33</v>
+      </c>
+      <c r="W52">
+        <v>1.5</v>
+      </c>
+      <c r="X52">
+        <v>2.5</v>
+      </c>
+      <c r="Y52">
+        <v>3.24</v>
+      </c>
+      <c r="Z52">
+        <v>1.29</v>
+      </c>
+      <c r="AA52">
+        <v>9.5</v>
+      </c>
+      <c r="AB52">
+        <v>1.04</v>
+      </c>
+      <c r="AC52">
+        <v>1.98</v>
+      </c>
+      <c r="AD52">
+        <v>3.32</v>
+      </c>
+      <c r="AE52">
+        <v>4.06</v>
+      </c>
+      <c r="AF52">
+        <v>1.08</v>
+      </c>
+      <c r="AG52">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH52">
+        <v>1.4</v>
+      </c>
+      <c r="AI52">
+        <v>2.73</v>
+      </c>
+      <c r="AJ52">
+        <v>2.25</v>
+      </c>
+      <c r="AK52">
+        <v>1.57</v>
+      </c>
+      <c r="AL52">
+        <v>1.95</v>
+      </c>
+      <c r="AM52">
+        <v>1.75</v>
+      </c>
+      <c r="AN52">
+        <v>1.28</v>
+      </c>
+      <c r="AO52">
+        <v>1.3</v>
+      </c>
+      <c r="AP52">
+        <v>1.65</v>
+      </c>
+      <c r="AQ52">
+        <v>3</v>
+      </c>
+      <c r="AR52">
+        <v>0</v>
+      </c>
+      <c r="AS52">
+        <v>3</v>
+      </c>
+      <c r="AT52">
+        <v>1.5</v>
+      </c>
+      <c r="AU52">
+        <v>2.09</v>
+      </c>
+      <c r="AV52">
+        <v>0</v>
+      </c>
+      <c r="AW52">
+        <v>2.09</v>
+      </c>
+      <c r="AX52">
+        <v>1.51</v>
+      </c>
+      <c r="AY52">
         <v>8</v>
       </c>
-      <c r="T52">
-        <v>3.75</v>
-      </c>
-      <c r="U52">
-        <v>1.91</v>
-      </c>
-      <c r="V52">
-        <v>3.5</v>
-      </c>
-      <c r="W52">
-        <v>1.62</v>
-      </c>
-      <c r="X52">
-        <v>2.2</v>
-      </c>
-      <c r="Y52">
-        <v>4</v>
-      </c>
-      <c r="Z52">
-        <v>1.2</v>
-      </c>
-      <c r="AA52">
-        <v>10.5</v>
-      </c>
-      <c r="AB52">
-        <v>1.02</v>
-      </c>
-      <c r="AC52">
-        <v>2.95</v>
-      </c>
-      <c r="AD52">
-        <v>3.05</v>
-      </c>
-      <c r="AE52">
-        <v>2.56</v>
-      </c>
-      <c r="AF52">
-        <v>1.12</v>
-      </c>
-      <c r="AG52">
-        <v>6.35</v>
-      </c>
-      <c r="AH52">
-        <v>1.57</v>
-      </c>
-      <c r="AI52">
-        <v>2.33</v>
-      </c>
-      <c r="AJ52">
-        <v>2.77</v>
-      </c>
-      <c r="AK52">
-        <v>1.39</v>
-      </c>
-      <c r="AL52">
-        <v>2.35</v>
-      </c>
-      <c r="AM52">
-        <v>1.55</v>
-      </c>
-      <c r="AN52">
-        <v>1.45</v>
-      </c>
-      <c r="AO52">
-        <v>1.32</v>
-      </c>
-      <c r="AP52">
-        <v>1.4</v>
-      </c>
-      <c r="AQ52">
-        <v>1</v>
-      </c>
-      <c r="AR52">
-        <v>1</v>
-      </c>
-      <c r="AS52">
-        <v>1.67</v>
-      </c>
-      <c r="AT52">
-        <v>1</v>
-      </c>
-      <c r="AU52">
-        <v>1.29</v>
-      </c>
-      <c r="AV52">
-        <v>1.18</v>
-      </c>
-      <c r="AW52">
-        <v>2.47</v>
-      </c>
-      <c r="AX52">
-        <v>2.25</v>
-      </c>
-      <c r="AY52">
-        <v>7.4</v>
-      </c>
       <c r="AZ52">
-        <v>1.87</v>
+        <v>3.2</v>
       </c>
       <c r="BA52">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="BB52">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="BC52">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="BD52">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="BE52">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="BF52">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG52">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BH52">
         <v>1</v>
       </c>
       <c r="BI52">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BJ52">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BK52">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:63">
@@ -10996,7 +10996,7 @@
         <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s">
         <v>66</v>
@@ -11172,7 +11172,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>5067799</v>
+        <v>5067808</v>
       </c>
       <c r="C54" t="s">
         <v>63</v>
@@ -11184,22 +11184,22 @@
         <v>44982.70833333334</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G54" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L54">
         <v>1</v>
@@ -11214,31 +11214,31 @@
         <v>137</v>
       </c>
       <c r="P54" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S54">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T54">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U54">
         <v>1.91</v>
       </c>
       <c r="V54">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="W54">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X54">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y54">
         <v>4</v>
@@ -11247,115 +11247,115 @@
         <v>1.2</v>
       </c>
       <c r="AA54">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AB54">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AC54">
-        <v>2.65</v>
+        <v>2.95</v>
       </c>
       <c r="AD54">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="AE54">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AF54">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AG54">
-        <v>6.75</v>
+        <v>6.35</v>
       </c>
       <c r="AH54">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AI54">
+        <v>2.33</v>
+      </c>
+      <c r="AJ54">
+        <v>2.77</v>
+      </c>
+      <c r="AK54">
+        <v>1.39</v>
+      </c>
+      <c r="AL54">
         <v>2.35</v>
       </c>
-      <c r="AJ54">
-        <v>2.65</v>
-      </c>
-      <c r="AK54">
-        <v>1.42</v>
-      </c>
-      <c r="AL54">
-        <v>2.2</v>
-      </c>
       <c r="AM54">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AN54">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="AO54">
         <v>1.32</v>
       </c>
       <c r="AP54">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR54">
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT54">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AU54">
-        <v>2.08</v>
+        <v>1.29</v>
       </c>
       <c r="AV54">
-        <v>0.73</v>
+        <v>1.18</v>
       </c>
       <c r="AW54">
-        <v>2.81</v>
+        <v>2.47</v>
       </c>
       <c r="AX54">
+        <v>2.25</v>
+      </c>
+      <c r="AY54">
+        <v>7.4</v>
+      </c>
+      <c r="AZ54">
         <v>1.87</v>
       </c>
-      <c r="AY54">
-        <v>7.2</v>
-      </c>
-      <c r="AZ54">
-        <v>2.33</v>
-      </c>
       <c r="BA54">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="BB54">
+        <v>1.52</v>
+      </c>
+      <c r="BC54">
         <v>1.8</v>
       </c>
-      <c r="BC54">
-        <v>2.23</v>
-      </c>
       <c r="BD54">
-        <v>3</v>
+        <v>2.47</v>
       </c>
       <c r="BE54">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="BF54">
+        <v>2</v>
+      </c>
+      <c r="BG54">
+        <v>2</v>
+      </c>
+      <c r="BH54">
+        <v>1</v>
+      </c>
+      <c r="BI54">
+        <v>2</v>
+      </c>
+      <c r="BJ54">
+        <v>3</v>
+      </c>
+      <c r="BK54">
         <v>4</v>
-      </c>
-      <c r="BG54">
-        <v>2</v>
-      </c>
-      <c r="BH54">
-        <v>7</v>
-      </c>
-      <c r="BI54">
-        <v>3</v>
-      </c>
-      <c r="BJ54">
-        <v>11</v>
-      </c>
-      <c r="BK54">
-        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:63">
@@ -11787,7 +11787,7 @@
         <v>139</v>
       </c>
       <c r="P57" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q57">
         <v>2</v>
@@ -11936,7 +11936,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>5067792</v>
+        <v>5067805</v>
       </c>
       <c r="C58" t="s">
         <v>63</v>
@@ -11948,178 +11948,178 @@
         <v>44983.70833333334</v>
       </c>
       <c r="F58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G58" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M58">
         <v>0</v>
       </c>
       <c r="N58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O58" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="P58" t="s">
         <v>102</v>
       </c>
       <c r="Q58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R58">
+        <v>6</v>
+      </c>
+      <c r="S58">
         <v>10</v>
       </c>
-      <c r="S58">
-        <v>12</v>
-      </c>
       <c r="T58">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="U58">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V58">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="W58">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="X58">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="Y58">
         <v>3.75</v>
       </c>
       <c r="Z58">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AA58">
-        <v>11</v>
+        <v>8.75</v>
       </c>
       <c r="AB58">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AC58">
-        <v>2.03</v>
+        <v>2.38</v>
       </c>
       <c r="AD58">
+        <v>2.95</v>
+      </c>
+      <c r="AE58">
         <v>2.77</v>
-      </c>
-      <c r="AE58">
-        <v>3.7</v>
       </c>
       <c r="AF58">
         <v>1.11</v>
       </c>
       <c r="AG58">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AH58">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="AI58">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="AJ58">
-        <v>2.41</v>
+        <v>2.81</v>
       </c>
       <c r="AK58">
+        <v>1.38</v>
+      </c>
+      <c r="AL58">
+        <v>2.2</v>
+      </c>
+      <c r="AM58">
+        <v>1.62</v>
+      </c>
+      <c r="AN58">
+        <v>1.32</v>
+      </c>
+      <c r="AO58">
+        <v>1.35</v>
+      </c>
+      <c r="AP58">
         <v>1.5</v>
       </c>
-      <c r="AL58">
-        <v>2.1</v>
-      </c>
-      <c r="AM58">
+      <c r="AQ58">
+        <v>3</v>
+      </c>
+      <c r="AR58">
+        <v>3</v>
+      </c>
+      <c r="AS58">
+        <v>1.33</v>
+      </c>
+      <c r="AT58">
         <v>1.67</v>
       </c>
-      <c r="AN58">
-        <v>1.26</v>
-      </c>
-      <c r="AO58">
-        <v>1.39</v>
-      </c>
-      <c r="AP58">
-        <v>1.61</v>
-      </c>
-      <c r="AQ58">
-        <v>0</v>
-      </c>
-      <c r="AR58">
-        <v>0</v>
-      </c>
-      <c r="AS58">
-        <v>2</v>
-      </c>
-      <c r="AT58">
-        <v>0</v>
-      </c>
       <c r="AU58">
-        <v>1.82</v>
+        <v>2.6</v>
       </c>
       <c r="AV58">
-        <v>1.52</v>
+        <v>0.71</v>
       </c>
       <c r="AW58">
-        <v>3.34</v>
+        <v>3.31</v>
       </c>
       <c r="AX58">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="AY58">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AZ58">
-        <v>2.59</v>
+        <v>2.68</v>
       </c>
       <c r="BA58">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="BB58">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="BC58">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="BD58">
-        <v>2.85</v>
+        <v>2.45</v>
       </c>
       <c r="BE58">
+        <v>3.5</v>
+      </c>
+      <c r="BF58">
         <v>4</v>
       </c>
-      <c r="BF58">
-        <v>3</v>
-      </c>
       <c r="BG58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BI58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BJ58">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BK58">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:63">
@@ -12127,7 +12127,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>5067805</v>
+        <v>5067792</v>
       </c>
       <c r="C59" t="s">
         <v>63</v>
@@ -12139,178 +12139,178 @@
         <v>44983.70833333334</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G59" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="H59" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M59">
         <v>0</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O59" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="P59" t="s">
         <v>102</v>
       </c>
       <c r="Q59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R59">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S59">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T59">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="U59">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V59">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="W59">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="X59">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="Y59">
         <v>3.75</v>
       </c>
       <c r="Z59">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AA59">
-        <v>8.75</v>
+        <v>11</v>
       </c>
       <c r="AB59">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AC59">
-        <v>2.38</v>
+        <v>2.03</v>
       </c>
       <c r="AD59">
-        <v>2.95</v>
+        <v>2.77</v>
       </c>
       <c r="AE59">
-        <v>2.77</v>
+        <v>3.7</v>
       </c>
       <c r="AF59">
         <v>1.11</v>
       </c>
       <c r="AG59">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AH59">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="AI59">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="AJ59">
-        <v>2.81</v>
+        <v>2.41</v>
       </c>
       <c r="AK59">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AL59">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AM59">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AN59">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="AO59">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="AP59">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="AQ59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS59">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AT59">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AU59">
-        <v>2.6</v>
+        <v>1.82</v>
       </c>
       <c r="AV59">
-        <v>0.71</v>
+        <v>1.52</v>
       </c>
       <c r="AW59">
-        <v>3.31</v>
+        <v>3.34</v>
       </c>
       <c r="AX59">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="AY59">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AZ59">
-        <v>2.68</v>
+        <v>2.59</v>
       </c>
       <c r="BA59">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="BB59">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="BC59">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="BD59">
-        <v>2.45</v>
+        <v>2.85</v>
       </c>
       <c r="BE59">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="BF59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BH59">
+        <v>2</v>
+      </c>
+      <c r="BI59">
+        <v>2</v>
+      </c>
+      <c r="BJ59">
         <v>5</v>
       </c>
-      <c r="BI59">
-        <v>5</v>
-      </c>
-      <c r="BJ59">
-        <v>9</v>
-      </c>
       <c r="BK59">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:63">
@@ -12333,7 +12333,7 @@
         <v>4</v>
       </c>
       <c r="G60" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s">
         <v>65</v>
@@ -12527,7 +12527,7 @@
         <v>89</v>
       </c>
       <c r="H61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -13288,7 +13288,7 @@
         <v>4</v>
       </c>
       <c r="G65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H65" t="s">
         <v>75</v>
@@ -13482,7 +13482,7 @@
         <v>92</v>
       </c>
       <c r="H66" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2</v>
@@ -13673,7 +13673,7 @@
         <v>68</v>
       </c>
       <c r="H67" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -14055,7 +14055,7 @@
         <v>99</v>
       </c>
       <c r="H69" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -14246,7 +14246,7 @@
         <v>76</v>
       </c>
       <c r="H70" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -14434,7 +14434,7 @@
         <v>4</v>
       </c>
       <c r="G71" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H71" t="s">
         <v>101</v>
@@ -14610,7 +14610,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>5067818</v>
+        <v>5067820</v>
       </c>
       <c r="C72" t="s">
         <v>63</v>
@@ -14622,28 +14622,28 @@
         <v>44989.75</v>
       </c>
       <c r="F72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G72" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="H72" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N72">
         <v>2</v>
@@ -14652,148 +14652,148 @@
         <v>148</v>
       </c>
       <c r="P72" t="s">
-        <v>102</v>
+        <v>207</v>
       </c>
       <c r="Q72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R72">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S72">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T72">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="U72">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="V72">
-        <v>3.75</v>
+        <v>5.1</v>
       </c>
       <c r="W72">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="X72">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="Y72">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z72">
         <v>1.2</v>
       </c>
       <c r="AA72">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB72">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AC72">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="AD72">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="AE72">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="AF72">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AG72">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="AH72">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AI72">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AJ72">
-        <v>2.72</v>
+        <v>2.85</v>
       </c>
       <c r="AK72">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AL72">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="AM72">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AN72">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
       <c r="AO72">
         <v>1.33</v>
       </c>
       <c r="AP72">
-        <v>1.4</v>
+        <v>1.83</v>
       </c>
       <c r="AQ72">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AR72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS72">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="AT72">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AU72">
-        <v>1.24</v>
+        <v>1.46</v>
       </c>
       <c r="AV72">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="AW72">
-        <v>2.43</v>
+        <v>2.69</v>
       </c>
       <c r="AX72">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AY72">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AZ72">
-        <v>0</v>
+        <v>3.82</v>
       </c>
       <c r="BA72">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="BB72">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="BC72">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="BD72">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="BE72">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="BF72">
+        <v>3</v>
+      </c>
+      <c r="BG72">
+        <v>2</v>
+      </c>
+      <c r="BH72">
         <v>8</v>
       </c>
-      <c r="BG72">
-        <v>3</v>
-      </c>
-      <c r="BH72">
-        <v>2</v>
-      </c>
       <c r="BI72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BJ72">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BK72">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:63">
@@ -14801,7 +14801,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>5067820</v>
+        <v>5067818</v>
       </c>
       <c r="C73" t="s">
         <v>63</v>
@@ -14813,28 +14813,28 @@
         <v>44989.75</v>
       </c>
       <c r="F73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G73" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="H73" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73">
         <v>2</v>
@@ -14843,148 +14843,148 @@
         <v>149</v>
       </c>
       <c r="P73" t="s">
-        <v>207</v>
+        <v>102</v>
       </c>
       <c r="Q73">
+        <v>1</v>
+      </c>
+      <c r="R73">
+        <v>8</v>
+      </c>
+      <c r="S73">
+        <v>9</v>
+      </c>
+      <c r="T73">
+        <v>3.5</v>
+      </c>
+      <c r="U73">
+        <v>1.83</v>
+      </c>
+      <c r="V73">
+        <v>3.75</v>
+      </c>
+      <c r="W73">
+        <v>1.65</v>
+      </c>
+      <c r="X73">
+        <v>2.1</v>
+      </c>
+      <c r="Y73">
         <v>4</v>
-      </c>
-      <c r="R73">
-        <v>2</v>
-      </c>
-      <c r="S73">
-        <v>6</v>
-      </c>
-      <c r="T73">
-        <v>2.7</v>
-      </c>
-      <c r="U73">
-        <v>1.89</v>
-      </c>
-      <c r="V73">
-        <v>5.1</v>
-      </c>
-      <c r="W73">
-        <v>1.56</v>
-      </c>
-      <c r="X73">
-        <v>2.28</v>
-      </c>
-      <c r="Y73">
-        <v>4.1</v>
       </c>
       <c r="Z73">
         <v>1.2</v>
       </c>
       <c r="AA73">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB73">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AC73">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="AD73">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="AE73">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="AF73">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AG73">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="AH73">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AI73">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="AJ73">
-        <v>2.85</v>
+        <v>2.72</v>
       </c>
       <c r="AK73">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AL73">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="AM73">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AN73">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="AO73">
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>1.83</v>
+        <v>1.4</v>
       </c>
       <c r="AQ73">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AR73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS73">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="AT73">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AU73">
-        <v>1.46</v>
+        <v>1.24</v>
       </c>
       <c r="AV73">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="AW73">
-        <v>2.69</v>
+        <v>2.43</v>
       </c>
       <c r="AX73">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AY73">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="AZ73">
-        <v>3.82</v>
+        <v>0</v>
       </c>
       <c r="BA73">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="BB73">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="BC73">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="BD73">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="BE73">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="BF73">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BG73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH73">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BI73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BJ73">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BK73">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:63">
@@ -15374,7 +15374,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>5067822</v>
+        <v>5067815</v>
       </c>
       <c r="C76" t="s">
         <v>63</v>
@@ -15386,178 +15386,178 @@
         <v>44990.70833333334</v>
       </c>
       <c r="F76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G76" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="H76" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O76" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="Q76">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S76">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="T76">
         <v>2.9</v>
       </c>
       <c r="U76">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="V76">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="W76">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="X76">
-        <v>2.16</v>
+        <v>2.25</v>
       </c>
       <c r="Y76">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="Z76">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AA76">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AB76">
         <v>1.04</v>
       </c>
       <c r="AC76">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AD76">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AE76">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="AF76">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="AG76">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AH76">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="AI76">
-        <v>2.23</v>
+        <v>2.36</v>
       </c>
       <c r="AJ76">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="AK76">
+        <v>1.38</v>
+      </c>
+      <c r="AL76">
+        <v>2.15</v>
+      </c>
+      <c r="AM76">
+        <v>1.65</v>
+      </c>
+      <c r="AN76">
+        <v>1.29</v>
+      </c>
+      <c r="AO76">
         <v>1.35</v>
       </c>
-      <c r="AL76">
-        <v>2.3</v>
-      </c>
-      <c r="AM76">
-        <v>1.57</v>
-      </c>
-      <c r="AN76">
-        <v>1.2</v>
-      </c>
-      <c r="AO76">
-        <v>1.3</v>
-      </c>
       <c r="AP76">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="AQ76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS76">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT76">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AU76">
-        <v>1.37</v>
+        <v>0.93</v>
       </c>
       <c r="AV76">
-        <v>1.13</v>
+        <v>1.49</v>
       </c>
       <c r="AW76">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="AX76">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="AY76">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
       <c r="AZ76">
-        <v>3.4</v>
+        <v>3.28</v>
       </c>
       <c r="BA76">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
       <c r="BB76">
-        <v>1.53</v>
+        <v>1.88</v>
       </c>
       <c r="BC76">
-        <v>1.98</v>
+        <v>2.44</v>
       </c>
       <c r="BD76">
-        <v>2.55</v>
+        <v>3.34</v>
       </c>
       <c r="BE76">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="BF76">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH76">
+        <v>6</v>
+      </c>
+      <c r="BI76">
+        <v>7</v>
+      </c>
+      <c r="BJ76">
         <v>11</v>
       </c>
-      <c r="BI76">
-        <v>11</v>
-      </c>
-      <c r="BJ76">
-        <v>15</v>
-      </c>
       <c r="BK76">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:63">
@@ -15565,7 +15565,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>5067815</v>
+        <v>5067822</v>
       </c>
       <c r="C77" t="s">
         <v>63</v>
@@ -15577,178 +15577,178 @@
         <v>44990.70833333334</v>
       </c>
       <c r="F77">
+        <v>5</v>
+      </c>
+      <c r="G77" t="s">
+        <v>72</v>
+      </c>
+      <c r="H77" t="s">
+        <v>88</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77" t="s">
+        <v>102</v>
+      </c>
+      <c r="P77" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q77">
+        <v>3</v>
+      </c>
+      <c r="R77">
+        <v>1</v>
+      </c>
+      <c r="S77">
         <v>4</v>
-      </c>
-      <c r="G77" t="s">
-        <v>100</v>
-      </c>
-      <c r="H77" t="s">
-        <v>84</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>1</v>
-      </c>
-      <c r="K77">
-        <v>1</v>
-      </c>
-      <c r="L77">
-        <v>2</v>
-      </c>
-      <c r="M77">
-        <v>1</v>
-      </c>
-      <c r="N77">
-        <v>3</v>
-      </c>
-      <c r="O77" t="s">
-        <v>151</v>
-      </c>
-      <c r="P77" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q77">
-        <v>10</v>
-      </c>
-      <c r="R77">
-        <v>4</v>
-      </c>
-      <c r="S77">
-        <v>14</v>
       </c>
       <c r="T77">
         <v>2.9</v>
       </c>
       <c r="U77">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="V77">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="W77">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="X77">
-        <v>2.25</v>
+        <v>2.16</v>
       </c>
       <c r="Y77">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="Z77">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AA77">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB77">
         <v>1.04</v>
       </c>
       <c r="AC77">
-        <v>2.19</v>
+        <v>2.13</v>
       </c>
       <c r="AD77">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AE77">
+        <v>3.65</v>
+      </c>
+      <c r="AF77">
+        <v>1.12</v>
+      </c>
+      <c r="AG77">
+        <v>5.5</v>
+      </c>
+      <c r="AH77">
+        <v>1.58</v>
+      </c>
+      <c r="AI77">
+        <v>2.23</v>
+      </c>
+      <c r="AJ77">
+        <v>2.69</v>
+      </c>
+      <c r="AK77">
+        <v>1.35</v>
+      </c>
+      <c r="AL77">
+        <v>2.3</v>
+      </c>
+      <c r="AM77">
+        <v>1.57</v>
+      </c>
+      <c r="AN77">
+        <v>1.2</v>
+      </c>
+      <c r="AO77">
+        <v>1.3</v>
+      </c>
+      <c r="AP77">
+        <v>1.6</v>
+      </c>
+      <c r="AQ77">
+        <v>3</v>
+      </c>
+      <c r="AR77">
+        <v>1</v>
+      </c>
+      <c r="AS77">
+        <v>2.5</v>
+      </c>
+      <c r="AT77">
+        <v>0.75</v>
+      </c>
+      <c r="AU77">
+        <v>1.37</v>
+      </c>
+      <c r="AV77">
+        <v>1.13</v>
+      </c>
+      <c r="AW77">
+        <v>2.5</v>
+      </c>
+      <c r="AX77">
+        <v>1.48</v>
+      </c>
+      <c r="AY77">
+        <v>8.1</v>
+      </c>
+      <c r="AZ77">
         <v>3.4</v>
       </c>
-      <c r="AF77">
-        <v>1.09</v>
-      </c>
-      <c r="AG77">
-        <v>6.5</v>
-      </c>
-      <c r="AH77">
-        <v>1.52</v>
-      </c>
-      <c r="AI77">
-        <v>2.36</v>
-      </c>
-      <c r="AJ77">
-        <v>2.59</v>
-      </c>
-      <c r="AK77">
-        <v>1.38</v>
-      </c>
-      <c r="AL77">
-        <v>2.15</v>
-      </c>
-      <c r="AM77">
-        <v>1.65</v>
-      </c>
-      <c r="AN77">
-        <v>1.29</v>
-      </c>
-      <c r="AO77">
-        <v>1.35</v>
-      </c>
-      <c r="AP77">
-        <v>1.63</v>
-      </c>
-      <c r="AQ77">
-        <v>1</v>
-      </c>
-      <c r="AR77">
-        <v>0</v>
-      </c>
-      <c r="AS77">
-        <v>1.67</v>
-      </c>
-      <c r="AT77">
-        <v>0</v>
-      </c>
-      <c r="AU77">
-        <v>0.93</v>
-      </c>
-      <c r="AV77">
-        <v>1.49</v>
-      </c>
-      <c r="AW77">
-        <v>2.42</v>
-      </c>
-      <c r="AX77">
-        <v>1.52</v>
-      </c>
-      <c r="AY77">
-        <v>7.7</v>
-      </c>
-      <c r="AZ77">
-        <v>3.28</v>
-      </c>
       <c r="BA77">
-        <v>1.47</v>
+        <v>1.28</v>
       </c>
       <c r="BB77">
-        <v>1.88</v>
+        <v>1.53</v>
       </c>
       <c r="BC77">
-        <v>2.44</v>
+        <v>1.98</v>
       </c>
       <c r="BD77">
-        <v>3.34</v>
+        <v>2.55</v>
       </c>
       <c r="BE77">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="BF77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH77">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BI77">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BJ77">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BK77">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:63">
@@ -16347,7 +16347,7 @@
         <v>70</v>
       </c>
       <c r="H81" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I81">
         <v>3</v>
@@ -16917,7 +16917,7 @@
         <v>6</v>
       </c>
       <c r="G84" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H84" t="s">
         <v>70</v>
@@ -17108,10 +17108,10 @@
         <v>5</v>
       </c>
       <c r="G85" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -17299,7 +17299,7 @@
         <v>5</v>
       </c>
       <c r="G86" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H86" t="s">
         <v>90</v>
@@ -17857,7 +17857,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>5067839</v>
+        <v>5067845</v>
       </c>
       <c r="C89" t="s">
         <v>63</v>
@@ -17872,172 +17872,172 @@
         <v>6</v>
       </c>
       <c r="G89" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="H89" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O89" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="P89" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="Q89">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R89">
         <v>3</v>
       </c>
       <c r="S89">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="T89">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U89">
         <v>1.83</v>
       </c>
       <c r="V89">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="W89">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="X89">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Y89">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="Z89">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AA89">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB89">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AC89">
+        <v>2.25</v>
+      </c>
+      <c r="AD89">
         <v>2.68</v>
       </c>
-      <c r="AD89">
-        <v>2.78</v>
-      </c>
       <c r="AE89">
-        <v>2.58</v>
+        <v>3.11</v>
       </c>
       <c r="AF89">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AG89">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AH89">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="AI89">
-        <v>2.33</v>
+        <v>2.45</v>
       </c>
       <c r="AJ89">
-        <v>2.73</v>
+        <v>2.89</v>
       </c>
       <c r="AK89">
+        <v>1.36</v>
+      </c>
+      <c r="AL89">
+        <v>2.4</v>
+      </c>
+      <c r="AM89">
+        <v>1.5</v>
+      </c>
+      <c r="AN89">
+        <v>1.31</v>
+      </c>
+      <c r="AO89">
         <v>1.4</v>
       </c>
-      <c r="AL89">
-        <v>2.25</v>
-      </c>
-      <c r="AM89">
+      <c r="AP89">
         <v>1.55</v>
       </c>
-      <c r="AN89">
-        <v>1.44</v>
-      </c>
-      <c r="AO89">
-        <v>1.39</v>
-      </c>
-      <c r="AP89">
-        <v>1.41</v>
-      </c>
       <c r="AQ89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR89">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AS89">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AT89">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU89">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="AV89">
-        <v>1.05</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AW89">
-        <v>2.73</v>
+        <v>2.57</v>
       </c>
       <c r="AX89">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="AY89">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AZ89">
-        <v>2.95</v>
+        <v>2.5</v>
       </c>
       <c r="BA89">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="BB89">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="BC89">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="BD89">
-        <v>2.8</v>
+        <v>2.41</v>
       </c>
       <c r="BE89">
-        <v>3.94</v>
+        <v>3.56</v>
       </c>
       <c r="BF89">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BG89">
+        <v>4</v>
+      </c>
+      <c r="BH89">
         <v>5</v>
       </c>
-      <c r="BH89">
-        <v>11</v>
-      </c>
       <c r="BI89">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ89">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="BK89">
         <v>11</v>
@@ -18048,7 +18048,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>5067845</v>
+        <v>5067839</v>
       </c>
       <c r="C90" t="s">
         <v>63</v>
@@ -18063,172 +18063,172 @@
         <v>6</v>
       </c>
       <c r="G90" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="H90" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O90" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="P90" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="Q90">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R90">
         <v>3</v>
       </c>
       <c r="S90">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="T90">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U90">
         <v>1.83</v>
       </c>
       <c r="V90">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="W90">
+        <v>1.65</v>
+      </c>
+      <c r="X90">
+        <v>2.1</v>
+      </c>
+      <c r="Y90">
+        <v>4.1</v>
+      </c>
+      <c r="Z90">
+        <v>1.2</v>
+      </c>
+      <c r="AA90">
+        <v>12.5</v>
+      </c>
+      <c r="AB90">
+        <v>1.03</v>
+      </c>
+      <c r="AC90">
+        <v>2.68</v>
+      </c>
+      <c r="AD90">
+        <v>2.78</v>
+      </c>
+      <c r="AE90">
+        <v>2.58</v>
+      </c>
+      <c r="AF90">
+        <v>1.13</v>
+      </c>
+      <c r="AG90">
+        <v>5.5</v>
+      </c>
+      <c r="AH90">
+        <v>1.56</v>
+      </c>
+      <c r="AI90">
+        <v>2.33</v>
+      </c>
+      <c r="AJ90">
+        <v>2.73</v>
+      </c>
+      <c r="AK90">
+        <v>1.4</v>
+      </c>
+      <c r="AL90">
+        <v>2.25</v>
+      </c>
+      <c r="AM90">
+        <v>1.55</v>
+      </c>
+      <c r="AN90">
+        <v>1.44</v>
+      </c>
+      <c r="AO90">
+        <v>1.39</v>
+      </c>
+      <c r="AP90">
+        <v>1.41</v>
+      </c>
+      <c r="AQ90">
+        <v>3</v>
+      </c>
+      <c r="AR90">
+        <v>1.5</v>
+      </c>
+      <c r="AS90">
+        <v>2.33</v>
+      </c>
+      <c r="AT90">
+        <v>1.33</v>
+      </c>
+      <c r="AU90">
         <v>1.68</v>
       </c>
-      <c r="X90">
-        <v>2.05</v>
-      </c>
-      <c r="Y90">
-        <v>4.33</v>
-      </c>
-      <c r="Z90">
-        <v>1.19</v>
-      </c>
-      <c r="AA90">
-        <v>13.5</v>
-      </c>
-      <c r="AB90">
-        <v>1.02</v>
-      </c>
-      <c r="AC90">
-        <v>2.25</v>
-      </c>
-      <c r="AD90">
-        <v>2.68</v>
-      </c>
-      <c r="AE90">
-        <v>3.11</v>
-      </c>
-      <c r="AF90">
-        <v>1.14</v>
-      </c>
-      <c r="AG90">
+      <c r="AV90">
+        <v>1.05</v>
+      </c>
+      <c r="AW90">
+        <v>2.73</v>
+      </c>
+      <c r="AX90">
+        <v>1.6</v>
+      </c>
+      <c r="AY90">
+        <v>7.7</v>
+      </c>
+      <c r="AZ90">
+        <v>2.95</v>
+      </c>
+      <c r="BA90">
+        <v>1.33</v>
+      </c>
+      <c r="BB90">
+        <v>1.68</v>
+      </c>
+      <c r="BC90">
+        <v>2.09</v>
+      </c>
+      <c r="BD90">
+        <v>2.8</v>
+      </c>
+      <c r="BE90">
+        <v>3.94</v>
+      </c>
+      <c r="BF90">
+        <v>11</v>
+      </c>
+      <c r="BG90">
         <v>5</v>
       </c>
-      <c r="AH90">
-        <v>1.52</v>
-      </c>
-      <c r="AI90">
-        <v>2.45</v>
-      </c>
-      <c r="AJ90">
-        <v>2.89</v>
-      </c>
-      <c r="AK90">
-        <v>1.36</v>
-      </c>
-      <c r="AL90">
-        <v>2.4</v>
-      </c>
-      <c r="AM90">
-        <v>1.5</v>
-      </c>
-      <c r="AN90">
-        <v>1.31</v>
-      </c>
-      <c r="AO90">
-        <v>1.4</v>
-      </c>
-      <c r="AP90">
-        <v>1.55</v>
-      </c>
-      <c r="AQ90">
-        <v>1</v>
-      </c>
-      <c r="AR90">
-        <v>1</v>
-      </c>
-      <c r="AS90">
-        <v>1</v>
-      </c>
-      <c r="AT90">
-        <v>1</v>
-      </c>
-      <c r="AU90">
-        <v>1.63</v>
-      </c>
-      <c r="AV90">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AW90">
-        <v>2.57</v>
-      </c>
-      <c r="AX90">
-        <v>1.78</v>
-      </c>
-      <c r="AY90">
-        <v>7.6</v>
-      </c>
-      <c r="AZ90">
-        <v>2.5</v>
-      </c>
-      <c r="BA90">
-        <v>1.29</v>
-      </c>
-      <c r="BB90">
-        <v>1.64</v>
-      </c>
-      <c r="BC90">
-        <v>2.06</v>
-      </c>
-      <c r="BD90">
-        <v>2.41</v>
-      </c>
-      <c r="BE90">
-        <v>3.56</v>
-      </c>
-      <c r="BF90">
-        <v>3</v>
-      </c>
-      <c r="BG90">
-        <v>4</v>
-      </c>
       <c r="BH90">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BI90">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BJ90">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="BK90">
         <v>11</v>
@@ -18445,7 +18445,7 @@
         <v>6</v>
       </c>
       <c r="G92" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H92" t="s">
         <v>66</v>
@@ -18621,7 +18621,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>5067843</v>
+        <v>5067831</v>
       </c>
       <c r="C93" t="s">
         <v>63</v>
@@ -18633,31 +18633,31 @@
         <v>44997.70833333334</v>
       </c>
       <c r="F93">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G93" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H93" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M93">
         <v>0</v>
       </c>
       <c r="N93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O93" t="s">
         <v>162</v>
@@ -18666,55 +18666,55 @@
         <v>102</v>
       </c>
       <c r="Q93">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R93">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S93">
         <v>9</v>
       </c>
       <c r="T93">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="U93">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="V93">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="W93">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="X93">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y93">
-        <v>3.9</v>
+        <v>4.35</v>
       </c>
       <c r="Z93">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AA93">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AB93">
         <v>1.03</v>
       </c>
       <c r="AC93">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="AD93">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AE93">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="AF93">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AG93">
-        <v>5.33</v>
+        <v>5.75</v>
       </c>
       <c r="AH93">
         <v>1.63</v>
@@ -18723,88 +18723,88 @@
         <v>2.2</v>
       </c>
       <c r="AJ93">
-        <v>2.94</v>
+        <v>2.73</v>
       </c>
       <c r="AK93">
+        <v>1.4</v>
+      </c>
+      <c r="AL93">
+        <v>2.5</v>
+      </c>
+      <c r="AM93">
+        <v>1.48</v>
+      </c>
+      <c r="AN93">
+        <v>1.29</v>
+      </c>
+      <c r="AO93">
         <v>1.35</v>
       </c>
-      <c r="AL93">
-        <v>2.2</v>
-      </c>
-      <c r="AM93">
-        <v>1.57</v>
-      </c>
-      <c r="AN93">
-        <v>1.46</v>
-      </c>
-      <c r="AO93">
-        <v>1.41</v>
-      </c>
       <c r="AP93">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="AQ93">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR93">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AS93">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU93">
-        <v>1.03</v>
+        <v>1.81</v>
       </c>
       <c r="AV93">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="AW93">
-        <v>2.38</v>
+        <v>3.02</v>
       </c>
       <c r="AX93">
-        <v>2.01</v>
+        <v>1.49</v>
       </c>
       <c r="AY93">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="AZ93">
-        <v>2.18</v>
+        <v>3.38</v>
       </c>
       <c r="BA93">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="BB93">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="BC93">
-        <v>2.21</v>
+        <v>2.16</v>
       </c>
       <c r="BD93">
-        <v>2.93</v>
+        <v>2.91</v>
       </c>
       <c r="BE93">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BF93">
+        <v>3</v>
+      </c>
+      <c r="BG93">
+        <v>6</v>
+      </c>
+      <c r="BH93">
+        <v>8</v>
+      </c>
+      <c r="BI93">
         <v>5</v>
       </c>
-      <c r="BG93">
-        <v>2</v>
-      </c>
-      <c r="BH93">
-        <v>2</v>
-      </c>
-      <c r="BI93">
-        <v>3</v>
-      </c>
       <c r="BJ93">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BK93">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:63">
@@ -18812,7 +18812,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>5067831</v>
+        <v>5067843</v>
       </c>
       <c r="C94" t="s">
         <v>63</v>
@@ -18824,31 +18824,31 @@
         <v>44997.70833333334</v>
       </c>
       <c r="F94">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G94" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H94" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94">
         <v>0</v>
       </c>
       <c r="K94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M94">
         <v>0</v>
       </c>
       <c r="N94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O94" t="s">
         <v>163</v>
@@ -18857,55 +18857,55 @@
         <v>102</v>
       </c>
       <c r="Q94">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R94">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S94">
         <v>9</v>
       </c>
       <c r="T94">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="U94">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="V94">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="W94">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="X94">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y94">
-        <v>4.35</v>
+        <v>3.9</v>
       </c>
       <c r="Z94">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AA94">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AB94">
         <v>1.03</v>
       </c>
       <c r="AC94">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="AD94">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AE94">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="AF94">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AG94">
-        <v>5.75</v>
+        <v>5.33</v>
       </c>
       <c r="AH94">
         <v>1.63</v>
@@ -18914,88 +18914,88 @@
         <v>2.2</v>
       </c>
       <c r="AJ94">
-        <v>2.73</v>
+        <v>2.94</v>
       </c>
       <c r="AK94">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AL94">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AM94">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="AN94">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="AO94">
+        <v>1.41</v>
+      </c>
+      <c r="AP94">
+        <v>1.38</v>
+      </c>
+      <c r="AQ94">
+        <v>1</v>
+      </c>
+      <c r="AR94">
+        <v>0</v>
+      </c>
+      <c r="AS94">
+        <v>1.67</v>
+      </c>
+      <c r="AT94">
+        <v>0</v>
+      </c>
+      <c r="AU94">
+        <v>1.03</v>
+      </c>
+      <c r="AV94">
         <v>1.35</v>
       </c>
-      <c r="AP94">
-        <v>1.58</v>
-      </c>
-      <c r="AQ94">
-        <v>1.5</v>
-      </c>
-      <c r="AR94">
-        <v>1.5</v>
-      </c>
-      <c r="AS94">
-        <v>2</v>
-      </c>
-      <c r="AT94">
-        <v>1</v>
-      </c>
-      <c r="AU94">
-        <v>1.81</v>
-      </c>
-      <c r="AV94">
-        <v>1.21</v>
-      </c>
       <c r="AW94">
-        <v>3.02</v>
+        <v>2.38</v>
       </c>
       <c r="AX94">
-        <v>1.49</v>
+        <v>2.01</v>
       </c>
       <c r="AY94">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="AZ94">
-        <v>3.38</v>
+        <v>2.18</v>
       </c>
       <c r="BA94">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="BB94">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="BC94">
-        <v>2.16</v>
+        <v>2.21</v>
       </c>
       <c r="BD94">
-        <v>2.91</v>
+        <v>2.93</v>
       </c>
       <c r="BE94">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="BF94">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG94">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BH94">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BI94">
+        <v>3</v>
+      </c>
+      <c r="BJ94">
+        <v>7</v>
+      </c>
+      <c r="BK94">
         <v>5</v>
-      </c>
-      <c r="BJ94">
-        <v>11</v>
-      </c>
-      <c r="BK94">
-        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:63">
@@ -19021,7 +19021,7 @@
         <v>98</v>
       </c>
       <c r="H95" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -19400,7 +19400,7 @@
         <v>6</v>
       </c>
       <c r="G97" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H97" t="s">
         <v>99</v>
@@ -19782,7 +19782,7 @@
         <v>6</v>
       </c>
       <c r="G99" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H99" t="s">
         <v>85</v>
@@ -20167,7 +20167,7 @@
         <v>93</v>
       </c>
       <c r="H101" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -20549,7 +20549,7 @@
         <v>72</v>
       </c>
       <c r="H103" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I103">
         <v>2</v>
@@ -20737,7 +20737,7 @@
         <v>6</v>
       </c>
       <c r="G104" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H104" t="s">
         <v>74</v>
@@ -21146,7 +21146,7 @@
         <v>171</v>
       </c>
       <c r="P106" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q106">
         <v>12</v>
@@ -21313,7 +21313,7 @@
         <v>68</v>
       </c>
       <c r="H107" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         <v>6</v>
       </c>
       <c r="G108" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H108" t="s">
         <v>97</v>
@@ -22459,7 +22459,7 @@
         <v>81</v>
       </c>
       <c r="H113" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -22841,7 +22841,7 @@
         <v>85</v>
       </c>
       <c r="H115" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -23032,7 +23032,7 @@
         <v>66</v>
       </c>
       <c r="H116" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I116">
         <v>1</v>
@@ -23220,7 +23220,7 @@
         <v>6</v>
       </c>
       <c r="G117" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H117" t="s">
         <v>84</v>
@@ -23435,7 +23435,7 @@
         <v>2</v>
       </c>
       <c r="O118" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P118" t="s">
         <v>220</v>

--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="228">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -553,6 +553,18 @@
     <t>['42', '84']</t>
   </si>
   <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['4', '48', '71']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['31', '40']</t>
+  </si>
+  <si>
     <t>['27']</t>
   </si>
   <si>
@@ -608,9 +620,6 @@
   </si>
   <si>
     <t>['18']</t>
-  </si>
-  <si>
-    <t>['11']</t>
   </si>
   <si>
     <t>['61']</t>
@@ -677,6 +686,18 @@
   </si>
   <si>
     <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['23', '48']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
+    <t>['17', '28']</t>
+  </si>
+  <si>
+    <t>['30']</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1059,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK118"/>
+  <dimension ref="A1:BK125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1282,7 +1303,7 @@
         <v>102</v>
       </c>
       <c r="P2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1751,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT4">
         <v>0.75</v>
@@ -1855,7 +1876,7 @@
         <v>103</v>
       </c>
       <c r="P5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -2133,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT6">
         <v>1.75</v>
@@ -2237,7 +2258,7 @@
         <v>104</v>
       </c>
       <c r="P7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2428,7 +2449,7 @@
         <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2810,7 +2831,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3001,7 +3022,7 @@
         <v>107</v>
       </c>
       <c r="P11" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3383,7 +3404,7 @@
         <v>105</v>
       </c>
       <c r="P13" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3473,7 +3494,7 @@
         <v>1.5</v>
       </c>
       <c r="AT13">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3661,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT14">
         <v>1</v>
@@ -3852,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT15">
         <v>0.67</v>
@@ -4046,7 +4067,7 @@
         <v>1.33</v>
       </c>
       <c r="AT16">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4147,7 +4168,7 @@
         <v>110</v>
       </c>
       <c r="P17" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4237,7 +4258,7 @@
         <v>1.33</v>
       </c>
       <c r="AT17">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4529,7 +4550,7 @@
         <v>112</v>
       </c>
       <c r="P19" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4807,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT20">
         <v>1.67</v>
@@ -4998,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT21">
         <v>0.5</v>
@@ -5484,7 +5505,7 @@
         <v>114</v>
       </c>
       <c r="P24" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q24">
         <v>7</v>
@@ -5574,7 +5595,7 @@
         <v>1.33</v>
       </c>
       <c r="AT24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -5675,7 +5696,7 @@
         <v>115</v>
       </c>
       <c r="P25" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -6057,7 +6078,7 @@
         <v>117</v>
       </c>
       <c r="P27" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6335,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT28">
         <v>0</v>
@@ -6439,7 +6460,7 @@
         <v>119</v>
       </c>
       <c r="P29" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6526,7 +6547,7 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT29">
         <v>1.75</v>
@@ -6630,7 +6651,7 @@
         <v>120</v>
       </c>
       <c r="P30" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q30">
         <v>10</v>
@@ -6821,7 +6842,7 @@
         <v>121</v>
       </c>
       <c r="P31" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7012,7 +7033,7 @@
         <v>122</v>
       </c>
       <c r="P32" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7394,7 +7415,7 @@
         <v>123</v>
       </c>
       <c r="P34" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7675,7 +7696,7 @@
         <v>2</v>
       </c>
       <c r="AT35">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -8158,7 +8179,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8922,7 +8943,7 @@
         <v>129</v>
       </c>
       <c r="P42" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9304,7 +9325,7 @@
         <v>130</v>
       </c>
       <c r="P44" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9877,7 +9898,7 @@
         <v>102</v>
       </c>
       <c r="P47" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="Q47">
         <v>7</v>
@@ -10068,7 +10089,7 @@
         <v>132</v>
       </c>
       <c r="P48" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10155,7 +10176,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT48">
         <v>1</v>
@@ -10346,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT49">
         <v>1</v>
@@ -10450,7 +10471,7 @@
         <v>102</v>
       </c>
       <c r="P50" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10537,7 +10558,7 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT50">
         <v>1</v>
@@ -10731,7 +10752,7 @@
         <v>1.75</v>
       </c>
       <c r="AT51">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU51">
         <v>2.08</v>
@@ -10832,7 +10853,7 @@
         <v>135</v>
       </c>
       <c r="P52" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -10922,7 +10943,7 @@
         <v>3</v>
       </c>
       <c r="AT52">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU52">
         <v>2.09</v>
@@ -11301,7 +11322,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT54">
         <v>1</v>
@@ -11686,7 +11707,7 @@
         <v>0.67</v>
       </c>
       <c r="AT56">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU56">
         <v>1.23</v>
@@ -11874,7 +11895,7 @@
         <v>3</v>
       </c>
       <c r="AS57">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT57">
         <v>1.33</v>
@@ -12068,7 +12089,7 @@
         <v>1.33</v>
       </c>
       <c r="AT58">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AU58">
         <v>2.6</v>
@@ -12551,7 +12572,7 @@
         <v>102</v>
       </c>
       <c r="P61" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -12742,7 +12763,7 @@
         <v>142</v>
       </c>
       <c r="P62" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13124,7 +13145,7 @@
         <v>144</v>
       </c>
       <c r="P64" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -13211,10 +13232,10 @@
         <v>1</v>
       </c>
       <c r="AS64">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT64">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU64">
         <v>1.4</v>
@@ -13315,7 +13336,7 @@
         <v>102</v>
       </c>
       <c r="P65" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q65">
         <v>14</v>
@@ -13888,7 +13909,7 @@
         <v>102</v>
       </c>
       <c r="P68" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -14270,7 +14291,7 @@
         <v>106</v>
       </c>
       <c r="P70" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14360,7 +14381,7 @@
         <v>1.5</v>
       </c>
       <c r="AT70">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU70">
         <v>1.29</v>
@@ -14652,7 +14673,7 @@
         <v>148</v>
       </c>
       <c r="P72" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15225,7 +15246,7 @@
         <v>102</v>
       </c>
       <c r="P75" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -15989,7 +16010,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -16371,7 +16392,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16649,7 +16670,7 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT82">
         <v>0.67</v>
@@ -16753,7 +16774,7 @@
         <v>157</v>
       </c>
       <c r="P83" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -16843,7 +16864,7 @@
         <v>2</v>
       </c>
       <c r="AT83">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU83">
         <v>1.37</v>
@@ -17034,7 +17055,7 @@
         <v>2.33</v>
       </c>
       <c r="AT84">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU84">
         <v>1.48</v>
@@ -17135,7 +17156,7 @@
         <v>102</v>
       </c>
       <c r="P85" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -17222,7 +17243,7 @@
         <v>0</v>
       </c>
       <c r="AS85">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT85">
         <v>1</v>
@@ -17517,7 +17538,7 @@
         <v>160</v>
       </c>
       <c r="P87" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -17604,10 +17625,10 @@
         <v>0.5</v>
       </c>
       <c r="AS87">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT87">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU87">
         <v>0.83</v>
@@ -17708,7 +17729,7 @@
         <v>161</v>
       </c>
       <c r="P88" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q88">
         <v>9</v>
@@ -17798,7 +17819,7 @@
         <v>0.67</v>
       </c>
       <c r="AT88">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AU88">
         <v>1.14</v>
@@ -18177,7 +18198,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT90">
         <v>1.33</v>
@@ -18281,7 +18302,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -18368,10 +18389,10 @@
         <v>0</v>
       </c>
       <c r="AS91">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT91">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU91">
         <v>1.36</v>
@@ -18472,7 +18493,7 @@
         <v>102</v>
       </c>
       <c r="P92" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -18941,7 +18962,7 @@
         <v>0</v>
       </c>
       <c r="AS94">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT94">
         <v>0</v>
@@ -19045,7 +19066,7 @@
         <v>164</v>
       </c>
       <c r="P95" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19236,7 +19257,7 @@
         <v>165</v>
       </c>
       <c r="P96" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19323,7 +19344,7 @@
         <v>1.5</v>
       </c>
       <c r="AS96">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT96">
         <v>1</v>
@@ -19618,7 +19639,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q98">
         <v>10</v>
@@ -19809,7 +19830,7 @@
         <v>166</v>
       </c>
       <c r="P99" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20000,7 +20021,7 @@
         <v>167</v>
       </c>
       <c r="P100" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20573,7 +20594,7 @@
         <v>169</v>
       </c>
       <c r="P103" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -20955,7 +20976,7 @@
         <v>102</v>
       </c>
       <c r="P105" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q105">
         <v>5</v>
@@ -21337,7 +21358,7 @@
         <v>131</v>
       </c>
       <c r="P107" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q107">
         <v>1</v>
@@ -21528,7 +21549,7 @@
         <v>172</v>
       </c>
       <c r="P108" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21910,7 +21931,7 @@
         <v>102</v>
       </c>
       <c r="P110" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q110">
         <v>9</v>
@@ -22101,7 +22122,7 @@
         <v>174</v>
       </c>
       <c r="P111" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -23247,7 +23268,7 @@
         <v>178</v>
       </c>
       <c r="P117" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23438,7 +23459,7 @@
         <v>112</v>
       </c>
       <c r="P118" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q118">
         <v>8</v>
@@ -23580,6 +23601,1343 @@
       </c>
       <c r="BK118">
         <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:63">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>5067872</v>
+      </c>
+      <c r="C119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" t="s">
+        <v>64</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45010.64583333334</v>
+      </c>
+      <c r="F119">
+        <v>7</v>
+      </c>
+      <c r="G119" t="s">
+        <v>77</v>
+      </c>
+      <c r="H119" t="s">
+        <v>82</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>2</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>2</v>
+      </c>
+      <c r="O119" t="s">
+        <v>136</v>
+      </c>
+      <c r="P119" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q119">
+        <v>4</v>
+      </c>
+      <c r="R119">
+        <v>2</v>
+      </c>
+      <c r="S119">
+        <v>6</v>
+      </c>
+      <c r="T119">
+        <v>3</v>
+      </c>
+      <c r="U119">
+        <v>1.95</v>
+      </c>
+      <c r="V119">
+        <v>4</v>
+      </c>
+      <c r="W119">
+        <v>1.55</v>
+      </c>
+      <c r="X119">
+        <v>2.3</v>
+      </c>
+      <c r="Y119">
+        <v>3.4</v>
+      </c>
+      <c r="Z119">
+        <v>1.27</v>
+      </c>
+      <c r="AA119">
+        <v>11</v>
+      </c>
+      <c r="AB119">
+        <v>1.05</v>
+      </c>
+      <c r="AC119">
+        <v>2.05</v>
+      </c>
+      <c r="AD119">
+        <v>2.9</v>
+      </c>
+      <c r="AE119">
+        <v>3.5</v>
+      </c>
+      <c r="AF119">
+        <v>1.08</v>
+      </c>
+      <c r="AG119">
+        <v>6.3</v>
+      </c>
+      <c r="AH119">
+        <v>1.57</v>
+      </c>
+      <c r="AI119">
+        <v>2.3</v>
+      </c>
+      <c r="AJ119">
+        <v>2.38</v>
+      </c>
+      <c r="AK119">
+        <v>1.53</v>
+      </c>
+      <c r="AL119">
+        <v>2</v>
+      </c>
+      <c r="AM119">
+        <v>1.7</v>
+      </c>
+      <c r="AN119">
+        <v>1.28</v>
+      </c>
+      <c r="AO119">
+        <v>1.32</v>
+      </c>
+      <c r="AP119">
+        <v>1.5</v>
+      </c>
+      <c r="AQ119">
+        <v>2</v>
+      </c>
+      <c r="AR119">
+        <v>0.5</v>
+      </c>
+      <c r="AS119">
+        <v>1.75</v>
+      </c>
+      <c r="AT119">
+        <v>0.67</v>
+      </c>
+      <c r="AU119">
+        <v>1.33</v>
+      </c>
+      <c r="AV119">
+        <v>1.03</v>
+      </c>
+      <c r="AW119">
+        <v>2.36</v>
+      </c>
+      <c r="AX119">
+        <v>0</v>
+      </c>
+      <c r="AY119">
+        <v>0</v>
+      </c>
+      <c r="AZ119">
+        <v>0</v>
+      </c>
+      <c r="BA119">
+        <v>0</v>
+      </c>
+      <c r="BB119">
+        <v>0</v>
+      </c>
+      <c r="BC119">
+        <v>0</v>
+      </c>
+      <c r="BD119">
+        <v>0</v>
+      </c>
+      <c r="BE119">
+        <v>0</v>
+      </c>
+      <c r="BF119">
+        <v>6</v>
+      </c>
+      <c r="BG119">
+        <v>6</v>
+      </c>
+      <c r="BH119">
+        <v>6</v>
+      </c>
+      <c r="BI119">
+        <v>5</v>
+      </c>
+      <c r="BJ119">
+        <v>12</v>
+      </c>
+      <c r="BK119">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:63">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>5067878</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45010.64583333334</v>
+      </c>
+      <c r="F120">
+        <v>8</v>
+      </c>
+      <c r="G120" t="s">
+        <v>78</v>
+      </c>
+      <c r="H120" t="s">
+        <v>70</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>2</v>
+      </c>
+      <c r="N120">
+        <v>3</v>
+      </c>
+      <c r="O120" t="s">
+        <v>179</v>
+      </c>
+      <c r="P120" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q120">
+        <v>7</v>
+      </c>
+      <c r="R120">
+        <v>7</v>
+      </c>
+      <c r="S120">
+        <v>14</v>
+      </c>
+      <c r="T120">
+        <v>3.9</v>
+      </c>
+      <c r="U120">
+        <v>1.88</v>
+      </c>
+      <c r="V120">
+        <v>3.32</v>
+      </c>
+      <c r="W120">
+        <v>1.6</v>
+      </c>
+      <c r="X120">
+        <v>2.2</v>
+      </c>
+      <c r="Y120">
+        <v>4.3</v>
+      </c>
+      <c r="Z120">
+        <v>1.18</v>
+      </c>
+      <c r="AA120">
+        <v>11</v>
+      </c>
+      <c r="AB120">
+        <v>1.02</v>
+      </c>
+      <c r="AC120">
+        <v>2.56</v>
+      </c>
+      <c r="AD120">
+        <v>2.8</v>
+      </c>
+      <c r="AE120">
+        <v>2.69</v>
+      </c>
+      <c r="AF120">
+        <v>1.15</v>
+      </c>
+      <c r="AG120">
+        <v>5</v>
+      </c>
+      <c r="AH120">
+        <v>1.57</v>
+      </c>
+      <c r="AI120">
+        <v>2.15</v>
+      </c>
+      <c r="AJ120">
+        <v>2.89</v>
+      </c>
+      <c r="AK120">
+        <v>1.36</v>
+      </c>
+      <c r="AL120">
+        <v>2.3</v>
+      </c>
+      <c r="AM120">
+        <v>1.57</v>
+      </c>
+      <c r="AN120">
+        <v>1.45</v>
+      </c>
+      <c r="AO120">
+        <v>1.39</v>
+      </c>
+      <c r="AP120">
+        <v>1.32</v>
+      </c>
+      <c r="AQ120">
+        <v>1.67</v>
+      </c>
+      <c r="AR120">
+        <v>0.33</v>
+      </c>
+      <c r="AS120">
+        <v>1.25</v>
+      </c>
+      <c r="AT120">
+        <v>1</v>
+      </c>
+      <c r="AU120">
+        <v>1.08</v>
+      </c>
+      <c r="AV120">
+        <v>1.06</v>
+      </c>
+      <c r="AW120">
+        <v>2.14</v>
+      </c>
+      <c r="AX120">
+        <v>2.28</v>
+      </c>
+      <c r="AY120">
+        <v>7.3</v>
+      </c>
+      <c r="AZ120">
+        <v>1.93</v>
+      </c>
+      <c r="BA120">
+        <v>1.41</v>
+      </c>
+      <c r="BB120">
+        <v>1.76</v>
+      </c>
+      <c r="BC120">
+        <v>2.2</v>
+      </c>
+      <c r="BD120">
+        <v>3.04</v>
+      </c>
+      <c r="BE120">
+        <v>0</v>
+      </c>
+      <c r="BF120">
+        <v>6</v>
+      </c>
+      <c r="BG120">
+        <v>5</v>
+      </c>
+      <c r="BH120">
+        <v>6</v>
+      </c>
+      <c r="BI120">
+        <v>3</v>
+      </c>
+      <c r="BJ120">
+        <v>12</v>
+      </c>
+      <c r="BK120">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:63">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>5067874</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45010.64583333334</v>
+      </c>
+      <c r="F121">
+        <v>8</v>
+      </c>
+      <c r="G121" t="s">
+        <v>91</v>
+      </c>
+      <c r="H121" t="s">
+        <v>85</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121" t="s">
+        <v>102</v>
+      </c>
+      <c r="P121" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q121">
+        <v>4</v>
+      </c>
+      <c r="R121">
+        <v>4</v>
+      </c>
+      <c r="S121">
+        <v>8</v>
+      </c>
+      <c r="T121">
+        <v>4.16</v>
+      </c>
+      <c r="U121">
+        <v>1.66</v>
+      </c>
+      <c r="V121">
+        <v>3.56</v>
+      </c>
+      <c r="W121">
+        <v>1.66</v>
+      </c>
+      <c r="X121">
+        <v>2.05</v>
+      </c>
+      <c r="Y121">
+        <v>4.2</v>
+      </c>
+      <c r="Z121">
+        <v>1.2</v>
+      </c>
+      <c r="AA121">
+        <v>14</v>
+      </c>
+      <c r="AB121">
+        <v>1.03</v>
+      </c>
+      <c r="AC121">
+        <v>2.58</v>
+      </c>
+      <c r="AD121">
+        <v>2.75</v>
+      </c>
+      <c r="AE121">
+        <v>2.71</v>
+      </c>
+      <c r="AF121">
+        <v>1.14</v>
+      </c>
+      <c r="AG121">
+        <v>5.65</v>
+      </c>
+      <c r="AH121">
+        <v>1.57</v>
+      </c>
+      <c r="AI121">
+        <v>2.2</v>
+      </c>
+      <c r="AJ121">
+        <v>2.99</v>
+      </c>
+      <c r="AK121">
+        <v>1.34</v>
+      </c>
+      <c r="AL121">
+        <v>2.25</v>
+      </c>
+      <c r="AM121">
+        <v>1.52</v>
+      </c>
+      <c r="AN121">
+        <v>1.48</v>
+      </c>
+      <c r="AO121">
+        <v>1.45</v>
+      </c>
+      <c r="AP121">
+        <v>1.34</v>
+      </c>
+      <c r="AQ121">
+        <v>2.33</v>
+      </c>
+      <c r="AR121">
+        <v>1</v>
+      </c>
+      <c r="AS121">
+        <v>2</v>
+      </c>
+      <c r="AT121">
+        <v>1</v>
+      </c>
+      <c r="AU121">
+        <v>2.05</v>
+      </c>
+      <c r="AV121">
+        <v>0.97</v>
+      </c>
+      <c r="AW121">
+        <v>3.02</v>
+      </c>
+      <c r="AX121">
+        <v>2.35</v>
+      </c>
+      <c r="AY121">
+        <v>7.4</v>
+      </c>
+      <c r="AZ121">
+        <v>1.88</v>
+      </c>
+      <c r="BA121">
+        <v>1.34</v>
+      </c>
+      <c r="BB121">
+        <v>1.64</v>
+      </c>
+      <c r="BC121">
+        <v>2.13</v>
+      </c>
+      <c r="BD121">
+        <v>2.84</v>
+      </c>
+      <c r="BE121">
+        <v>3.98</v>
+      </c>
+      <c r="BF121">
+        <v>4</v>
+      </c>
+      <c r="BG121">
+        <v>3</v>
+      </c>
+      <c r="BH121">
+        <v>4</v>
+      </c>
+      <c r="BI121">
+        <v>6</v>
+      </c>
+      <c r="BJ121">
+        <v>8</v>
+      </c>
+      <c r="BK121">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>5067870</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45010.66666666666</v>
+      </c>
+      <c r="F122">
+        <v>7</v>
+      </c>
+      <c r="G122" t="s">
+        <v>83</v>
+      </c>
+      <c r="H122" t="s">
+        <v>76</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+      <c r="L122">
+        <v>3</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>4</v>
+      </c>
+      <c r="O122" t="s">
+        <v>180</v>
+      </c>
+      <c r="P122" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q122">
+        <v>4</v>
+      </c>
+      <c r="R122">
+        <v>3</v>
+      </c>
+      <c r="S122">
+        <v>7</v>
+      </c>
+      <c r="T122">
+        <v>3.4</v>
+      </c>
+      <c r="U122">
+        <v>1.83</v>
+      </c>
+      <c r="V122">
+        <v>3.5</v>
+      </c>
+      <c r="W122">
+        <v>1.58</v>
+      </c>
+      <c r="X122">
+        <v>2.2</v>
+      </c>
+      <c r="Y122">
+        <v>3.7</v>
+      </c>
+      <c r="Z122">
+        <v>1.24</v>
+      </c>
+      <c r="AA122">
+        <v>11</v>
+      </c>
+      <c r="AB122">
+        <v>1.04</v>
+      </c>
+      <c r="AC122">
+        <v>2.67</v>
+      </c>
+      <c r="AD122">
+        <v>3</v>
+      </c>
+      <c r="AE122">
+        <v>2.43</v>
+      </c>
+      <c r="AF122">
+        <v>1.1</v>
+      </c>
+      <c r="AG122">
+        <v>6.25</v>
+      </c>
+      <c r="AH122">
+        <v>1.5</v>
+      </c>
+      <c r="AI122">
+        <v>2.5</v>
+      </c>
+      <c r="AJ122">
+        <v>2.55</v>
+      </c>
+      <c r="AK122">
+        <v>1.48</v>
+      </c>
+      <c r="AL122">
+        <v>2.05</v>
+      </c>
+      <c r="AM122">
+        <v>1.66</v>
+      </c>
+      <c r="AN122">
+        <v>1.42</v>
+      </c>
+      <c r="AO122">
+        <v>1.37</v>
+      </c>
+      <c r="AP122">
+        <v>1.44</v>
+      </c>
+      <c r="AQ122">
+        <v>0.33</v>
+      </c>
+      <c r="AR122">
+        <v>1.5</v>
+      </c>
+      <c r="AS122">
+        <v>1</v>
+      </c>
+      <c r="AT122">
+        <v>1</v>
+      </c>
+      <c r="AU122">
+        <v>1.3</v>
+      </c>
+      <c r="AV122">
+        <v>1.7</v>
+      </c>
+      <c r="AW122">
+        <v>3</v>
+      </c>
+      <c r="AX122">
+        <v>1.76</v>
+      </c>
+      <c r="AY122">
+        <v>7.4</v>
+      </c>
+      <c r="AZ122">
+        <v>2.56</v>
+      </c>
+      <c r="BA122">
+        <v>1.37</v>
+      </c>
+      <c r="BB122">
+        <v>1.73</v>
+      </c>
+      <c r="BC122">
+        <v>2.17</v>
+      </c>
+      <c r="BD122">
+        <v>2.88</v>
+      </c>
+      <c r="BE122">
+        <v>0</v>
+      </c>
+      <c r="BF122">
+        <v>5</v>
+      </c>
+      <c r="BG122">
+        <v>4</v>
+      </c>
+      <c r="BH122">
+        <v>5</v>
+      </c>
+      <c r="BI122">
+        <v>1</v>
+      </c>
+      <c r="BJ122">
+        <v>10</v>
+      </c>
+      <c r="BK122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>5067881</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45010.75</v>
+      </c>
+      <c r="F123">
+        <v>8</v>
+      </c>
+      <c r="G123" t="s">
+        <v>67</v>
+      </c>
+      <c r="H123" t="s">
+        <v>73</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>2</v>
+      </c>
+      <c r="K123">
+        <v>3</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>2</v>
+      </c>
+      <c r="N123">
+        <v>3</v>
+      </c>
+      <c r="O123" t="s">
+        <v>181</v>
+      </c>
+      <c r="P123" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q123">
+        <v>5</v>
+      </c>
+      <c r="R123">
+        <v>3</v>
+      </c>
+      <c r="S123">
+        <v>8</v>
+      </c>
+      <c r="T123">
+        <v>2.63</v>
+      </c>
+      <c r="U123">
+        <v>2.05</v>
+      </c>
+      <c r="V123">
+        <v>4.75</v>
+      </c>
+      <c r="W123">
+        <v>1.5</v>
+      </c>
+      <c r="X123">
+        <v>2.4</v>
+      </c>
+      <c r="Y123">
+        <v>3.2</v>
+      </c>
+      <c r="Z123">
+        <v>1.3</v>
+      </c>
+      <c r="AA123">
+        <v>10</v>
+      </c>
+      <c r="AB123">
+        <v>1.06</v>
+      </c>
+      <c r="AC123">
+        <v>1.89</v>
+      </c>
+      <c r="AD123">
+        <v>3.14</v>
+      </c>
+      <c r="AE123">
+        <v>3.68</v>
+      </c>
+      <c r="AF123">
+        <v>1.08</v>
+      </c>
+      <c r="AG123">
+        <v>6.5</v>
+      </c>
+      <c r="AH123">
+        <v>1.37</v>
+      </c>
+      <c r="AI123">
+        <v>2.8</v>
+      </c>
+      <c r="AJ123">
+        <v>2.25</v>
+      </c>
+      <c r="AK123">
+        <v>1.62</v>
+      </c>
+      <c r="AL123">
+        <v>1.9</v>
+      </c>
+      <c r="AM123">
+        <v>1.8</v>
+      </c>
+      <c r="AN123">
+        <v>1.2</v>
+      </c>
+      <c r="AO123">
+        <v>1.27</v>
+      </c>
+      <c r="AP123">
+        <v>1.7</v>
+      </c>
+      <c r="AQ123">
+        <v>1.33</v>
+      </c>
+      <c r="AR123">
+        <v>0.33</v>
+      </c>
+      <c r="AS123">
+        <v>1</v>
+      </c>
+      <c r="AT123">
+        <v>1</v>
+      </c>
+      <c r="AU123">
+        <v>1.69</v>
+      </c>
+      <c r="AV123">
+        <v>1.11</v>
+      </c>
+      <c r="AW123">
+        <v>2.8</v>
+      </c>
+      <c r="AX123">
+        <v>0</v>
+      </c>
+      <c r="AY123">
+        <v>0</v>
+      </c>
+      <c r="AZ123">
+        <v>0</v>
+      </c>
+      <c r="BA123">
+        <v>0</v>
+      </c>
+      <c r="BB123">
+        <v>1.56</v>
+      </c>
+      <c r="BC123">
+        <v>1.95</v>
+      </c>
+      <c r="BD123">
+        <v>2.41</v>
+      </c>
+      <c r="BE123">
+        <v>0</v>
+      </c>
+      <c r="BF123">
+        <v>2</v>
+      </c>
+      <c r="BG123">
+        <v>3</v>
+      </c>
+      <c r="BH123">
+        <v>0</v>
+      </c>
+      <c r="BI123">
+        <v>0</v>
+      </c>
+      <c r="BJ123">
+        <v>2</v>
+      </c>
+      <c r="BK123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>5067869</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45010.79166666666</v>
+      </c>
+      <c r="F124">
+        <v>7</v>
+      </c>
+      <c r="G124" t="s">
+        <v>84</v>
+      </c>
+      <c r="H124" t="s">
+        <v>93</v>
+      </c>
+      <c r="I124">
+        <v>2</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>2</v>
+      </c>
+      <c r="L124">
+        <v>2</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124" t="s">
+        <v>182</v>
+      </c>
+      <c r="P124" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q124">
+        <v>5</v>
+      </c>
+      <c r="R124">
+        <v>3</v>
+      </c>
+      <c r="S124">
+        <v>8</v>
+      </c>
+      <c r="T124">
+        <v>3.2</v>
+      </c>
+      <c r="U124">
+        <v>2</v>
+      </c>
+      <c r="V124">
+        <v>3.75</v>
+      </c>
+      <c r="W124">
+        <v>1.55</v>
+      </c>
+      <c r="X124">
+        <v>2.3</v>
+      </c>
+      <c r="Y124">
+        <v>3.2</v>
+      </c>
+      <c r="Z124">
+        <v>1.3</v>
+      </c>
+      <c r="AA124">
+        <v>10</v>
+      </c>
+      <c r="AB124">
+        <v>1.06</v>
+      </c>
+      <c r="AC124">
+        <v>2.75</v>
+      </c>
+      <c r="AD124">
+        <v>2.9</v>
+      </c>
+      <c r="AE124">
+        <v>2.6</v>
+      </c>
+      <c r="AF124">
+        <v>1.08</v>
+      </c>
+      <c r="AG124">
+        <v>6.5</v>
+      </c>
+      <c r="AH124">
+        <v>1.44</v>
+      </c>
+      <c r="AI124">
+        <v>2.4</v>
+      </c>
+      <c r="AJ124">
+        <v>2.19</v>
+      </c>
+      <c r="AK124">
+        <v>1.53</v>
+      </c>
+      <c r="AL124">
+        <v>1.8</v>
+      </c>
+      <c r="AM124">
+        <v>1.9</v>
+      </c>
+      <c r="AN124">
+        <v>1.37</v>
+      </c>
+      <c r="AO124">
+        <v>1.3</v>
+      </c>
+      <c r="AP124">
+        <v>1.42</v>
+      </c>
+      <c r="AQ124">
+        <v>2.33</v>
+      </c>
+      <c r="AR124">
+        <v>1.67</v>
+      </c>
+      <c r="AS124">
+        <v>2.5</v>
+      </c>
+      <c r="AT124">
+        <v>1.25</v>
+      </c>
+      <c r="AU124">
+        <v>1.58</v>
+      </c>
+      <c r="AV124">
+        <v>1.13</v>
+      </c>
+      <c r="AW124">
+        <v>2.71</v>
+      </c>
+      <c r="AX124">
+        <v>0</v>
+      </c>
+      <c r="AY124">
+        <v>0</v>
+      </c>
+      <c r="AZ124">
+        <v>0</v>
+      </c>
+      <c r="BA124">
+        <v>1.5</v>
+      </c>
+      <c r="BB124">
+        <v>1.85</v>
+      </c>
+      <c r="BC124">
+        <v>2.38</v>
+      </c>
+      <c r="BD124">
+        <v>0</v>
+      </c>
+      <c r="BE124">
+        <v>0</v>
+      </c>
+      <c r="BF124">
+        <v>4</v>
+      </c>
+      <c r="BG124">
+        <v>5</v>
+      </c>
+      <c r="BH124">
+        <v>5</v>
+      </c>
+      <c r="BI124">
+        <v>7</v>
+      </c>
+      <c r="BJ124">
+        <v>9</v>
+      </c>
+      <c r="BK124">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>5067879</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45010.79166666666</v>
+      </c>
+      <c r="F125">
+        <v>8</v>
+      </c>
+      <c r="G125" t="s">
+        <v>69</v>
+      </c>
+      <c r="H125" t="s">
+        <v>72</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125">
+        <v>1</v>
+      </c>
+      <c r="O125" t="s">
+        <v>102</v>
+      </c>
+      <c r="P125" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q125">
+        <v>4</v>
+      </c>
+      <c r="R125">
+        <v>0</v>
+      </c>
+      <c r="S125">
+        <v>4</v>
+      </c>
+      <c r="T125">
+        <v>3.6</v>
+      </c>
+      <c r="U125">
+        <v>1.95</v>
+      </c>
+      <c r="V125">
+        <v>3.5</v>
+      </c>
+      <c r="W125">
+        <v>1.6</v>
+      </c>
+      <c r="X125">
+        <v>2.2</v>
+      </c>
+      <c r="Y125">
+        <v>3.6</v>
+      </c>
+      <c r="Z125">
+        <v>1.25</v>
+      </c>
+      <c r="AA125">
+        <v>11</v>
+      </c>
+      <c r="AB125">
+        <v>1.05</v>
+      </c>
+      <c r="AC125">
+        <v>2.75</v>
+      </c>
+      <c r="AD125">
+        <v>2.8</v>
+      </c>
+      <c r="AE125">
+        <v>2.7</v>
+      </c>
+      <c r="AF125">
+        <v>1.1</v>
+      </c>
+      <c r="AG125">
+        <v>5.7</v>
+      </c>
+      <c r="AH125">
+        <v>1.53</v>
+      </c>
+      <c r="AI125">
+        <v>2.25</v>
+      </c>
+      <c r="AJ125">
+        <v>2.4</v>
+      </c>
+      <c r="AK125">
+        <v>1.44</v>
+      </c>
+      <c r="AL125">
+        <v>2.05</v>
+      </c>
+      <c r="AM125">
+        <v>1.67</v>
+      </c>
+      <c r="AN125">
+        <v>1.4</v>
+      </c>
+      <c r="AO125">
+        <v>1.32</v>
+      </c>
+      <c r="AP125">
+        <v>1.37</v>
+      </c>
+      <c r="AQ125">
+        <v>1.67</v>
+      </c>
+      <c r="AR125">
+        <v>1.67</v>
+      </c>
+      <c r="AS125">
+        <v>1.25</v>
+      </c>
+      <c r="AT125">
+        <v>2</v>
+      </c>
+      <c r="AU125">
+        <v>1.18</v>
+      </c>
+      <c r="AV125">
+        <v>0.89</v>
+      </c>
+      <c r="AW125">
+        <v>2.07</v>
+      </c>
+      <c r="AX125">
+        <v>1.96</v>
+      </c>
+      <c r="AY125">
+        <v>6.8</v>
+      </c>
+      <c r="AZ125">
+        <v>2.29</v>
+      </c>
+      <c r="BA125">
+        <v>1.34</v>
+      </c>
+      <c r="BB125">
+        <v>1.69</v>
+      </c>
+      <c r="BC125">
+        <v>2.11</v>
+      </c>
+      <c r="BD125">
+        <v>2.84</v>
+      </c>
+      <c r="BE125">
+        <v>3.96</v>
+      </c>
+      <c r="BF125">
+        <v>3</v>
+      </c>
+      <c r="BG125">
+        <v>2</v>
+      </c>
+      <c r="BH125">
+        <v>7</v>
+      </c>
+      <c r="BI125">
+        <v>1</v>
+      </c>
+      <c r="BJ125">
+        <v>10</v>
+      </c>
+      <c r="BK125">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="238">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -565,6 +565,27 @@
     <t>['31', '40']</t>
   </si>
   <si>
+    <t>['40', '54']</t>
+  </si>
+  <si>
+    <t>['7', '59', '90+1']</t>
+  </si>
+  <si>
+    <t>['51', '78']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['53', '90+5']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
     <t>['27']</t>
   </si>
   <si>
@@ -583,9 +604,6 @@
     <t>['24', '71']</t>
   </si>
   <si>
-    <t>['64']</t>
-  </si>
-  <si>
     <t>['5', '59']</t>
   </si>
   <si>
@@ -596,9 +614,6 @@
   </si>
   <si>
     <t>['90+6']</t>
-  </si>
-  <si>
-    <t>['51', '78']</t>
   </si>
   <si>
     <t>['70', '85']</t>
@@ -698,6 +713,21 @@
   </si>
   <si>
     <t>['30']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['46', '71']</t>
+  </si>
+  <si>
+    <t>['84', '85']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['10']</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK125"/>
+  <dimension ref="A1:BK136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1303,7 +1333,7 @@
         <v>102</v>
       </c>
       <c r="P2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1876,7 +1906,7 @@
         <v>103</v>
       </c>
       <c r="P5" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -1966,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="AT5">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2258,7 +2288,7 @@
         <v>104</v>
       </c>
       <c r="P7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2348,7 +2378,7 @@
         <v>1.75</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2449,7 +2479,7 @@
         <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2831,7 +2861,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3022,7 +3052,7 @@
         <v>107</v>
       </c>
       <c r="P11" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3109,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT11">
         <v>1</v>
@@ -3300,10 +3330,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT12">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3404,7 +3434,7 @@
         <v>105</v>
       </c>
       <c r="P13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -4064,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT16">
         <v>2</v>
@@ -4168,7 +4198,7 @@
         <v>110</v>
       </c>
       <c r="P17" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4449,7 +4479,7 @@
         <v>3</v>
       </c>
       <c r="AT18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4550,7 +4580,7 @@
         <v>112</v>
       </c>
       <c r="P19" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4831,7 +4861,7 @@
         <v>1</v>
       </c>
       <c r="AT20">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5213,7 +5243,7 @@
         <v>2.33</v>
       </c>
       <c r="AT22">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5401,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT23">
         <v>1.33</v>
@@ -5505,7 +5535,7 @@
         <v>114</v>
       </c>
       <c r="P24" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q24">
         <v>7</v>
@@ -5592,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT24">
         <v>1</v>
@@ -5696,7 +5726,7 @@
         <v>115</v>
       </c>
       <c r="P25" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5783,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT25">
         <v>1</v>
@@ -5974,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT26">
         <v>0</v>
@@ -6078,7 +6108,7 @@
         <v>117</v>
       </c>
       <c r="P27" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6359,7 +6389,7 @@
         <v>2</v>
       </c>
       <c r="AT28">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6460,7 +6490,7 @@
         <v>119</v>
       </c>
       <c r="P29" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6651,7 +6681,7 @@
         <v>120</v>
       </c>
       <c r="P30" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q30">
         <v>10</v>
@@ -6842,7 +6872,7 @@
         <v>121</v>
       </c>
       <c r="P31" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -6932,7 +6962,7 @@
         <v>1</v>
       </c>
       <c r="AT31">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU31">
         <v>1.59</v>
@@ -7033,7 +7063,7 @@
         <v>122</v>
       </c>
       <c r="P32" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7415,7 +7445,7 @@
         <v>123</v>
       </c>
       <c r="P34" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7505,7 +7535,7 @@
         <v>0.33</v>
       </c>
       <c r="AT34">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -8179,7 +8209,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8648,7 +8678,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT40">
         <v>1</v>
@@ -8839,7 +8869,7 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT41">
         <v>1</v>
@@ -8943,7 +8973,7 @@
         <v>129</v>
       </c>
       <c r="P42" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9325,7 +9355,7 @@
         <v>130</v>
       </c>
       <c r="P44" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9988,7 +10018,7 @@
         <v>1.33</v>
       </c>
       <c r="AT47">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU47">
         <v>1.93</v>
@@ -10089,7 +10119,7 @@
         <v>132</v>
       </c>
       <c r="P48" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10179,7 +10209,7 @@
         <v>2.5</v>
       </c>
       <c r="AT48">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU48">
         <v>0.98</v>
@@ -10471,7 +10501,7 @@
         <v>102</v>
       </c>
       <c r="P50" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10853,7 +10883,7 @@
         <v>135</v>
       </c>
       <c r="P52" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11131,10 +11161,10 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT53">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU53">
         <v>1</v>
@@ -11516,7 +11546,7 @@
         <v>3</v>
       </c>
       <c r="AT55">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU55">
         <v>1.44</v>
@@ -11704,7 +11734,7 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT56">
         <v>1</v>
@@ -12086,7 +12116,7 @@
         <v>3</v>
       </c>
       <c r="AS58">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT58">
         <v>2</v>
@@ -12277,7 +12307,7 @@
         <v>0</v>
       </c>
       <c r="AS59">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT59">
         <v>0</v>
@@ -12468,10 +12498,10 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT60">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU60">
         <v>1.64</v>
@@ -12572,7 +12602,7 @@
         <v>102</v>
       </c>
       <c r="P61" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -12659,10 +12689,10 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT61">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AU61">
         <v>1.88</v>
@@ -12763,7 +12793,7 @@
         <v>142</v>
       </c>
       <c r="P62" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12850,7 +12880,7 @@
         <v>3</v>
       </c>
       <c r="AS62">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT62">
         <v>1</v>
@@ -13041,7 +13071,7 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT63">
         <v>0.5</v>
@@ -13145,7 +13175,7 @@
         <v>144</v>
       </c>
       <c r="P64" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -13336,7 +13366,7 @@
         <v>102</v>
       </c>
       <c r="P65" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q65">
         <v>14</v>
@@ -13909,7 +13939,7 @@
         <v>102</v>
       </c>
       <c r="P68" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -14291,7 +14321,7 @@
         <v>106</v>
       </c>
       <c r="P70" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14673,7 +14703,7 @@
         <v>148</v>
       </c>
       <c r="P72" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14951,7 +14981,7 @@
         <v>0</v>
       </c>
       <c r="AS73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT73">
         <v>0</v>
@@ -15246,7 +15276,7 @@
         <v>102</v>
       </c>
       <c r="P75" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -15909,7 +15939,7 @@
         <v>2.33</v>
       </c>
       <c r="AT78">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU78">
         <v>1.55</v>
@@ -16010,7 +16040,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -16392,7 +16422,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16774,7 +16804,7 @@
         <v>157</v>
       </c>
       <c r="P83" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -16861,7 +16891,7 @@
         <v>1</v>
       </c>
       <c r="AS83">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT83">
         <v>1.25</v>
@@ -17052,7 +17082,7 @@
         <v>0.5</v>
       </c>
       <c r="AS84">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT84">
         <v>1</v>
@@ -17156,7 +17186,7 @@
         <v>102</v>
       </c>
       <c r="P85" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -17437,7 +17467,7 @@
         <v>1.75</v>
       </c>
       <c r="AT86">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU86">
         <v>1.84</v>
@@ -17538,7 +17568,7 @@
         <v>160</v>
       </c>
       <c r="P87" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -17729,7 +17759,7 @@
         <v>161</v>
       </c>
       <c r="P88" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q88">
         <v>9</v>
@@ -17816,7 +17846,7 @@
         <v>2</v>
       </c>
       <c r="AS88">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT88">
         <v>2</v>
@@ -18201,7 +18231,7 @@
         <v>2</v>
       </c>
       <c r="AT90">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU90">
         <v>1.68</v>
@@ -18302,7 +18332,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -18493,7 +18523,7 @@
         <v>102</v>
       </c>
       <c r="P92" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -18580,10 +18610,10 @@
         <v>0</v>
       </c>
       <c r="AS92">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT92">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU92">
         <v>1.93</v>
@@ -18771,7 +18801,7 @@
         <v>1.5</v>
       </c>
       <c r="AS93">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT93">
         <v>1</v>
@@ -18965,7 +18995,7 @@
         <v>1.25</v>
       </c>
       <c r="AT94">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU94">
         <v>1.03</v>
@@ -19066,7 +19096,7 @@
         <v>164</v>
       </c>
       <c r="P95" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19153,10 +19183,10 @@
         <v>2</v>
       </c>
       <c r="AS95">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT95">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AU95">
         <v>1.86</v>
@@ -19535,10 +19565,10 @@
         <v>0.5</v>
       </c>
       <c r="AS97">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT97">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU97">
         <v>1.23</v>
@@ -19639,7 +19669,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q98">
         <v>10</v>
@@ -19726,10 +19756,10 @@
         <v>0</v>
       </c>
       <c r="AS98">
+        <v>1.33</v>
+      </c>
+      <c r="AT98">
         <v>1.5</v>
-      </c>
-      <c r="AT98">
-        <v>1</v>
       </c>
       <c r="AU98">
         <v>1.87</v>
@@ -19830,7 +19860,7 @@
         <v>166</v>
       </c>
       <c r="P99" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20021,7 +20051,7 @@
         <v>167</v>
       </c>
       <c r="P100" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20108,7 +20138,7 @@
         <v>0.5</v>
       </c>
       <c r="AS100">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT100">
         <v>0.5</v>
@@ -20594,7 +20624,7 @@
         <v>169</v>
       </c>
       <c r="P103" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -20976,7 +21006,7 @@
         <v>102</v>
       </c>
       <c r="P105" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q105">
         <v>5</v>
@@ -21358,7 +21388,7 @@
         <v>131</v>
       </c>
       <c r="P107" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Q107">
         <v>1</v>
@@ -21549,7 +21579,7 @@
         <v>172</v>
       </c>
       <c r="P108" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21931,7 +21961,7 @@
         <v>102</v>
       </c>
       <c r="P110" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q110">
         <v>9</v>
@@ -22122,7 +22152,7 @@
         <v>174</v>
       </c>
       <c r="P111" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -23268,7 +23298,7 @@
         <v>178</v>
       </c>
       <c r="P117" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23459,7 +23489,7 @@
         <v>112</v>
       </c>
       <c r="P118" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q118">
         <v>8</v>
@@ -23650,7 +23680,7 @@
         <v>136</v>
       </c>
       <c r="P119" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23841,7 +23871,7 @@
         <v>179</v>
       </c>
       <c r="P120" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -24223,7 +24253,7 @@
         <v>180</v>
       </c>
       <c r="P122" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -24414,7 +24444,7 @@
         <v>181</v>
       </c>
       <c r="P123" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24796,7 +24826,7 @@
         <v>102</v>
       </c>
       <c r="P125" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -24938,6 +24968,2107 @@
       </c>
       <c r="BK125">
         <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>5067873</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45011.64583333334</v>
+      </c>
+      <c r="F126">
+        <v>8</v>
+      </c>
+      <c r="G126" t="s">
+        <v>79</v>
+      </c>
+      <c r="H126" t="s">
+        <v>81</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>2</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>2</v>
+      </c>
+      <c r="O126" t="s">
+        <v>183</v>
+      </c>
+      <c r="P126" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q126">
+        <v>3</v>
+      </c>
+      <c r="R126">
+        <v>1</v>
+      </c>
+      <c r="S126">
+        <v>4</v>
+      </c>
+      <c r="T126">
+        <v>3.1</v>
+      </c>
+      <c r="U126">
+        <v>2</v>
+      </c>
+      <c r="V126">
+        <v>3.75</v>
+      </c>
+      <c r="W126">
+        <v>1.49</v>
+      </c>
+      <c r="X126">
+        <v>2.45</v>
+      </c>
+      <c r="Y126">
+        <v>3.2</v>
+      </c>
+      <c r="Z126">
+        <v>1.3</v>
+      </c>
+      <c r="AA126">
+        <v>9</v>
+      </c>
+      <c r="AB126">
+        <v>1.06</v>
+      </c>
+      <c r="AC126">
+        <v>2.28</v>
+      </c>
+      <c r="AD126">
+        <v>2.98</v>
+      </c>
+      <c r="AE126">
+        <v>2.98</v>
+      </c>
+      <c r="AF126">
+        <v>1.08</v>
+      </c>
+      <c r="AG126">
+        <v>7.25</v>
+      </c>
+      <c r="AH126">
+        <v>1.5</v>
+      </c>
+      <c r="AI126">
+        <v>2.35</v>
+      </c>
+      <c r="AJ126">
+        <v>2.15</v>
+      </c>
+      <c r="AK126">
+        <v>1.55</v>
+      </c>
+      <c r="AL126">
+        <v>1.93</v>
+      </c>
+      <c r="AM126">
+        <v>1.77</v>
+      </c>
+      <c r="AN126">
+        <v>1.37</v>
+      </c>
+      <c r="AO126">
+        <v>1.34</v>
+      </c>
+      <c r="AP126">
+        <v>1.55</v>
+      </c>
+      <c r="AQ126">
+        <v>1.33</v>
+      </c>
+      <c r="AR126">
+        <v>1</v>
+      </c>
+      <c r="AS126">
+        <v>1.75</v>
+      </c>
+      <c r="AT126">
+        <v>0.75</v>
+      </c>
+      <c r="AU126">
+        <v>1.31</v>
+      </c>
+      <c r="AV126">
+        <v>1.33</v>
+      </c>
+      <c r="AW126">
+        <v>2.64</v>
+      </c>
+      <c r="AX126">
+        <v>0</v>
+      </c>
+      <c r="AY126">
+        <v>0</v>
+      </c>
+      <c r="AZ126">
+        <v>0</v>
+      </c>
+      <c r="BA126">
+        <v>0</v>
+      </c>
+      <c r="BB126">
+        <v>0</v>
+      </c>
+      <c r="BC126">
+        <v>0</v>
+      </c>
+      <c r="BD126">
+        <v>0</v>
+      </c>
+      <c r="BE126">
+        <v>0</v>
+      </c>
+      <c r="BF126">
+        <v>4</v>
+      </c>
+      <c r="BG126">
+        <v>3</v>
+      </c>
+      <c r="BH126">
+        <v>7</v>
+      </c>
+      <c r="BI126">
+        <v>2</v>
+      </c>
+      <c r="BJ126">
+        <v>11</v>
+      </c>
+      <c r="BK126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>5067876</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45011.64583333334</v>
+      </c>
+      <c r="F127">
+        <v>8</v>
+      </c>
+      <c r="G127" t="s">
+        <v>88</v>
+      </c>
+      <c r="H127" t="s">
+        <v>68</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <v>3</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>4</v>
+      </c>
+      <c r="O127" t="s">
+        <v>184</v>
+      </c>
+      <c r="P127" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q127">
+        <v>4</v>
+      </c>
+      <c r="R127">
+        <v>10</v>
+      </c>
+      <c r="S127">
+        <v>14</v>
+      </c>
+      <c r="T127">
+        <v>3.2</v>
+      </c>
+      <c r="U127">
+        <v>1.91</v>
+      </c>
+      <c r="V127">
+        <v>4</v>
+      </c>
+      <c r="W127">
+        <v>1.6</v>
+      </c>
+      <c r="X127">
+        <v>2.15</v>
+      </c>
+      <c r="Y127">
+        <v>4</v>
+      </c>
+      <c r="Z127">
+        <v>1.21</v>
+      </c>
+      <c r="AA127">
+        <v>12</v>
+      </c>
+      <c r="AB127">
+        <v>1.03</v>
+      </c>
+      <c r="AC127">
+        <v>2.28</v>
+      </c>
+      <c r="AD127">
+        <v>2.98</v>
+      </c>
+      <c r="AE127">
+        <v>2.98</v>
+      </c>
+      <c r="AF127">
+        <v>1.08</v>
+      </c>
+      <c r="AG127">
+        <v>6.2</v>
+      </c>
+      <c r="AH127">
+        <v>1.5</v>
+      </c>
+      <c r="AI127">
+        <v>2.35</v>
+      </c>
+      <c r="AJ127">
+        <v>2.63</v>
+      </c>
+      <c r="AK127">
+        <v>1.37</v>
+      </c>
+      <c r="AL127">
+        <v>2.25</v>
+      </c>
+      <c r="AM127">
+        <v>1.57</v>
+      </c>
+      <c r="AN127">
+        <v>1.33</v>
+      </c>
+      <c r="AO127">
+        <v>1.35</v>
+      </c>
+      <c r="AP127">
+        <v>1.55</v>
+      </c>
+      <c r="AQ127">
+        <v>2.33</v>
+      </c>
+      <c r="AR127">
+        <v>1.33</v>
+      </c>
+      <c r="AS127">
+        <v>2.5</v>
+      </c>
+      <c r="AT127">
+        <v>1</v>
+      </c>
+      <c r="AU127">
+        <v>1.36</v>
+      </c>
+      <c r="AV127">
+        <v>1.18</v>
+      </c>
+      <c r="AW127">
+        <v>2.54</v>
+      </c>
+      <c r="AX127">
+        <v>0</v>
+      </c>
+      <c r="AY127">
+        <v>0</v>
+      </c>
+      <c r="AZ127">
+        <v>0</v>
+      </c>
+      <c r="BA127">
+        <v>0</v>
+      </c>
+      <c r="BB127">
+        <v>1.5</v>
+      </c>
+      <c r="BC127">
+        <v>1.8</v>
+      </c>
+      <c r="BD127">
+        <v>2.23</v>
+      </c>
+      <c r="BE127">
+        <v>0</v>
+      </c>
+      <c r="BF127">
+        <v>5</v>
+      </c>
+      <c r="BG127">
+        <v>3</v>
+      </c>
+      <c r="BH127">
+        <v>1</v>
+      </c>
+      <c r="BI127">
+        <v>6</v>
+      </c>
+      <c r="BJ127">
+        <v>6</v>
+      </c>
+      <c r="BK127">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:63">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>5067864</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45011.64583333334</v>
+      </c>
+      <c r="F128">
+        <v>7</v>
+      </c>
+      <c r="G128" t="s">
+        <v>74</v>
+      </c>
+      <c r="H128" t="s">
+        <v>95</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
+      <c r="O128" t="s">
+        <v>102</v>
+      </c>
+      <c r="P128" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q128">
+        <v>11</v>
+      </c>
+      <c r="R128">
+        <v>4</v>
+      </c>
+      <c r="S128">
+        <v>15</v>
+      </c>
+      <c r="T128">
+        <v>3</v>
+      </c>
+      <c r="U128">
+        <v>2</v>
+      </c>
+      <c r="V128">
+        <v>4</v>
+      </c>
+      <c r="W128">
+        <v>1.51</v>
+      </c>
+      <c r="X128">
+        <v>2.37</v>
+      </c>
+      <c r="Y128">
+        <v>3.5</v>
+      </c>
+      <c r="Z128">
+        <v>1.26</v>
+      </c>
+      <c r="AA128">
+        <v>10</v>
+      </c>
+      <c r="AB128">
+        <v>1.05</v>
+      </c>
+      <c r="AC128">
+        <v>2.18</v>
+      </c>
+      <c r="AD128">
+        <v>3.15</v>
+      </c>
+      <c r="AE128">
+        <v>2.97</v>
+      </c>
+      <c r="AF128">
+        <v>1.08</v>
+      </c>
+      <c r="AG128">
+        <v>6.5</v>
+      </c>
+      <c r="AH128">
+        <v>1.42</v>
+      </c>
+      <c r="AI128">
+        <v>2.62</v>
+      </c>
+      <c r="AJ128">
+        <v>2.06</v>
+      </c>
+      <c r="AK128">
+        <v>1.6</v>
+      </c>
+      <c r="AL128">
+        <v>2</v>
+      </c>
+      <c r="AM128">
+        <v>1.68</v>
+      </c>
+      <c r="AN128">
+        <v>1.35</v>
+      </c>
+      <c r="AO128">
+        <v>1.32</v>
+      </c>
+      <c r="AP128">
+        <v>1.6</v>
+      </c>
+      <c r="AQ128">
+        <v>2</v>
+      </c>
+      <c r="AR128">
+        <v>1.67</v>
+      </c>
+      <c r="AS128">
+        <v>1.5</v>
+      </c>
+      <c r="AT128">
+        <v>2</v>
+      </c>
+      <c r="AU128">
+        <v>1.51</v>
+      </c>
+      <c r="AV128">
+        <v>1.4</v>
+      </c>
+      <c r="AW128">
+        <v>2.91</v>
+      </c>
+      <c r="AX128">
+        <v>0</v>
+      </c>
+      <c r="AY128">
+        <v>0</v>
+      </c>
+      <c r="AZ128">
+        <v>0</v>
+      </c>
+      <c r="BA128">
+        <v>0</v>
+      </c>
+      <c r="BB128">
+        <v>0</v>
+      </c>
+      <c r="BC128">
+        <v>0</v>
+      </c>
+      <c r="BD128">
+        <v>0</v>
+      </c>
+      <c r="BE128">
+        <v>0</v>
+      </c>
+      <c r="BF128">
+        <v>0</v>
+      </c>
+      <c r="BG128">
+        <v>3</v>
+      </c>
+      <c r="BH128">
+        <v>6</v>
+      </c>
+      <c r="BI128">
+        <v>5</v>
+      </c>
+      <c r="BJ128">
+        <v>6</v>
+      </c>
+      <c r="BK128">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:63">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>5067875</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45011.66666666666</v>
+      </c>
+      <c r="F129">
+        <v>8</v>
+      </c>
+      <c r="G129" t="s">
+        <v>87</v>
+      </c>
+      <c r="H129" t="s">
+        <v>99</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>2</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129" t="s">
+        <v>102</v>
+      </c>
+      <c r="P129" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q129">
+        <v>6</v>
+      </c>
+      <c r="R129">
+        <v>3</v>
+      </c>
+      <c r="S129">
+        <v>9</v>
+      </c>
+      <c r="T129">
+        <v>3</v>
+      </c>
+      <c r="U129">
+        <v>1.95</v>
+      </c>
+      <c r="V129">
+        <v>4.33</v>
+      </c>
+      <c r="W129">
+        <v>1.55</v>
+      </c>
+      <c r="X129">
+        <v>2.45</v>
+      </c>
+      <c r="Y129">
+        <v>3.65</v>
+      </c>
+      <c r="Z129">
+        <v>1.25</v>
+      </c>
+      <c r="AA129">
+        <v>11</v>
+      </c>
+      <c r="AB129">
+        <v>1.04</v>
+      </c>
+      <c r="AC129">
+        <v>2.3</v>
+      </c>
+      <c r="AD129">
+        <v>2.8</v>
+      </c>
+      <c r="AE129">
+        <v>3.25</v>
+      </c>
+      <c r="AF129">
+        <v>1.11</v>
+      </c>
+      <c r="AG129">
+        <v>6</v>
+      </c>
+      <c r="AH129">
+        <v>1.53</v>
+      </c>
+      <c r="AI129">
+        <v>2.3</v>
+      </c>
+      <c r="AJ129">
+        <v>2.75</v>
+      </c>
+      <c r="AK129">
+        <v>1.4</v>
+      </c>
+      <c r="AL129">
+        <v>2.15</v>
+      </c>
+      <c r="AM129">
+        <v>1.62</v>
+      </c>
+      <c r="AN129">
+        <v>1.31</v>
+      </c>
+      <c r="AO129">
+        <v>1.35</v>
+      </c>
+      <c r="AP129">
+        <v>1.6</v>
+      </c>
+      <c r="AQ129">
+        <v>1.33</v>
+      </c>
+      <c r="AR129">
+        <v>0.67</v>
+      </c>
+      <c r="AS129">
+        <v>1</v>
+      </c>
+      <c r="AT129">
+        <v>1.25</v>
+      </c>
+      <c r="AU129">
+        <v>1.51</v>
+      </c>
+      <c r="AV129">
+        <v>1.09</v>
+      </c>
+      <c r="AW129">
+        <v>2.6</v>
+      </c>
+      <c r="AX129">
+        <v>1.55</v>
+      </c>
+      <c r="AY129">
+        <v>7.8</v>
+      </c>
+      <c r="AZ129">
+        <v>3.13</v>
+      </c>
+      <c r="BA129">
+        <v>1.33</v>
+      </c>
+      <c r="BB129">
+        <v>1.64</v>
+      </c>
+      <c r="BC129">
+        <v>2.13</v>
+      </c>
+      <c r="BD129">
+        <v>2.8</v>
+      </c>
+      <c r="BE129">
+        <v>3.98</v>
+      </c>
+      <c r="BF129">
+        <v>3</v>
+      </c>
+      <c r="BG129">
+        <v>6</v>
+      </c>
+      <c r="BH129">
+        <v>3</v>
+      </c>
+      <c r="BI129">
+        <v>3</v>
+      </c>
+      <c r="BJ129">
+        <v>6</v>
+      </c>
+      <c r="BK129">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:63">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>5067880</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45011.70833333334</v>
+      </c>
+      <c r="F130">
+        <v>8</v>
+      </c>
+      <c r="G130" t="s">
+        <v>71</v>
+      </c>
+      <c r="H130" t="s">
+        <v>65</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>2</v>
+      </c>
+      <c r="M130">
+        <v>2</v>
+      </c>
+      <c r="N130">
+        <v>4</v>
+      </c>
+      <c r="O130" t="s">
+        <v>185</v>
+      </c>
+      <c r="P130" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q130">
+        <v>4</v>
+      </c>
+      <c r="R130">
+        <v>2</v>
+      </c>
+      <c r="S130">
+        <v>6</v>
+      </c>
+      <c r="T130">
+        <v>3</v>
+      </c>
+      <c r="U130">
+        <v>1.95</v>
+      </c>
+      <c r="V130">
+        <v>4.33</v>
+      </c>
+      <c r="W130">
+        <v>1.49</v>
+      </c>
+      <c r="X130">
+        <v>2.45</v>
+      </c>
+      <c r="Y130">
+        <v>3.65</v>
+      </c>
+      <c r="Z130">
+        <v>1.24</v>
+      </c>
+      <c r="AA130">
+        <v>10.5</v>
+      </c>
+      <c r="AB130">
+        <v>1.04</v>
+      </c>
+      <c r="AC130">
+        <v>2.1</v>
+      </c>
+      <c r="AD130">
+        <v>3</v>
+      </c>
+      <c r="AE130">
+        <v>3.4</v>
+      </c>
+      <c r="AF130">
+        <v>1.08</v>
+      </c>
+      <c r="AG130">
+        <v>7</v>
+      </c>
+      <c r="AH130">
+        <v>1.53</v>
+      </c>
+      <c r="AI130">
+        <v>2.25</v>
+      </c>
+      <c r="AJ130">
+        <v>2.4</v>
+      </c>
+      <c r="AK130">
+        <v>1.5</v>
+      </c>
+      <c r="AL130">
+        <v>2.1</v>
+      </c>
+      <c r="AM130">
+        <v>1.67</v>
+      </c>
+      <c r="AN130">
+        <v>1.27</v>
+      </c>
+      <c r="AO130">
+        <v>1.33</v>
+      </c>
+      <c r="AP130">
+        <v>1.64</v>
+      </c>
+      <c r="AQ130">
+        <v>1</v>
+      </c>
+      <c r="AR130">
+        <v>0</v>
+      </c>
+      <c r="AS130">
+        <v>1</v>
+      </c>
+      <c r="AT130">
+        <v>0.25</v>
+      </c>
+      <c r="AU130">
+        <v>1.56</v>
+      </c>
+      <c r="AV130">
+        <v>1.17</v>
+      </c>
+      <c r="AW130">
+        <v>2.73</v>
+      </c>
+      <c r="AX130">
+        <v>0</v>
+      </c>
+      <c r="AY130">
+        <v>0</v>
+      </c>
+      <c r="AZ130">
+        <v>0</v>
+      </c>
+      <c r="BA130">
+        <v>0</v>
+      </c>
+      <c r="BB130">
+        <v>0</v>
+      </c>
+      <c r="BC130">
+        <v>0</v>
+      </c>
+      <c r="BD130">
+        <v>0</v>
+      </c>
+      <c r="BE130">
+        <v>0</v>
+      </c>
+      <c r="BF130">
+        <v>3</v>
+      </c>
+      <c r="BG130">
+        <v>3</v>
+      </c>
+      <c r="BH130">
+        <v>1</v>
+      </c>
+      <c r="BI130">
+        <v>1</v>
+      </c>
+      <c r="BJ130">
+        <v>4</v>
+      </c>
+      <c r="BK130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:63">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>5067865</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45011.70833333334</v>
+      </c>
+      <c r="F131">
+        <v>7</v>
+      </c>
+      <c r="G131" t="s">
+        <v>97</v>
+      </c>
+      <c r="H131" t="s">
+        <v>96</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131" t="s">
+        <v>102</v>
+      </c>
+      <c r="P131" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q131">
+        <v>5</v>
+      </c>
+      <c r="R131">
+        <v>3</v>
+      </c>
+      <c r="S131">
+        <v>8</v>
+      </c>
+      <c r="T131">
+        <v>3</v>
+      </c>
+      <c r="U131">
+        <v>1.91</v>
+      </c>
+      <c r="V131">
+        <v>4.5</v>
+      </c>
+      <c r="W131">
+        <v>1.58</v>
+      </c>
+      <c r="X131">
+        <v>2.3</v>
+      </c>
+      <c r="Y131">
+        <v>3.72</v>
+      </c>
+      <c r="Z131">
+        <v>1.25</v>
+      </c>
+      <c r="AA131">
+        <v>10.75</v>
+      </c>
+      <c r="AB131">
+        <v>1.03</v>
+      </c>
+      <c r="AC131">
+        <v>2.1</v>
+      </c>
+      <c r="AD131">
+        <v>3</v>
+      </c>
+      <c r="AE131">
+        <v>3.4</v>
+      </c>
+      <c r="AF131">
+        <v>1.08</v>
+      </c>
+      <c r="AG131">
+        <v>6.2</v>
+      </c>
+      <c r="AH131">
+        <v>1.49</v>
+      </c>
+      <c r="AI131">
+        <v>2.48</v>
+      </c>
+      <c r="AJ131">
+        <v>2.55</v>
+      </c>
+      <c r="AK131">
+        <v>1.45</v>
+      </c>
+      <c r="AL131">
+        <v>2.19</v>
+      </c>
+      <c r="AM131">
+        <v>1.63</v>
+      </c>
+      <c r="AN131">
+        <v>1.29</v>
+      </c>
+      <c r="AO131">
+        <v>1.36</v>
+      </c>
+      <c r="AP131">
+        <v>1.68</v>
+      </c>
+      <c r="AQ131">
+        <v>3</v>
+      </c>
+      <c r="AR131">
+        <v>1</v>
+      </c>
+      <c r="AS131">
+        <v>2</v>
+      </c>
+      <c r="AT131">
+        <v>1.5</v>
+      </c>
+      <c r="AU131">
+        <v>1.4</v>
+      </c>
+      <c r="AV131">
+        <v>1.57</v>
+      </c>
+      <c r="AW131">
+        <v>2.97</v>
+      </c>
+      <c r="AX131">
+        <v>0</v>
+      </c>
+      <c r="AY131">
+        <v>0</v>
+      </c>
+      <c r="AZ131">
+        <v>0</v>
+      </c>
+      <c r="BA131">
+        <v>0</v>
+      </c>
+      <c r="BB131">
+        <v>1.67</v>
+      </c>
+      <c r="BC131">
+        <v>2.08</v>
+      </c>
+      <c r="BD131">
+        <v>0</v>
+      </c>
+      <c r="BE131">
+        <v>0</v>
+      </c>
+      <c r="BF131">
+        <v>2</v>
+      </c>
+      <c r="BG131">
+        <v>3</v>
+      </c>
+      <c r="BH131">
+        <v>6</v>
+      </c>
+      <c r="BI131">
+        <v>5</v>
+      </c>
+      <c r="BJ131">
+        <v>8</v>
+      </c>
+      <c r="BK131">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:63">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>5067866</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>64</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45011.75</v>
+      </c>
+      <c r="F132">
+        <v>7</v>
+      </c>
+      <c r="G132" t="s">
+        <v>98</v>
+      </c>
+      <c r="H132" t="s">
+        <v>100</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>2</v>
+      </c>
+      <c r="O132" t="s">
+        <v>186</v>
+      </c>
+      <c r="P132" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q132">
+        <v>7</v>
+      </c>
+      <c r="R132">
+        <v>3</v>
+      </c>
+      <c r="S132">
+        <v>10</v>
+      </c>
+      <c r="T132">
+        <v>3.4</v>
+      </c>
+      <c r="U132">
+        <v>1.95</v>
+      </c>
+      <c r="V132">
+        <v>3.6</v>
+      </c>
+      <c r="W132">
+        <v>1.53</v>
+      </c>
+      <c r="X132">
+        <v>2.41</v>
+      </c>
+      <c r="Y132">
+        <v>3.48</v>
+      </c>
+      <c r="Z132">
+        <v>1.28</v>
+      </c>
+      <c r="AA132">
+        <v>9.5</v>
+      </c>
+      <c r="AB132">
+        <v>1.04</v>
+      </c>
+      <c r="AC132">
+        <v>2.55</v>
+      </c>
+      <c r="AD132">
+        <v>3.05</v>
+      </c>
+      <c r="AE132">
+        <v>2.65</v>
+      </c>
+      <c r="AF132">
+        <v>1.06</v>
+      </c>
+      <c r="AG132">
+        <v>6.75</v>
+      </c>
+      <c r="AH132">
+        <v>1.53</v>
+      </c>
+      <c r="AI132">
+        <v>2.4</v>
+      </c>
+      <c r="AJ132">
+        <v>2.35</v>
+      </c>
+      <c r="AK132">
+        <v>1.53</v>
+      </c>
+      <c r="AL132">
+        <v>2.02</v>
+      </c>
+      <c r="AM132">
+        <v>1.74</v>
+      </c>
+      <c r="AN132">
+        <v>1.44</v>
+      </c>
+      <c r="AO132">
+        <v>1.36</v>
+      </c>
+      <c r="AP132">
+        <v>1.48</v>
+      </c>
+      <c r="AQ132">
+        <v>2</v>
+      </c>
+      <c r="AR132">
+        <v>1</v>
+      </c>
+      <c r="AS132">
+        <v>1.67</v>
+      </c>
+      <c r="AT132">
+        <v>1</v>
+      </c>
+      <c r="AU132">
+        <v>1.41</v>
+      </c>
+      <c r="AV132">
+        <v>1.25</v>
+      </c>
+      <c r="AW132">
+        <v>2.66</v>
+      </c>
+      <c r="AX132">
+        <v>0</v>
+      </c>
+      <c r="AY132">
+        <v>0</v>
+      </c>
+      <c r="AZ132">
+        <v>0</v>
+      </c>
+      <c r="BA132">
+        <v>0</v>
+      </c>
+      <c r="BB132">
+        <v>0</v>
+      </c>
+      <c r="BC132">
+        <v>0</v>
+      </c>
+      <c r="BD132">
+        <v>0</v>
+      </c>
+      <c r="BE132">
+        <v>0</v>
+      </c>
+      <c r="BF132">
+        <v>8</v>
+      </c>
+      <c r="BG132">
+        <v>4</v>
+      </c>
+      <c r="BH132">
+        <v>2</v>
+      </c>
+      <c r="BI132">
+        <v>3</v>
+      </c>
+      <c r="BJ132">
+        <v>10</v>
+      </c>
+      <c r="BK132">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:63">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>5067877</v>
+      </c>
+      <c r="C133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45011.75</v>
+      </c>
+      <c r="F133">
+        <v>8</v>
+      </c>
+      <c r="G133" t="s">
+        <v>86</v>
+      </c>
+      <c r="H133" t="s">
+        <v>66</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>2</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>2</v>
+      </c>
+      <c r="O133" t="s">
+        <v>187</v>
+      </c>
+      <c r="P133" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q133">
+        <v>4</v>
+      </c>
+      <c r="R133">
+        <v>2</v>
+      </c>
+      <c r="S133">
+        <v>6</v>
+      </c>
+      <c r="T133">
+        <v>2.88</v>
+      </c>
+      <c r="U133">
+        <v>1.91</v>
+      </c>
+      <c r="V133">
+        <v>4.75</v>
+      </c>
+      <c r="W133">
+        <v>1.6</v>
+      </c>
+      <c r="X133">
+        <v>2.25</v>
+      </c>
+      <c r="Y133">
+        <v>3.7</v>
+      </c>
+      <c r="Z133">
+        <v>1.24</v>
+      </c>
+      <c r="AA133">
+        <v>11</v>
+      </c>
+      <c r="AB133">
+        <v>1.04</v>
+      </c>
+      <c r="AC133">
+        <v>2.15</v>
+      </c>
+      <c r="AD133">
+        <v>2.8</v>
+      </c>
+      <c r="AE133">
+        <v>3.65</v>
+      </c>
+      <c r="AF133">
+        <v>1.11</v>
+      </c>
+      <c r="AG133">
+        <v>6</v>
+      </c>
+      <c r="AH133">
+        <v>1.52</v>
+      </c>
+      <c r="AI133">
+        <v>2.45</v>
+      </c>
+      <c r="AJ133">
+        <v>2.55</v>
+      </c>
+      <c r="AK133">
+        <v>1.45</v>
+      </c>
+      <c r="AL133">
+        <v>2.15</v>
+      </c>
+      <c r="AM133">
+        <v>1.65</v>
+      </c>
+      <c r="AN133">
+        <v>1.22</v>
+      </c>
+      <c r="AO133">
+        <v>1.38</v>
+      </c>
+      <c r="AP133">
+        <v>1.68</v>
+      </c>
+      <c r="AQ133">
+        <v>0.67</v>
+      </c>
+      <c r="AR133">
+        <v>1</v>
+      </c>
+      <c r="AS133">
+        <v>1.25</v>
+      </c>
+      <c r="AT133">
+        <v>0.75</v>
+      </c>
+      <c r="AU133">
+        <v>1.41</v>
+      </c>
+      <c r="AV133">
+        <v>1.52</v>
+      </c>
+      <c r="AW133">
+        <v>2.93</v>
+      </c>
+      <c r="AX133">
+        <v>1.47</v>
+      </c>
+      <c r="AY133">
+        <v>8.1</v>
+      </c>
+      <c r="AZ133">
+        <v>3.45</v>
+      </c>
+      <c r="BA133">
+        <v>1.4</v>
+      </c>
+      <c r="BB133">
+        <v>1.74</v>
+      </c>
+      <c r="BC133">
+        <v>2.25</v>
+      </c>
+      <c r="BD133">
+        <v>3.04</v>
+      </c>
+      <c r="BE133">
+        <v>0</v>
+      </c>
+      <c r="BF133">
+        <v>6</v>
+      </c>
+      <c r="BG133">
+        <v>2</v>
+      </c>
+      <c r="BH133">
+        <v>6</v>
+      </c>
+      <c r="BI133">
+        <v>5</v>
+      </c>
+      <c r="BJ133">
+        <v>12</v>
+      </c>
+      <c r="BK133">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:63">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>5067868</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45011.75</v>
+      </c>
+      <c r="F134">
+        <v>7</v>
+      </c>
+      <c r="G134" t="s">
+        <v>89</v>
+      </c>
+      <c r="H134" t="s">
+        <v>94</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>2</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>2</v>
+      </c>
+      <c r="O134" t="s">
+        <v>106</v>
+      </c>
+      <c r="P134" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q134">
+        <v>6</v>
+      </c>
+      <c r="R134">
+        <v>1</v>
+      </c>
+      <c r="S134">
+        <v>7</v>
+      </c>
+      <c r="T134">
+        <v>3</v>
+      </c>
+      <c r="U134">
+        <v>2</v>
+      </c>
+      <c r="V134">
+        <v>4</v>
+      </c>
+      <c r="W134">
+        <v>1.49</v>
+      </c>
+      <c r="X134">
+        <v>2.52</v>
+      </c>
+      <c r="Y134">
+        <v>3.28</v>
+      </c>
+      <c r="Z134">
+        <v>1.31</v>
+      </c>
+      <c r="AA134">
+        <v>8.9</v>
+      </c>
+      <c r="AB134">
+        <v>1.05</v>
+      </c>
+      <c r="AC134">
+        <v>2.2</v>
+      </c>
+      <c r="AD134">
+        <v>3</v>
+      </c>
+      <c r="AE134">
+        <v>3.2</v>
+      </c>
+      <c r="AF134">
+        <v>1.05</v>
+      </c>
+      <c r="AG134">
+        <v>7.2</v>
+      </c>
+      <c r="AH134">
+        <v>1.5</v>
+      </c>
+      <c r="AI134">
+        <v>2.5</v>
+      </c>
+      <c r="AJ134">
+        <v>2.3</v>
+      </c>
+      <c r="AK134">
+        <v>1.55</v>
+      </c>
+      <c r="AL134">
+        <v>1.96</v>
+      </c>
+      <c r="AM134">
+        <v>1.79</v>
+      </c>
+      <c r="AN134">
+        <v>1.34</v>
+      </c>
+      <c r="AO134">
+        <v>1.34</v>
+      </c>
+      <c r="AP134">
+        <v>1.62</v>
+      </c>
+      <c r="AQ134">
+        <v>2</v>
+      </c>
+      <c r="AR134">
+        <v>1</v>
+      </c>
+      <c r="AS134">
+        <v>1.75</v>
+      </c>
+      <c r="AT134">
+        <v>1</v>
+      </c>
+      <c r="AU134">
+        <v>1.6</v>
+      </c>
+      <c r="AV134">
+        <v>1.57</v>
+      </c>
+      <c r="AW134">
+        <v>3.17</v>
+      </c>
+      <c r="AX134">
+        <v>0</v>
+      </c>
+      <c r="AY134">
+        <v>0</v>
+      </c>
+      <c r="AZ134">
+        <v>0</v>
+      </c>
+      <c r="BA134">
+        <v>0</v>
+      </c>
+      <c r="BB134">
+        <v>0</v>
+      </c>
+      <c r="BC134">
+        <v>0</v>
+      </c>
+      <c r="BD134">
+        <v>0</v>
+      </c>
+      <c r="BE134">
+        <v>0</v>
+      </c>
+      <c r="BF134">
+        <v>4</v>
+      </c>
+      <c r="BG134">
+        <v>4</v>
+      </c>
+      <c r="BH134">
+        <v>9</v>
+      </c>
+      <c r="BI134">
+        <v>2</v>
+      </c>
+      <c r="BJ134">
+        <v>13</v>
+      </c>
+      <c r="BK134">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:63">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>5067871</v>
+      </c>
+      <c r="C135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" t="s">
+        <v>64</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45011.83333333334</v>
+      </c>
+      <c r="F135">
+        <v>7</v>
+      </c>
+      <c r="G135" t="s">
+        <v>75</v>
+      </c>
+      <c r="H135" t="s">
+        <v>90</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>1</v>
+      </c>
+      <c r="O135" t="s">
+        <v>188</v>
+      </c>
+      <c r="P135" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q135">
+        <v>11</v>
+      </c>
+      <c r="R135">
+        <v>4</v>
+      </c>
+      <c r="S135">
+        <v>15</v>
+      </c>
+      <c r="T135">
+        <v>3.25</v>
+      </c>
+      <c r="U135">
+        <v>2</v>
+      </c>
+      <c r="V135">
+        <v>3.75</v>
+      </c>
+      <c r="W135">
+        <v>1.51</v>
+      </c>
+      <c r="X135">
+        <v>2.46</v>
+      </c>
+      <c r="Y135">
+        <v>3.34</v>
+      </c>
+      <c r="Z135">
+        <v>1.3</v>
+      </c>
+      <c r="AA135">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AB135">
+        <v>1.04</v>
+      </c>
+      <c r="AC135">
+        <v>2.4</v>
+      </c>
+      <c r="AD135">
+        <v>3.05</v>
+      </c>
+      <c r="AE135">
+        <v>2.8</v>
+      </c>
+      <c r="AF135">
+        <v>1.05</v>
+      </c>
+      <c r="AG135">
+        <v>7</v>
+      </c>
+      <c r="AH135">
+        <v>1.42</v>
+      </c>
+      <c r="AI135">
+        <v>2.61</v>
+      </c>
+      <c r="AJ135">
+        <v>2.3</v>
+      </c>
+      <c r="AK135">
+        <v>1.55</v>
+      </c>
+      <c r="AL135">
+        <v>1.98</v>
+      </c>
+      <c r="AM135">
+        <v>1.77</v>
+      </c>
+      <c r="AN135">
+        <v>1.41</v>
+      </c>
+      <c r="AO135">
+        <v>1.35</v>
+      </c>
+      <c r="AP135">
+        <v>1.52</v>
+      </c>
+      <c r="AQ135">
+        <v>2</v>
+      </c>
+      <c r="AR135">
+        <v>1.5</v>
+      </c>
+      <c r="AS135">
+        <v>2.25</v>
+      </c>
+      <c r="AT135">
+        <v>1</v>
+      </c>
+      <c r="AU135">
+        <v>1.95</v>
+      </c>
+      <c r="AV135">
+        <v>1.21</v>
+      </c>
+      <c r="AW135">
+        <v>3.16</v>
+      </c>
+      <c r="AX135">
+        <v>0</v>
+      </c>
+      <c r="AY135">
+        <v>0</v>
+      </c>
+      <c r="AZ135">
+        <v>0</v>
+      </c>
+      <c r="BA135">
+        <v>0</v>
+      </c>
+      <c r="BB135">
+        <v>0</v>
+      </c>
+      <c r="BC135">
+        <v>0</v>
+      </c>
+      <c r="BD135">
+        <v>0</v>
+      </c>
+      <c r="BE135">
+        <v>0</v>
+      </c>
+      <c r="BF135">
+        <v>4</v>
+      </c>
+      <c r="BG135">
+        <v>4</v>
+      </c>
+      <c r="BH135">
+        <v>6</v>
+      </c>
+      <c r="BI135">
+        <v>7</v>
+      </c>
+      <c r="BJ135">
+        <v>10</v>
+      </c>
+      <c r="BK135">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:63">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>5067867</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45012.89583333334</v>
+      </c>
+      <c r="F136">
+        <v>7</v>
+      </c>
+      <c r="G136" t="s">
+        <v>101</v>
+      </c>
+      <c r="H136" t="s">
+        <v>92</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>2</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>2</v>
+      </c>
+      <c r="O136" t="s">
+        <v>189</v>
+      </c>
+      <c r="P136" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q136">
+        <v>1</v>
+      </c>
+      <c r="R136">
+        <v>5</v>
+      </c>
+      <c r="S136">
+        <v>6</v>
+      </c>
+      <c r="T136">
+        <v>3</v>
+      </c>
+      <c r="U136">
+        <v>2</v>
+      </c>
+      <c r="V136">
+        <v>4</v>
+      </c>
+      <c r="W136">
+        <v>1.5</v>
+      </c>
+      <c r="X136">
+        <v>2.5</v>
+      </c>
+      <c r="Y136">
+        <v>3.5</v>
+      </c>
+      <c r="Z136">
+        <v>1.29</v>
+      </c>
+      <c r="AA136">
+        <v>11</v>
+      </c>
+      <c r="AB136">
+        <v>1.05</v>
+      </c>
+      <c r="AC136">
+        <v>2.1</v>
+      </c>
+      <c r="AD136">
+        <v>3.1</v>
+      </c>
+      <c r="AE136">
+        <v>3.27</v>
+      </c>
+      <c r="AF136">
+        <v>1.05</v>
+      </c>
+      <c r="AG136">
+        <v>7.2</v>
+      </c>
+      <c r="AH136">
+        <v>1.4</v>
+      </c>
+      <c r="AI136">
+        <v>2.68</v>
+      </c>
+      <c r="AJ136">
+        <v>2.29</v>
+      </c>
+      <c r="AK136">
+        <v>1.55</v>
+      </c>
+      <c r="AL136">
+        <v>2</v>
+      </c>
+      <c r="AM136">
+        <v>1.73</v>
+      </c>
+      <c r="AN136">
+        <v>1.25</v>
+      </c>
+      <c r="AO136">
+        <v>1.34</v>
+      </c>
+      <c r="AP136">
+        <v>1.57</v>
+      </c>
+      <c r="AQ136">
+        <v>1.5</v>
+      </c>
+      <c r="AR136">
+        <v>1</v>
+      </c>
+      <c r="AS136">
+        <v>1.33</v>
+      </c>
+      <c r="AT136">
+        <v>1</v>
+      </c>
+      <c r="AU136">
+        <v>1.88</v>
+      </c>
+      <c r="AV136">
+        <v>1.44</v>
+      </c>
+      <c r="AW136">
+        <v>3.32</v>
+      </c>
+      <c r="AX136">
+        <v>0</v>
+      </c>
+      <c r="AY136">
+        <v>8</v>
+      </c>
+      <c r="AZ136">
+        <v>3.18</v>
+      </c>
+      <c r="BA136">
+        <v>1.26</v>
+      </c>
+      <c r="BB136">
+        <v>1.57</v>
+      </c>
+      <c r="BC136">
+        <v>1.96</v>
+      </c>
+      <c r="BD136">
+        <v>2.44</v>
+      </c>
+      <c r="BE136">
+        <v>3.42</v>
+      </c>
+      <c r="BF136">
+        <v>3</v>
+      </c>
+      <c r="BG136">
+        <v>4</v>
+      </c>
+      <c r="BH136">
+        <v>7</v>
+      </c>
+      <c r="BI136">
+        <v>7</v>
+      </c>
+      <c r="BJ136">
+        <v>10</v>
+      </c>
+      <c r="BK136">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK154"/>
+  <dimension ref="A1:BK162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>2</v>
       </c>
       <c r="AT3" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT6" t="n">
         <v>1.6</v>
@@ -1918,7 +1918,7 @@
         <v>1.6</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT8" t="n">
         <v>0.8</v>
@@ -2324,7 +2324,7 @@
         <v>2.2</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT10" t="n">
         <v>1.2</v>
@@ -3745,7 +3745,7 @@
         <v>1.75</v>
       </c>
       <c r="AT16" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>3</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT21" t="n">
         <v>0.75</v>
@@ -4963,7 +4963,7 @@
         <v>1.75</v>
       </c>
       <c r="AT22" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT23" t="n">
         <v>1.25</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT25" t="n">
         <v>1.5</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         <v>2</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU30" t="n">
         <v>1.58</v>
@@ -6993,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU32" t="n">
         <v>1.59</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT37" t="n">
         <v>0.5</v>
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT42" t="n">
         <v>0.8</v>
@@ -9632,7 +9632,7 @@
         <v>1.75</v>
       </c>
       <c r="AT45" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU45" t="n">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>1.75</v>
       </c>
       <c r="AT47" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU47" t="n">
         <v>1.93</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT51" t="n">
         <v>1.5</v>
@@ -11459,7 +11459,7 @@
         <v>1.75</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU54" t="n">
         <v>1</v>
@@ -11662,7 +11662,7 @@
         <v>3</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU55" t="n">
         <v>1.44</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT56" t="n">
         <v>1</v>
@@ -12065,7 +12065,7 @@
         <v>3</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT57" t="n">
         <v>1.25</v>
@@ -12268,10 +12268,10 @@
         <v>0</v>
       </c>
       <c r="AS58" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU58" t="n">
         <v>1.64</v>
@@ -13486,10 +13486,10 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT64" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU64" t="n">
         <v>1.4</v>
@@ -14301,7 +14301,7 @@
         <v>1.75</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU68" t="n">
         <v>0.84</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT73" t="n">
         <v>0.5</v>
@@ -16331,7 +16331,7 @@
         <v>1.75</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU78" t="n">
         <v>1.55</v>
@@ -17952,10 +17952,10 @@
         <v>0.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT86" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU86" t="n">
         <v>1.48</v>
@@ -18155,7 +18155,7 @@
         <v>0.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT87" t="n">
         <v>1</v>
@@ -18358,7 +18358,7 @@
         <v>2</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT88" t="n">
         <v>2</v>
@@ -18561,7 +18561,7 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT89" t="n">
         <v>1.5</v>
@@ -18764,10 +18764,10 @@
         <v>1.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT90" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU90" t="n">
         <v>1.68</v>
@@ -19376,7 +19376,7 @@
         <v>1</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU93" t="n">
         <v>1.93</v>
@@ -19576,10 +19576,10 @@
         <v>0</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU94" t="n">
         <v>1.03</v>
@@ -20188,7 +20188,7 @@
         <v>1.75</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU97" t="n">
         <v>1.23</v>
@@ -20594,7 +20594,7 @@
         <v>1.75</v>
       </c>
       <c r="AT99" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU99" t="n">
         <v>1.98</v>
@@ -23436,7 +23436,7 @@
         <v>3</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU113" t="n">
         <v>1.44</v>
@@ -23636,7 +23636,7 @@
         <v>2</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT114" t="n">
         <v>1.25</v>
@@ -24651,10 +24651,10 @@
         <v>0.33</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT119" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU119" t="n">
         <v>1.08</v>
@@ -24854,10 +24854,10 @@
         <v>1</v>
       </c>
       <c r="AS120" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT120" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU120" t="n">
         <v>2.05</v>
@@ -25666,7 +25666,7 @@
         <v>1.67</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT124" t="n">
         <v>2</v>
@@ -26075,7 +26075,7 @@
         <v>1.75</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU126" t="n">
         <v>1.31</v>
@@ -26275,10 +26275,10 @@
         <v>1.33</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT127" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU127" t="n">
         <v>1.36</v>
@@ -26684,7 +26684,7 @@
         <v>1</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU129" t="n">
         <v>1.51</v>
@@ -27087,10 +27087,10 @@
         <v>0</v>
       </c>
       <c r="AS131" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU131" t="n">
         <v>1.56</v>
@@ -27493,10 +27493,10 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU133" t="n">
         <v>1.41</v>
@@ -31811,6 +31811,1630 @@
       </c>
       <c r="BK154" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>5067913</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45021.625</v>
+      </c>
+      <c r="F155" t="n">
+        <v>10</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Flandria</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>All Boys</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>2</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="n">
+        <v>3</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>['73', '78']</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>5</v>
+      </c>
+      <c r="R155" t="n">
+        <v>3</v>
+      </c>
+      <c r="S155" t="n">
+        <v>8</v>
+      </c>
+      <c r="T155" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U155" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V155" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X155" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>5067911</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45021.63194444445</v>
+      </c>
+      <c r="F156" t="n">
+        <v>10</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Defensores Unidos</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>San Martín Tucumán</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>7</v>
+      </c>
+      <c r="R156" t="n">
+        <v>2</v>
+      </c>
+      <c r="S156" t="n">
+        <v>9</v>
+      </c>
+      <c r="T156" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U156" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V156" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X156" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>5067915</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45021.64583333334</v>
+      </c>
+      <c r="F157" t="n">
+        <v>10</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Gimnasia Mendoza</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Defensores de Belgrano</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>4</v>
+      </c>
+      <c r="R157" t="n">
+        <v>13</v>
+      </c>
+      <c r="S157" t="n">
+        <v>17</v>
+      </c>
+      <c r="T157" t="n">
+        <v>3</v>
+      </c>
+      <c r="U157" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V157" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X157" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>5067909</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45021.64583333334</v>
+      </c>
+      <c r="F158" t="n">
+        <v>10</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Agropecuario</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>2</v>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="n">
+        <v>3</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>['59', '71']</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>8</v>
+      </c>
+      <c r="R158" t="n">
+        <v>2</v>
+      </c>
+      <c r="S158" t="n">
+        <v>10</v>
+      </c>
+      <c r="T158" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U158" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V158" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X158" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>19</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>25</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>5067910</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45021.66666666666</v>
+      </c>
+      <c r="F159" t="n">
+        <v>10</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Guillermo Brown</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Temperley</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>2</v>
+      </c>
+      <c r="K159" t="n">
+        <v>3</v>
+      </c>
+      <c r="L159" t="n">
+        <v>2</v>
+      </c>
+      <c r="M159" t="n">
+        <v>2</v>
+      </c>
+      <c r="N159" t="n">
+        <v>4</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['12', '90+5']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['10', '28']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>8</v>
+      </c>
+      <c r="R159" t="n">
+        <v>4</v>
+      </c>
+      <c r="S159" t="n">
+        <v>12</v>
+      </c>
+      <c r="T159" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U159" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V159" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X159" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>5067914</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45021.71527777778</v>
+      </c>
+      <c r="F160" t="n">
+        <v>10</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Alvarado</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Estudiantes Río Cuarto</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>2</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1</v>
+      </c>
+      <c r="K160" t="n">
+        <v>3</v>
+      </c>
+      <c r="L160" t="n">
+        <v>2</v>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="n">
+        <v>3</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>['1', '19']</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>3</v>
+      </c>
+      <c r="R160" t="n">
+        <v>4</v>
+      </c>
+      <c r="S160" t="n">
+        <v>7</v>
+      </c>
+      <c r="T160" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U160" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V160" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X160" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>5067917</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45021.79861111111</v>
+      </c>
+      <c r="F161" t="n">
+        <v>10</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Club Atlético Güemes</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Deportivo Morón</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>4</v>
+      </c>
+      <c r="R161" t="n">
+        <v>2</v>
+      </c>
+      <c r="S161" t="n">
+        <v>6</v>
+      </c>
+      <c r="T161" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="U161" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V161" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X161" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>5067912</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45021.88888888889</v>
+      </c>
+      <c r="F162" t="n">
+        <v>10</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>San Martín San Juan</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Nueva Chicago</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>7</v>
+      </c>
+      <c r="R162" t="n">
+        <v>4</v>
+      </c>
+      <c r="S162" t="n">
+        <v>11</v>
+      </c>
+      <c r="T162" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2</v>
+      </c>
+      <c r="V162" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X162" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK162"/>
+  <dimension ref="A1:BK163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3398,7 +3398,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>5067768</v>
+        <v>5067773</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -3418,12 +3418,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Almirante Brown</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -3439,10 +3439,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -3451,35 +3451,35 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>['65']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S15" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T15" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="U15" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V15" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="W15" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="X15" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z15" t="n">
         <v>1.19</v>
@@ -3491,58 +3491,58 @@
         <v>1.01</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.02</v>
+        <v>2.35</v>
       </c>
       <c r="AD15" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="AE15" t="n">
-        <v>3.5</v>
+        <v>2.92</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="AG15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH15" t="n">
         <v>1.55</v>
       </c>
       <c r="AI15" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="AJ15" t="n">
-        <v>2.56</v>
+        <v>2.73</v>
       </c>
       <c r="AK15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP15" t="n">
         <v>1.45</v>
       </c>
-      <c r="AL15" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AM15" t="n">
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
         <v>1.6</v>
       </c>
-      <c r="AN15" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>1.75</v>
-      </c>
       <c r="AT15" t="n">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3554,37 +3554,37 @@
         <v>0</v>
       </c>
       <c r="AX15" t="n">
-        <v>1.41</v>
+        <v>1.72</v>
       </c>
       <c r="AY15" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AZ15" t="n">
-        <v>3.56</v>
+        <v>2.62</v>
       </c>
       <c r="BA15" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="BB15" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="BC15" t="n">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="BD15" t="n">
-        <v>2.46</v>
+        <v>2.43</v>
       </c>
       <c r="BE15" t="n">
-        <v>3.48</v>
+        <v>3.42</v>
       </c>
       <c r="BF15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BI15" t="n">
         <v>1</v>
@@ -3593,7 +3593,7 @@
         <v>8</v>
       </c>
       <c r="BK15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -3601,7 +3601,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>5067767</v>
+        <v>5012309</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -3617,123 +3617,123 @@
         <v>44968.70833333334</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Villa Dálmine</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Defensores de Belgrano</t>
+          <t>Club Atlético Mitre</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
         <v>4</v>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>['32', '73']</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>['5', '59']</t>
-        </is>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
       <c r="R16" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="T16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V16" t="n">
         <v>3.75</v>
       </c>
-      <c r="U16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V16" t="n">
-        <v>3.25</v>
-      </c>
       <c r="W16" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="X16" t="n">
-        <v>2.21</v>
+        <v>2.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AA16" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="AB16" t="n">
         <v>1.04</v>
       </c>
       <c r="AC16" t="n">
-        <v>2.86</v>
+        <v>2.48</v>
       </c>
       <c r="AD16" t="n">
-        <v>2.94</v>
+        <v>3.04</v>
       </c>
       <c r="AE16" t="n">
-        <v>2.33</v>
+        <v>3.1</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="AH16" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK16" t="n">
         <v>1.53</v>
       </c>
-      <c r="AI16" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>1.42</v>
-      </c>
       <c r="AL16" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AM16" t="n">
         <v>1.68</v>
       </c>
       <c r="AN16" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AO16" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.28</v>
+        <v>1.51</v>
       </c>
       <c r="AQ16" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3757,46 +3757,46 @@
         <v>0</v>
       </c>
       <c r="AX16" t="n">
-        <v>2.12</v>
+        <v>1.82</v>
       </c>
       <c r="AY16" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AZ16" t="n">
-        <v>2</v>
+        <v>2.43</v>
       </c>
       <c r="BA16" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="BB16" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="BC16" t="n">
-        <v>2.29</v>
+        <v>2.55</v>
       </c>
       <c r="BD16" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="BE16" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="BF16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI16" t="n">
         <v>7</v>
       </c>
-      <c r="BG16" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>7</v>
-      </c>
-      <c r="BI16" t="n">
-        <v>3</v>
-      </c>
       <c r="BJ16" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="BK16" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -3804,7 +3804,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>5067766</v>
+        <v>5012310</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -3820,39 +3820,39 @@
         <v>44968.70833333334</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Estudiantes Río Cuarto</t>
+          <t>Chacarita Juniors</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>['17', '74']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -3861,145 +3861,145 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>6</v>
       </c>
       <c r="S17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T17" t="n">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="U17" t="n">
         <v>1.83</v>
       </c>
       <c r="V17" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="W17" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="X17" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL17" t="n">
         <v>2.1</v>
       </c>
-      <c r="Y17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AI17" t="n">
+      <c r="AM17" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BC17" t="n">
         <v>2.15</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>2.12</v>
-      </c>
       <c r="BD17" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="BE17" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="BF17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI17" t="n">
         <v>5</v>
       </c>
-      <c r="BG17" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI17" t="n">
-        <v>6</v>
-      </c>
       <c r="BJ17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BK17" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -4007,7 +4007,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>5012310</v>
+        <v>5012313</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -4027,131 +4027,131 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Brown de Adrogué</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Chacarita Juniors</t>
+          <t>Racing Córdoba</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['36']</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12', '56']</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T18" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="U18" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V18" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="W18" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="X18" t="n">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.4</v>
+        <v>3.74</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AA18" t="n">
-        <v>8.25</v>
+        <v>10</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AC18" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AD18" t="n">
-        <v>2.98</v>
+        <v>3.04</v>
       </c>
       <c r="AE18" t="n">
-        <v>3.05</v>
+        <v>3.38</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AG18" t="n">
         <v>6</v>
       </c>
       <c r="AH18" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AI18" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AJ18" t="n">
-        <v>2.55</v>
+        <v>2.51</v>
       </c>
       <c r="AK18" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="AL18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AM18" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="AN18" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AO18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AP18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
         <v>1.6</v>
       </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>1</v>
-      </c>
       <c r="AT18" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4163,46 +4163,46 @@
         <v>0</v>
       </c>
       <c r="AX18" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AY18" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AZ18" t="n">
-        <v>2.93</v>
+        <v>2.68</v>
       </c>
       <c r="BA18" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="BB18" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="BC18" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="BD18" t="n">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="BE18" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="BF18" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG18" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BH18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BI18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BK18" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -4210,7 +4210,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>5012313</v>
+        <v>5067768</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -4226,186 +4226,186 @@
         <v>44968.70833333334</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Brown de Adrogué</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Racing Córdoba</t>
+          <t>Almirante Brown</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>['36']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>['12', '56']</t>
+          <t>['65']</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>6</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V19" t="n">
         <v>5</v>
       </c>
-      <c r="S19" t="n">
+      <c r="W19" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH19" t="n">
         <v>8</v>
       </c>
-      <c r="T19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V19" t="n">
+      <c r="BI19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK19" t="n">
         <v>4</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X19" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>7</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>7</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>9</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>16</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -4413,7 +4413,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>5012309</v>
+        <v>5067767</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -4429,123 +4429,123 @@
         <v>44968.70833333334</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Villa Dálmine</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Club Atlético Mitre</t>
+          <t>Defensores de Belgrano</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['32', '73']</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['5', '59']</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S20" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="T20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V20" t="n">
         <v>3.25</v>
       </c>
-      <c r="U20" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V20" t="n">
-        <v>3.75</v>
-      </c>
       <c r="W20" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="X20" t="n">
-        <v>2.3</v>
+        <v>2.21</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AA20" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="AB20" t="n">
         <v>1.04</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.48</v>
+        <v>2.86</v>
       </c>
       <c r="AD20" t="n">
-        <v>3.04</v>
+        <v>2.94</v>
       </c>
       <c r="AE20" t="n">
-        <v>3.1</v>
+        <v>2.33</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="AG20" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="AH20" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="AI20" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="AJ20" t="n">
-        <v>2.38</v>
+        <v>2.65</v>
       </c>
       <c r="AK20" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="AL20" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AM20" t="n">
         <v>1.68</v>
       </c>
       <c r="AN20" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="AO20" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.51</v>
+        <v>1.28</v>
       </c>
       <c r="AQ20" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="AT20" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4569,46 +4569,46 @@
         <v>0</v>
       </c>
       <c r="AX20" t="n">
-        <v>1.82</v>
+        <v>2.12</v>
       </c>
       <c r="AY20" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF20" t="n">
         <v>7</v>
       </c>
-      <c r="AZ20" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>3</v>
-      </c>
       <c r="BG20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH20" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BI20" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK20" t="n">
         <v>7</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>6</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -4616,7 +4616,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>5067773</v>
+        <v>5067766</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -4636,182 +4636,182 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Estudiantes Río Cuarto</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
+          <t>['17', '74']</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Q21" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S21" t="n">
+        <v>8</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK21" t="n">
         <v>12</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="X21" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>8</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT26" t="n">
         <v>0</v>
@@ -6443,7 +6443,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>5067789</v>
+        <v>5067774</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -6459,186 +6459,186 @@
         <v>44974.875</v>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Estudiantes Río Cuarto</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
+        <v>2</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>8</v>
+      </c>
+      <c r="R30" t="n">
         <v>4</v>
       </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>['90', '90+7']</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>['70', '85']</t>
-        </is>
-      </c>
-      <c r="Q30" t="n">
-        <v>10</v>
-      </c>
-      <c r="R30" t="n">
-        <v>3</v>
-      </c>
       <c r="S30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T30" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U30" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V30" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="W30" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH30" t="n">
         <v>1.57</v>
       </c>
-      <c r="X30" t="n">
+      <c r="AI30" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL30" t="n">
         <v>2.25</v>
       </c>
-      <c r="Y30" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC30" t="n">
+      <c r="AM30" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS30" t="n">
         <v>1.8</v>
       </c>
-      <c r="AD30" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>2</v>
-      </c>
       <c r="AT30" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AU30" t="n">
-        <v>1.58</v>
+        <v>1.29</v>
       </c>
       <c r="AV30" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AW30" t="n">
-        <v>3.11</v>
+        <v>1.29</v>
       </c>
       <c r="AX30" t="n">
-        <v>1.41</v>
+        <v>1.72</v>
       </c>
       <c r="AY30" t="n">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="AZ30" t="n">
-        <v>3.7</v>
+        <v>2.67</v>
       </c>
       <c r="BA30" t="n">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="BB30" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="BC30" t="n">
-        <v>2.16</v>
+        <v>2.31</v>
       </c>
       <c r="BD30" t="n">
-        <v>2.85</v>
+        <v>3.3</v>
       </c>
       <c r="BE30" t="n">
         <v>0</v>
       </c>
       <c r="BF30" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BG30" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BH30" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BI30" t="n">
         <v>0</v>
       </c>
       <c r="BJ30" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="BK30" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -6646,7 +6646,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>5067774</v>
+        <v>5067777</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -6666,59 +6666,59 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Racing Córdoba</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Estudiantes Caseros</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
         <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>['44']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>['67']</t>
+          <t>['45']</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T31" t="n">
         <v>3.5</v>
       </c>
       <c r="U31" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V31" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="W31" t="n">
         <v>1.62</v>
@@ -6733,37 +6733,37 @@
         <v>1.2</v>
       </c>
       <c r="AA31" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AB31" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AC31" t="n">
-        <v>2.41</v>
+        <v>2.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>3.04</v>
+        <v>2.97</v>
       </c>
       <c r="AE31" t="n">
-        <v>3.22</v>
+        <v>2.97</v>
       </c>
       <c r="AF31" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AG31" t="n">
         <v>5.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AI31" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AJ31" t="n">
-        <v>2.8</v>
+        <v>2.52</v>
       </c>
       <c r="AK31" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="AL31" t="n">
         <v>2.25</v>
@@ -6772,76 +6772,76 @@
         <v>1.61</v>
       </c>
       <c r="AN31" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AO31" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AP31" t="n">
         <v>1.45</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR31" t="n">
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="AT31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU31" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AV31" t="n">
         <v>0</v>
       </c>
       <c r="AW31" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AX31" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="AY31" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AZ31" t="n">
-        <v>2.67</v>
+        <v>2.53</v>
       </c>
       <c r="BA31" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="BB31" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="BC31" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="BD31" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="BE31" t="n">
         <v>0</v>
       </c>
       <c r="BF31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG31" t="n">
         <v>2</v>
       </c>
       <c r="BH31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BI31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ31" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BK31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -7052,7 +7052,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>5067777</v>
+        <v>5067789</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -7068,123 +7068,123 @@
         <v>44974.875</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Racing Córdoba</t>
+          <t>Estudiantes Río Cuarto</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Estudiantes Caseros</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['90', '90+7']</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>['45']</t>
+          <t>['70', '85']</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S33" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V33" t="n">
+        <v>6</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y33" t="n">
         <v>3.5</v>
       </c>
-      <c r="U33" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V33" t="n">
-        <v>4</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="X33" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>4</v>
-      </c>
       <c r="Z33" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AA33" t="n">
         <v>10</v>
       </c>
       <c r="AB33" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AC33" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="AD33" t="n">
-        <v>2.97</v>
+        <v>3.34</v>
       </c>
       <c r="AE33" t="n">
-        <v>2.97</v>
+        <v>5</v>
       </c>
       <c r="AF33" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="AG33" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AH33" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AI33" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AJ33" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="AK33" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="AL33" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="AM33" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AN33" t="n">
-        <v>1.36</v>
+        <v>1.15</v>
       </c>
       <c r="AO33" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.45</v>
+        <v>1.98</v>
       </c>
       <c r="AQ33" t="n">
         <v>0</v>
@@ -7193,61 +7193,61 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT33" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="AU33" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AV33" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AW33" t="n">
-        <v>0</v>
+        <v>3.11</v>
       </c>
       <c r="AX33" t="n">
-        <v>1.77</v>
+        <v>1.41</v>
       </c>
       <c r="AY33" t="n">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="AZ33" t="n">
-        <v>2.53</v>
+        <v>3.7</v>
       </c>
       <c r="BA33" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="BB33" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="BC33" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="BD33" t="n">
-        <v>3.15</v>
+        <v>2.85</v>
       </c>
       <c r="BE33" t="n">
         <v>0</v>
       </c>
       <c r="BF33" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BG33" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BH33" t="n">
         <v>6</v>
       </c>
       <c r="BI33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BJ33" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BK33" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -8676,7 +8676,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>5067782</v>
+        <v>5067785</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -8692,16 +8692,16 @@
         <v>44976.79166666666</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>Club Atlético Güemes</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -8714,86 +8714,86 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>['63', '80']</t>
+          <t>['80']</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>['90']</t>
+          <t>['60']</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R41" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S41" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T41" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="U41" t="n">
         <v>1.91</v>
       </c>
       <c r="V41" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="W41" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X41" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y41" t="n">
-        <v>4.5</v>
+        <v>3.74</v>
       </c>
       <c r="Z41" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AA41" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AB41" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AC41" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AD41" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="AE41" t="n">
-        <v>3.11</v>
+        <v>3.6</v>
       </c>
       <c r="AF41" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AG41" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AH41" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AI41" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AJ41" t="n">
-        <v>2.65</v>
+        <v>2.47</v>
       </c>
       <c r="AK41" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AL41" t="n">
         <v>2.25</v>
@@ -8802,76 +8802,76 @@
         <v>1.58</v>
       </c>
       <c r="AN41" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AO41" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AQ41" t="n">
         <v>0</v>
       </c>
       <c r="AR41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.67</v>
+        <v>1.2</v>
       </c>
       <c r="AT41" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU41" t="n">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="AV41" t="n">
-        <v>1.59</v>
+        <v>1.1</v>
       </c>
       <c r="AW41" t="n">
-        <v>1.59</v>
+        <v>1.84</v>
       </c>
       <c r="AX41" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AY41" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AZ41" t="n">
-        <v>2.73</v>
+        <v>2.82</v>
       </c>
       <c r="BA41" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="BB41" t="n">
-        <v>1.77</v>
+        <v>1.5</v>
       </c>
       <c r="BC41" t="n">
-        <v>2.22</v>
+        <v>1.83</v>
       </c>
       <c r="BD41" t="n">
-        <v>3</v>
+        <v>2.27</v>
       </c>
       <c r="BE41" t="n">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="BF41" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BG41" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK41" t="n">
         <v>7</v>
-      </c>
-      <c r="BH41" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI41" t="n">
-        <v>6</v>
-      </c>
-      <c r="BJ41" t="n">
-        <v>13</v>
-      </c>
-      <c r="BK41" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="42">
@@ -8879,7 +8879,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>5067785</v>
+        <v>5067782</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -8895,16 +8895,16 @@
         <v>44976.79166666666</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Club Atlético Güemes</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -8917,86 +8917,86 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>['80']</t>
+          <t>['63', '80']</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>['60']</t>
+          <t>['90']</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S42" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T42" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="U42" t="n">
         <v>1.91</v>
       </c>
       <c r="V42" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y42" t="n">
         <v>4.5</v>
       </c>
-      <c r="W42" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI42" t="n">
         <v>2.25</v>
       </c>
-      <c r="Y42" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>2.4</v>
-      </c>
       <c r="AJ42" t="n">
-        <v>2.47</v>
+        <v>2.65</v>
       </c>
       <c r="AK42" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AL42" t="n">
         <v>2.25</v>
@@ -9005,76 +9005,76 @@
         <v>1.58</v>
       </c>
       <c r="AN42" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AO42" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ42" t="n">
         <v>0</v>
       </c>
       <c r="AR42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.2</v>
+        <v>1.67</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU42" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="AV42" t="n">
-        <v>1.1</v>
+        <v>1.59</v>
       </c>
       <c r="AW42" t="n">
-        <v>1.84</v>
+        <v>1.59</v>
       </c>
       <c r="AX42" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AY42" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AZ42" t="n">
-        <v>2.82</v>
+        <v>2.73</v>
       </c>
       <c r="BA42" t="n">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="BB42" t="n">
-        <v>1.5</v>
+        <v>1.77</v>
       </c>
       <c r="BC42" t="n">
-        <v>1.83</v>
+        <v>2.22</v>
       </c>
       <c r="BD42" t="n">
-        <v>2.27</v>
+        <v>3</v>
       </c>
       <c r="BE42" t="n">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="BF42" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BG42" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH42" t="n">
         <v>4</v>
       </c>
-      <c r="BH42" t="n">
-        <v>10</v>
-      </c>
       <c r="BI42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BJ42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BK42" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
@@ -10503,7 +10503,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>5067800</v>
+        <v>5067808</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -10519,16 +10519,16 @@
         <v>44982.70833333334</v>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Quilmes</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -10541,164 +10541,164 @@
         <v>1</v>
       </c>
       <c r="L50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
       <c r="N50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>['15', '82']</t>
+          <t>['21']</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>['59']</t>
+          <t>['80']</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T50" t="n">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="U50" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V50" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="W50" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X50" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT50" t="n">
         <v>1.5</v>
       </c>
-      <c r="X50" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="Z50" t="n">
+      <c r="AU50" t="n">
         <v>1.29</v>
       </c>
-      <c r="AA50" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="AJ50" t="n">
+      <c r="AV50" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AX50" t="n">
         <v>2.25</v>
       </c>
-      <c r="AK50" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AO50" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP50" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AQ50" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS50" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU50" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="AV50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW50" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="AX50" t="n">
-        <v>1.51</v>
-      </c>
       <c r="AY50" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AZ50" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BE50" t="n">
         <v>3.2</v>
       </c>
-      <c r="BA50" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="BB50" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="BC50" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="BD50" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="BE50" t="n">
-        <v>3.8</v>
-      </c>
       <c r="BF50" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BG50" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BH50" t="n">
         <v>1</v>
       </c>
       <c r="BI50" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BJ50" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BK50" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -10706,7 +10706,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>5067808</v>
+        <v>5067803</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -10726,12 +10726,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>Estudiantes Río Cuarto</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -10747,161 +10747,161 @@
         <v>1</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>['21']</t>
+          <t>['14']</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>['80']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S51" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="T51" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U51" t="n">
         <v>1.91</v>
       </c>
       <c r="V51" t="n">
+        <v>4</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X51" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE51" t="n">
         <v>3.5</v>
       </c>
-      <c r="W51" t="n">
+      <c r="AF51" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM51" t="n">
         <v>1.62</v>
       </c>
-      <c r="X51" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>1.55</v>
-      </c>
       <c r="AN51" t="n">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="AO51" t="n">
         <v>1.32</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU51" t="n">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AV51" t="n">
-        <v>1.18</v>
+        <v>1.97</v>
       </c>
       <c r="AW51" t="n">
-        <v>2.47</v>
+        <v>2.97</v>
       </c>
       <c r="AX51" t="n">
-        <v>2.25</v>
+        <v>1.62</v>
       </c>
       <c r="AY51" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AZ51" t="n">
-        <v>1.87</v>
+        <v>2.87</v>
       </c>
       <c r="BA51" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="BB51" t="n">
-        <v>1.52</v>
+        <v>1.74</v>
       </c>
       <c r="BC51" t="n">
-        <v>1.8</v>
+        <v>2.18</v>
       </c>
       <c r="BD51" t="n">
-        <v>2.47</v>
+        <v>2.9</v>
       </c>
       <c r="BE51" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="BF51" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG51" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BH51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ51" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BK51" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
@@ -11315,7 +11315,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>5067803</v>
+        <v>5067800</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -11331,16 +11331,16 @@
         <v>44982.70833333334</v>
       </c>
       <c r="F54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Estudiantes Río Cuarto</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -11353,164 +11353,164 @@
         <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>['14']</t>
+          <t>['15', '82']</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['59']</t>
         </is>
       </c>
       <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" t="n">
         <v>7</v>
       </c>
-      <c r="R54" t="n">
-        <v>5</v>
-      </c>
-      <c r="S54" t="n">
-        <v>12</v>
-      </c>
       <c r="T54" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="U54" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V54" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="W54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X54" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK54" t="n">
         <v>1.57</v>
       </c>
-      <c r="X54" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AG54" t="n">
+      <c r="AL54" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI54" t="n">
         <v>7</v>
       </c>
-      <c r="AH54" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AO54" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AP54" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AQ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS54" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AT54" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AU54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV54" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AW54" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="AX54" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AY54" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AZ54" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="BA54" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="BB54" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="BC54" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="BD54" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="BE54" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="BF54" t="n">
+      <c r="BJ54" t="n">
         <v>7</v>
       </c>
-      <c r="BG54" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH54" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ54" t="n">
-        <v>9</v>
-      </c>
       <c r="BK54" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
@@ -12127,7 +12127,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>5067806</v>
+        <v>5067805</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -12147,12 +12147,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Deportivo Morón</t>
+          <t>Almirante Brown</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -12165,17 +12165,17 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>['56', '62']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -12184,145 +12184,145 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R58" t="n">
+        <v>6</v>
+      </c>
+      <c r="S58" t="n">
+        <v>10</v>
+      </c>
+      <c r="T58" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V58" t="n">
         <v>4</v>
       </c>
-      <c r="S58" t="n">
-        <v>9</v>
-      </c>
-      <c r="T58" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U58" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V58" t="n">
-        <v>3.6</v>
-      </c>
       <c r="W58" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X58" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y58" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Z58" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AA58" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB58" t="n">
         <v>1.04</v>
       </c>
       <c r="AC58" t="n">
-        <v>2.74</v>
+        <v>2.38</v>
       </c>
       <c r="AD58" t="n">
-        <v>2.76</v>
+        <v>2.95</v>
       </c>
       <c r="AE58" t="n">
-        <v>2.55</v>
+        <v>2.77</v>
       </c>
       <c r="AF58" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="AG58" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="AI58" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL58" t="n">
         <v>2.2</v>
       </c>
-      <c r="AJ58" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>2.1</v>
-      </c>
       <c r="AM58" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="AN58" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="AO58" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU58" t="n">
         <v>2.6</v>
       </c>
-      <c r="AT58" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AU58" t="n">
-        <v>1.64</v>
-      </c>
       <c r="AV58" t="n">
-        <v>1.04</v>
+        <v>0.71</v>
       </c>
       <c r="AW58" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ58" t="n">
         <v>2.68</v>
       </c>
-      <c r="AX58" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AY58" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AZ58" t="n">
-        <v>2.05</v>
-      </c>
       <c r="BA58" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="BB58" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="BC58" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BD58" t="n">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="BE58" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="BF58" t="n">
         <v>4</v>
       </c>
       <c r="BG58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH58" t="n">
         <v>5</v>
       </c>
       <c r="BI58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ58" t="n">
         <v>9</v>
       </c>
       <c r="BK58" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -12330,7 +12330,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>5067792</v>
+        <v>5067806</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -12346,26 +12346,26 @@
         <v>44983.70833333334</v>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>Deportivo Morón</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>2</v>
@@ -12378,7 +12378,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>['17', '71']</t>
+          <t>['56', '62']</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -12387,145 +12387,145 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R59" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S59" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T59" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="U59" t="n">
         <v>1.95</v>
       </c>
       <c r="V59" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="W59" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="X59" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y59" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Z59" t="n">
         <v>1.25</v>
       </c>
       <c r="AA59" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AB59" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AC59" t="n">
-        <v>2.03</v>
+        <v>2.74</v>
       </c>
       <c r="AD59" t="n">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="AE59" t="n">
-        <v>3.7</v>
+        <v>2.55</v>
       </c>
       <c r="AF59" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="AG59" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH59" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="AI59" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="AJ59" t="n">
-        <v>2.41</v>
+        <v>2.5</v>
       </c>
       <c r="AK59" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AL59" t="n">
         <v>2.1</v>
       </c>
       <c r="AM59" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AN59" t="n">
-        <v>1.26</v>
+        <v>1.42</v>
       </c>
       <c r="AO59" t="n">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR59" t="n">
         <v>0</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT59" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AU59" t="n">
-        <v>1.82</v>
+        <v>1.64</v>
       </c>
       <c r="AV59" t="n">
-        <v>1.52</v>
+        <v>1.04</v>
       </c>
       <c r="AW59" t="n">
-        <v>3.34</v>
+        <v>2.68</v>
       </c>
       <c r="AX59" t="n">
-        <v>1.72</v>
+        <v>2.05</v>
       </c>
       <c r="AY59" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AZ59" t="n">
-        <v>2.59</v>
+        <v>2.05</v>
       </c>
       <c r="BA59" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="BB59" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="BC59" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BD59" t="n">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="BE59" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF59" t="n">
         <v>4</v>
       </c>
-      <c r="BF59" t="n">
-        <v>3</v>
-      </c>
       <c r="BG59" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BH59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BI59" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BJ59" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BK59" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -12533,7 +12533,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>5067805</v>
+        <v>5067792</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -12549,186 +12549,186 @@
         <v>44983.70833333334</v>
       </c>
       <c r="F60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Almirante Brown</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
+          <t>['17', '71']</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Q60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R60" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S60" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T60" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="U60" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V60" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="W60" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="X60" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="Y60" t="n">
         <v>3.75</v>
       </c>
       <c r="Z60" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AA60" t="n">
-        <v>8.75</v>
+        <v>11</v>
       </c>
       <c r="AB60" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AC60" t="n">
-        <v>2.38</v>
+        <v>2.03</v>
       </c>
       <c r="AD60" t="n">
-        <v>2.95</v>
+        <v>2.77</v>
       </c>
       <c r="AE60" t="n">
-        <v>2.77</v>
+        <v>3.7</v>
       </c>
       <c r="AF60" t="n">
         <v>1.11</v>
       </c>
       <c r="AG60" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="AI60" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="AJ60" t="n">
-        <v>2.81</v>
+        <v>2.41</v>
       </c>
       <c r="AK60" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AL60" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AM60" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AN60" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="AO60" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="AP60" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS60" t="n">
         <v>1.5</v>
       </c>
-      <c r="AQ60" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR60" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS60" t="n">
-        <v>1</v>
-      </c>
       <c r="AT60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU60" t="n">
-        <v>2.6</v>
+        <v>1.82</v>
       </c>
       <c r="AV60" t="n">
-        <v>0.71</v>
+        <v>1.52</v>
       </c>
       <c r="AW60" t="n">
-        <v>3.31</v>
+        <v>3.34</v>
       </c>
       <c r="AX60" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="AY60" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AZ60" t="n">
-        <v>2.68</v>
+        <v>2.59</v>
       </c>
       <c r="BA60" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="BB60" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="BC60" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="BD60" t="n">
-        <v>2.45</v>
+        <v>2.85</v>
       </c>
       <c r="BE60" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="BF60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BH60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ60" t="n">
         <v>5</v>
       </c>
-      <c r="BI60" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ60" t="n">
-        <v>9</v>
-      </c>
       <c r="BK60" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT61" t="n">
         <v>2.2</v>
@@ -14360,7 +14360,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>5067811</v>
+        <v>5067817</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -14380,182 +14380,182 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Chacarita Juniors</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Brown de Adrogué</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>['4']</t>
+          <t>['8', '59', '90+1']</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>['18']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R69" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S69" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="T69" t="n">
         <v>3</v>
       </c>
       <c r="U69" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V69" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE69" t="n">
         <v>4</v>
       </c>
-      <c r="W69" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="X69" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AG69" t="n">
+      <c r="BF69" t="n">
         <v>6</v>
       </c>
-      <c r="AH69" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AK69" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AL69" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AM69" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AN69" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AO69" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP69" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AQ69" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS69" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AT69" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AU69" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AV69" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AW69" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AX69" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AY69" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AZ69" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="BA69" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="BB69" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="BC69" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="BD69" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="BE69" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BF69" t="n">
-        <v>2</v>
-      </c>
       <c r="BG69" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BH69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BI69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ69" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BK69" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
@@ -14766,7 +14766,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>5067817</v>
+        <v>5067811</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -14786,182 +14786,182 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Chacarita Juniors</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Brown de Adrogué</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>['8', '59', '90+1']</t>
+          <t>['4']</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['18']</t>
         </is>
       </c>
       <c r="Q71" t="n">
+        <v>2</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="n">
+        <v>3</v>
+      </c>
+      <c r="U71" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V71" t="n">
+        <v>4</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH71" t="n">
         <v>5</v>
       </c>
-      <c r="R71" t="n">
-        <v>6</v>
-      </c>
-      <c r="S71" t="n">
-        <v>11</v>
-      </c>
-      <c r="T71" t="n">
-        <v>3</v>
-      </c>
-      <c r="U71" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V71" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W71" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X71" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB71" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="AH71" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AK71" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AL71" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM71" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AN71" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AO71" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP71" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AQ71" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR71" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AS71" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AT71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU71" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AV71" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AW71" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="AX71" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AY71" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ71" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="BA71" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="BB71" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="BC71" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="BD71" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="BE71" t="n">
+      <c r="BI71" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK71" t="n">
         <v>4</v>
-      </c>
-      <c r="BF71" t="n">
-        <v>6</v>
-      </c>
-      <c r="BG71" t="n">
-        <v>7</v>
-      </c>
-      <c r="BH71" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI71" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ71" t="n">
-        <v>9</v>
-      </c>
-      <c r="BK71" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="72">
@@ -17608,7 +17608,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>5067833</v>
+        <v>5067841</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -17624,186 +17624,186 @@
         <v>44996.70833333334</v>
       </c>
       <c r="F85" t="n">
+        <v>6</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Defensores Unidos</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Defensores de Belgrano</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>1</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
         <v>5</v>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Deportivo Madryn</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Deportivo Riestra</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>2</v>
-      </c>
-      <c r="K85" t="n">
-        <v>2</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0</v>
-      </c>
-      <c r="M85" t="n">
-        <v>3</v>
-      </c>
-      <c r="N85" t="n">
-        <v>3</v>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>['15', '42', '84']</t>
-        </is>
-      </c>
-      <c r="Q85" t="n">
-        <v>2</v>
-      </c>
-      <c r="R85" t="n">
-        <v>3</v>
-      </c>
       <c r="S85" t="n">
+        <v>9</v>
+      </c>
+      <c r="T85" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U85" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V85" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X85" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH85" t="n">
         <v>5</v>
       </c>
-      <c r="T85" t="n">
-        <v>3</v>
-      </c>
-      <c r="U85" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V85" t="n">
-        <v>4</v>
-      </c>
-      <c r="W85" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X85" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y85" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Z85" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AA85" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB85" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC85" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="AD85" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AE85" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="AF85" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AG85" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="AH85" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI85" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AJ85" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AK85" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AL85" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AM85" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AN85" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AO85" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AP85" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AQ85" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AR85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU85" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AV85" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AW85" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="AX85" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AY85" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AZ85" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="BA85" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="BB85" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="BC85" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="BD85" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="BE85" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="BF85" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG85" t="n">
-        <v>5</v>
-      </c>
-      <c r="BH85" t="n">
-        <v>4</v>
-      </c>
       <c r="BI85" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BJ85" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK85" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86">
@@ -17811,7 +17811,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>5067841</v>
+        <v>5067833</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -17827,186 +17827,186 @@
         <v>44996.70833333334</v>
       </c>
       <c r="F86" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Defensores de Belgrano</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>['82']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['15', '42', '84']</t>
         </is>
       </c>
       <c r="Q86" t="n">
+        <v>2</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="n">
+        <v>3</v>
+      </c>
+      <c r="U86" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V86" t="n">
         <v>4</v>
       </c>
-      <c r="R86" t="n">
+      <c r="W86" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X86" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG86" t="n">
         <v>5</v>
       </c>
-      <c r="S86" t="n">
-        <v>9</v>
-      </c>
-      <c r="T86" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U86" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V86" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W86" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="X86" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="Y86" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="Z86" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AA86" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB86" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AC86" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AD86" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AE86" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AF86" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AG86" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AH86" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AI86" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AJ86" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="AK86" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AL86" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AM86" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AN86" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AO86" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AP86" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AQ86" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR86" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AS86" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AT86" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AU86" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AV86" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AW86" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AX86" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AY86" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AZ86" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="BA86" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="BB86" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="BC86" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="BD86" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="BE86" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="BF86" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG86" t="n">
-        <v>0</v>
-      </c>
       <c r="BH86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BI86" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BJ86" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK86" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
@@ -18970,7 +18970,7 @@
         <v>1.4</v>
       </c>
       <c r="AT91" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU91" t="n">
         <v>1.36</v>
@@ -19170,7 +19170,7 @@
         <v>1.5</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT92" t="n">
         <v>1</v>
@@ -19232,7 +19232,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>5067840</v>
+        <v>5067843</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -19252,182 +19252,182 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Estudiantes Río Cuarto</t>
+          <t>Deportivo Morón</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
+          <t>['55', '90+5']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>['25']</t>
-        </is>
-      </c>
       <c r="Q93" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S93" t="n">
         <v>9</v>
       </c>
       <c r="T93" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="U93" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="V93" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="W93" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X93" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y93" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z93" t="n">
         <v>1.22</v>
       </c>
       <c r="AA93" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB93" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AC93" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AD93" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="AE93" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="AF93" t="n">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="AG93" t="n">
-        <v>5.85</v>
+        <v>5.33</v>
       </c>
       <c r="AH93" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AI93" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AJ93" t="n">
-        <v>2.89</v>
+        <v>2.94</v>
       </c>
       <c r="AK93" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AL93" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AM93" t="n">
         <v>1.57</v>
       </c>
       <c r="AN93" t="n">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
       <c r="AO93" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AP93" t="n">
         <v>1.38</v>
       </c>
-      <c r="AP93" t="n">
-        <v>1.45</v>
-      </c>
       <c r="AQ93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR93" t="n">
         <v>0</v>
       </c>
       <c r="AS93" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AU93" t="n">
-        <v>1.93</v>
+        <v>1.03</v>
       </c>
       <c r="AV93" t="n">
-        <v>1.67</v>
+        <v>1.35</v>
       </c>
       <c r="AW93" t="n">
-        <v>3.6</v>
+        <v>2.38</v>
       </c>
       <c r="AX93" t="n">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="AY93" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AZ93" t="n">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="BA93" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="BB93" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="BC93" t="n">
-        <v>2.1</v>
+        <v>2.21</v>
       </c>
       <c r="BD93" t="n">
-        <v>2.63</v>
+        <v>2.93</v>
       </c>
       <c r="BE93" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="BF93" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BG93" t="n">
         <v>2</v>
       </c>
       <c r="BH93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BI93" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BJ93" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BK93" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
@@ -19435,7 +19435,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>5067843</v>
+        <v>5067840</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -19455,182 +19455,182 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Deportivo Morón</t>
+          <t>Estudiantes Río Cuarto</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>['55', '90+5']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['25']</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S94" t="n">
         <v>9</v>
       </c>
       <c r="T94" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="U94" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="V94" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="W94" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="X94" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y94" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Z94" t="n">
         <v>1.22</v>
       </c>
       <c r="AA94" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB94" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AC94" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AD94" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AE94" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="AF94" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AG94" t="n">
-        <v>5.33</v>
+        <v>5.85</v>
       </c>
       <c r="AH94" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="AI94" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AJ94" t="n">
-        <v>2.94</v>
+        <v>2.89</v>
       </c>
       <c r="AK94" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AL94" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AM94" t="n">
         <v>1.57</v>
       </c>
       <c r="AN94" t="n">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
       <c r="AO94" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR94" t="n">
         <v>0</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AU94" t="n">
-        <v>1.03</v>
+        <v>1.93</v>
       </c>
       <c r="AV94" t="n">
-        <v>1.35</v>
+        <v>1.67</v>
       </c>
       <c r="AW94" t="n">
-        <v>2.38</v>
+        <v>3.6</v>
       </c>
       <c r="AX94" t="n">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="AY94" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AZ94" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="BA94" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="BB94" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="BC94" t="n">
-        <v>2.21</v>
+        <v>2.1</v>
       </c>
       <c r="BD94" t="n">
-        <v>2.93</v>
+        <v>2.63</v>
       </c>
       <c r="BE94" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BF94" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BG94" t="n">
         <v>2</v>
       </c>
       <c r="BH94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BI94" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BJ94" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BK94" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95">
@@ -25263,7 +25263,7 @@
         <v>1</v>
       </c>
       <c r="AT122" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU122" t="n">
         <v>1.3</v>
@@ -27290,7 +27290,7 @@
         <v>1</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT132" t="n">
         <v>1</v>
@@ -27352,7 +27352,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>5067877</v>
+        <v>5067866</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -27368,16 +27368,16 @@
         <v>45011.75</v>
       </c>
       <c r="F133" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>San Martín San Juan</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Estudiantes Río Cuarto</t>
+          <t>Atlanta</t>
         </is>
       </c>
       <c r="I133" t="n">
@@ -27390,161 +27390,161 @@
         <v>0</v>
       </c>
       <c r="L133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N133" t="n">
         <v>2</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>['53', '90+5']</t>
+          <t>['71']</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['55']</t>
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R133" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S133" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T133" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="U133" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V133" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="W133" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="X133" t="n">
-        <v>2.25</v>
+        <v>2.41</v>
       </c>
       <c r="Y133" t="n">
-        <v>3.7</v>
+        <v>3.48</v>
       </c>
       <c r="Z133" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AA133" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AB133" t="n">
         <v>1.04</v>
       </c>
       <c r="AC133" t="n">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="AD133" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="AE133" t="n">
-        <v>3.65</v>
+        <v>2.65</v>
       </c>
       <c r="AF133" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AG133" t="n">
-        <v>6</v>
+        <v>6.75</v>
       </c>
       <c r="AH133" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="AI133" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="AJ133" t="n">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="AK133" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="AL133" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="AM133" t="n">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="AN133" t="n">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="AO133" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.68</v>
+        <v>1.48</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.67</v>
+        <v>2</v>
       </c>
       <c r="AR133" t="n">
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.2</v>
+        <v>1.67</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU133" t="n">
         <v>1.41</v>
       </c>
       <c r="AV133" t="n">
-        <v>1.52</v>
+        <v>1.25</v>
       </c>
       <c r="AW133" t="n">
-        <v>2.93</v>
+        <v>2.66</v>
       </c>
       <c r="AX133" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AY133" t="n">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="AZ133" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="BA133" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="BB133" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="BC133" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="BD133" t="n">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="BE133" t="n">
         <v>0</v>
       </c>
       <c r="BF133" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG133" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH133" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BI133" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ133" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BK133" t="n">
         <v>7</v>
@@ -27555,7 +27555,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>5067866</v>
+        <v>5067877</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -27571,16 +27571,16 @@
         <v>45011.75</v>
       </c>
       <c r="F134" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>San Martín San Juan</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Estudiantes Río Cuarto</t>
         </is>
       </c>
       <c r="I134" t="n">
@@ -27593,161 +27593,161 @@
         <v>0</v>
       </c>
       <c r="L134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N134" t="n">
         <v>2</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>['71']</t>
+          <t>['53', '90+5']</t>
         </is>
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>['55']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S134" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T134" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="U134" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V134" t="n">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="W134" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="X134" t="n">
-        <v>2.41</v>
+        <v>2.25</v>
       </c>
       <c r="Y134" t="n">
-        <v>3.48</v>
+        <v>3.7</v>
       </c>
       <c r="Z134" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AA134" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AB134" t="n">
         <v>1.04</v>
       </c>
       <c r="AC134" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ134" t="n">
         <v>2.55</v>
       </c>
-      <c r="AD134" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AE134" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AF134" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG134" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="AH134" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AI134" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AJ134" t="n">
-        <v>2.35</v>
-      </c>
       <c r="AK134" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AL134" t="n">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="AM134" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AN134" t="n">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="AO134" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.48</v>
+        <v>1.68</v>
       </c>
       <c r="AQ134" t="n">
-        <v>2</v>
+        <v>0.67</v>
       </c>
       <c r="AR134" t="n">
         <v>1</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.67</v>
+        <v>1.2</v>
       </c>
       <c r="AT134" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AU134" t="n">
         <v>1.41</v>
       </c>
       <c r="AV134" t="n">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="AW134" t="n">
-        <v>2.66</v>
+        <v>2.93</v>
       </c>
       <c r="AX134" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AY134" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AZ134" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="BA134" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="BB134" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="BC134" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="BD134" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="BE134" t="n">
         <v>0</v>
       </c>
       <c r="BF134" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BG134" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BH134" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BI134" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ134" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BK134" t="n">
         <v>7</v>
@@ -33435,6 +33435,209 @@
       </c>
       <c r="BK162" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>5067905</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45023.70833333334</v>
+      </c>
+      <c r="F163" t="n">
+        <v>9</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Deportivo Maipú</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Gimnasia Jujuy</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>3</v>
+      </c>
+      <c r="M163" t="n">
+        <v>2</v>
+      </c>
+      <c r="N163" t="n">
+        <v>5</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['76', '89', '90+1']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>['64', '71']</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>5</v>
+      </c>
+      <c r="R163" t="n">
+        <v>1</v>
+      </c>
+      <c r="S163" t="n">
+        <v>6</v>
+      </c>
+      <c r="T163" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U163" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V163" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X163" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK163"/>
+  <dimension ref="A1:BK175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT5" t="n">
         <v>1.2</v>
@@ -1715,7 +1715,7 @@
         <v>1.6</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT9" t="n">
         <v>0.2</v>
@@ -2527,7 +2527,7 @@
         <v>1.2</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT11" t="n">
         <v>1</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.8</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.6</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT16" t="n">
         <v>1</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT19" t="n">
         <v>2</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
         <v>0.8</v>
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>3</v>
       </c>
       <c r="AT27" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -6384,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU29" t="n">
         <v>1.64</v>
@@ -6790,7 +6790,7 @@
         <v>2.25</v>
       </c>
       <c r="AT31" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU31" t="n">
         <v>0</v>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT32" t="n">
         <v>0.8</v>
@@ -7602,7 +7602,7 @@
         <v>1.75</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU35" t="n">
         <v>0</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT36" t="n">
         <v>0</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT40" t="n">
         <v>1.5</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT42" t="n">
         <v>1</v>
@@ -9426,10 +9426,10 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU44" t="n">
         <v>1.55</v>
@@ -10238,10 +10238,10 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU48" t="n">
         <v>0.98</v>
@@ -10444,7 +10444,7 @@
         <v>1.4</v>
       </c>
       <c r="AT49" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU49" t="n">
         <v>1.69</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT51" t="n">
         <v>0.6</v>
@@ -11256,7 +11256,7 @@
         <v>1.6</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU53" t="n">
         <v>2.08</v>
@@ -11865,7 +11865,7 @@
         <v>1.2</v>
       </c>
       <c r="AT56" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU56" t="n">
         <v>1.23</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT60" t="n">
         <v>0</v>
@@ -13080,7 +13080,7 @@
         <v>3</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT62" t="n">
         <v>1</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT63" t="n">
         <v>1</v>
@@ -14095,7 +14095,7 @@
         <v>1.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT67" t="n">
         <v>0.8</v>
@@ -14501,7 +14501,7 @@
         <v>1.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT69" t="n">
         <v>1</v>
@@ -14910,7 +14910,7 @@
         <v>1.8</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU71" t="n">
         <v>1.29</v>
@@ -15110,7 +15110,7 @@
         <v>0</v>
       </c>
       <c r="AS72" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT72" t="n">
         <v>0</v>
@@ -15519,7 +15519,7 @@
         <v>1</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU74" t="n">
         <v>1.12</v>
@@ -15722,7 +15722,7 @@
         <v>0.25</v>
       </c>
       <c r="AT75" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU75" t="n">
         <v>1.63</v>
@@ -15922,7 +15922,7 @@
         <v>1</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT76" t="n">
         <v>0.8</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT78" t="n">
         <v>0.8</v>
@@ -16534,7 +16534,7 @@
         <v>2</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU79" t="n">
         <v>1.97</v>
@@ -17143,7 +17143,7 @@
         <v>1</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU82" t="n">
         <v>1.49</v>
@@ -17343,10 +17343,10 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU83" t="n">
         <v>1.37</v>
@@ -17955,7 +17955,7 @@
         <v>1</v>
       </c>
       <c r="AT86" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU86" t="n">
         <v>1.39</v>
@@ -18158,7 +18158,7 @@
         <v>1.6</v>
       </c>
       <c r="AT87" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU87" t="n">
         <v>0.83</v>
@@ -19779,7 +19779,7 @@
         <v>2</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT95" t="n">
         <v>2.2</v>
@@ -19982,7 +19982,7 @@
         <v>1.5</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT96" t="n">
         <v>1</v>
@@ -20185,7 +20185,7 @@
         <v>0.5</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT97" t="n">
         <v>1.2</v>
@@ -20388,10 +20388,10 @@
         <v>0</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU98" t="n">
         <v>1.87</v>
@@ -20794,7 +20794,7 @@
         <v>0.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT100" t="n">
         <v>1</v>
@@ -21403,7 +21403,7 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT103" t="n">
         <v>0.5</v>
@@ -21812,7 +21812,7 @@
         <v>1.75</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU105" t="n">
         <v>1.05</v>
@@ -22215,7 +22215,7 @@
         <v>0.67</v>
       </c>
       <c r="AS107" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT107" t="n">
         <v>1.2</v>
@@ -22418,7 +22418,7 @@
         <v>0.33</v>
       </c>
       <c r="AS108" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT108" t="n">
         <v>1</v>
@@ -22624,7 +22624,7 @@
         <v>3</v>
       </c>
       <c r="AT109" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU109" t="n">
         <v>1.87</v>
@@ -22827,7 +22827,7 @@
         <v>1.6</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU110" t="n">
         <v>1.5</v>
@@ -23839,7 +23839,7 @@
         <v>1.33</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT115" t="n">
         <v>0.8</v>
@@ -24451,7 +24451,7 @@
         <v>1</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU118" t="n">
         <v>1.26</v>
@@ -25060,7 +25060,7 @@
         <v>1.4</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU121" t="n">
         <v>1.33</v>
@@ -25466,7 +25466,7 @@
         <v>1</v>
       </c>
       <c r="AT123" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU123" t="n">
         <v>1.69</v>
@@ -25869,10 +25869,10 @@
         <v>1.67</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU125" t="n">
         <v>1.58</v>
@@ -26072,7 +26072,7 @@
         <v>1</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT126" t="n">
         <v>0.8</v>
@@ -26478,7 +26478,7 @@
         <v>1.67</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT128" t="n">
         <v>2.2</v>
@@ -26884,10 +26884,10 @@
         <v>1</v>
       </c>
       <c r="AS130" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU130" t="n">
         <v>1.4</v>
@@ -27293,7 +27293,7 @@
         <v>2</v>
       </c>
       <c r="AT132" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU132" t="n">
         <v>1.6</v>
@@ -27493,7 +27493,7 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT133" t="n">
         <v>1</v>
@@ -27899,7 +27899,7 @@
         <v>1.5</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT135" t="n">
         <v>1</v>
@@ -28102,7 +28102,7 @@
         <v>1</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT136" t="n">
         <v>1</v>
@@ -28508,10 +28508,10 @@
         <v>1.75</v>
       </c>
       <c r="AS138" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU138" t="n">
         <v>1.42</v>
@@ -28711,7 +28711,7 @@
         <v>1.33</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT139" t="n">
         <v>1.25</v>
@@ -28917,7 +28917,7 @@
         <v>3</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU140" t="n">
         <v>1.5</v>
@@ -29523,7 +29523,7 @@
         <v>0.75</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT143" t="n">
         <v>1.2</v>
@@ -29729,7 +29729,7 @@
         <v>1.6</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU144" t="n">
         <v>1.35</v>
@@ -33638,6 +33638,2442 @@
       </c>
       <c r="BK163" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>5067907</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45024.64583333334</v>
+      </c>
+      <c r="F164" t="n">
+        <v>9</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Deportivo Madryn</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Brown de Adrogué</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>5</v>
+      </c>
+      <c r="R164" t="n">
+        <v>4</v>
+      </c>
+      <c r="S164" t="n">
+        <v>9</v>
+      </c>
+      <c r="T164" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U164" t="n">
+        <v>2</v>
+      </c>
+      <c r="V164" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X164" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>5067935</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45024.64583333334</v>
+      </c>
+      <c r="F165" t="n">
+        <v>11</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Agropecuario</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="n">
+        <v>1</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>5</v>
+      </c>
+      <c r="R165" t="n">
+        <v>8</v>
+      </c>
+      <c r="S165" t="n">
+        <v>13</v>
+      </c>
+      <c r="T165" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U165" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V165" t="n">
+        <v>4</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X165" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>5067900</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45024.66666666666</v>
+      </c>
+      <c r="F166" t="n">
+        <v>9</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Aldosivi</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Tristán Suárez</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
+      <c r="K166" t="n">
+        <v>2</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="n">
+        <v>2</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>6</v>
+      </c>
+      <c r="R166" t="n">
+        <v>6</v>
+      </c>
+      <c r="S166" t="n">
+        <v>12</v>
+      </c>
+      <c r="T166" t="n">
+        <v>3</v>
+      </c>
+      <c r="U166" t="n">
+        <v>2</v>
+      </c>
+      <c r="V166" t="n">
+        <v>4</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X166" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>5067901</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45024.70833333334</v>
+      </c>
+      <c r="F167" t="n">
+        <v>9</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Chacarita Juniors</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="n">
+        <v>2</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>4</v>
+      </c>
+      <c r="R167" t="n">
+        <v>5</v>
+      </c>
+      <c r="S167" t="n">
+        <v>9</v>
+      </c>
+      <c r="T167" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U167" t="n">
+        <v>2</v>
+      </c>
+      <c r="V167" t="n">
+        <v>5</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X167" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>5067904</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45024.70833333334</v>
+      </c>
+      <c r="F168" t="n">
+        <v>9</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Independiente Rivadavia</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Ferro Carril Oeste</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="n">
+        <v>2</v>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="n">
+        <v>3</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>['45+4', '90+6']</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>6</v>
+      </c>
+      <c r="R168" t="n">
+        <v>1</v>
+      </c>
+      <c r="S168" t="n">
+        <v>7</v>
+      </c>
+      <c r="T168" t="n">
+        <v>3</v>
+      </c>
+      <c r="U168" t="n">
+        <v>2</v>
+      </c>
+      <c r="V168" t="n">
+        <v>4</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X168" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>5067930</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45024.70833333334</v>
+      </c>
+      <c r="F169" t="n">
+        <v>11</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>All Boys</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Alvarado</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>2</v>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="n">
+        <v>3</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>['46', '71']</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>4</v>
+      </c>
+      <c r="R169" t="n">
+        <v>3</v>
+      </c>
+      <c r="S169" t="n">
+        <v>7</v>
+      </c>
+      <c r="T169" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U169" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V169" t="n">
+        <v>4</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X169" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>5067927</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45024.79166666666</v>
+      </c>
+      <c r="F170" t="n">
+        <v>11</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Almirante Brown</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Club Atlético Güemes</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="n">
+        <v>1</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>4</v>
+      </c>
+      <c r="R170" t="n">
+        <v>1</v>
+      </c>
+      <c r="S170" t="n">
+        <v>5</v>
+      </c>
+      <c r="T170" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U170" t="n">
+        <v>2</v>
+      </c>
+      <c r="V170" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X170" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>5067906</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45024.83333333334</v>
+      </c>
+      <c r="F171" t="n">
+        <v>9</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Villa Dálmine</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Quilmes</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>3</v>
+      </c>
+      <c r="R171" t="n">
+        <v>3</v>
+      </c>
+      <c r="S171" t="n">
+        <v>6</v>
+      </c>
+      <c r="T171" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U171" t="n">
+        <v>2</v>
+      </c>
+      <c r="V171" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X171" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>5067932</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45025.66666666666</v>
+      </c>
+      <c r="F172" t="n">
+        <v>11</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>San Martín Tucumán</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>San Martín San Juan</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="n">
+        <v>4</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="n">
+        <v>5</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>['12', '71', '76', '80']</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>4</v>
+      </c>
+      <c r="R172" t="n">
+        <v>3</v>
+      </c>
+      <c r="S172" t="n">
+        <v>7</v>
+      </c>
+      <c r="T172" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U172" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V172" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X172" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>5067903</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45025.75</v>
+      </c>
+      <c r="F173" t="n">
+        <v>9</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Chaco For Ever</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Deportivo Riestra</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="n">
+        <v>2</v>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="n">
+        <v>3</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>['61', '79']</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>['45+6']</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>4</v>
+      </c>
+      <c r="R173" t="n">
+        <v>5</v>
+      </c>
+      <c r="S173" t="n">
+        <v>9</v>
+      </c>
+      <c r="T173" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U173" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V173" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X173" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>5067902</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45025.75</v>
+      </c>
+      <c r="F174" t="n">
+        <v>9</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Club Atlético Mitre</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Racing Córdoba</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="n">
+        <v>2</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>5</v>
+      </c>
+      <c r="R174" t="n">
+        <v>0</v>
+      </c>
+      <c r="S174" t="n">
+        <v>5</v>
+      </c>
+      <c r="T174" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U174" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V174" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X174" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>5067908</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45025.83333333334</v>
+      </c>
+      <c r="F175" t="n">
+        <v>9</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Atlético Rafaela</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Estudiantes Caseros</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="n">
+        <v>2</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>4</v>
+      </c>
+      <c r="R175" t="n">
+        <v>2</v>
+      </c>
+      <c r="S175" t="n">
+        <v>6</v>
+      </c>
+      <c r="T175" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U175" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V175" t="n">
+        <v>4</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X175" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK175"/>
+  <dimension ref="A1:BK180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT3" t="n">
         <v>0.8</v>
@@ -1309,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT7" t="n">
         <v>0.8</v>
@@ -2121,7 +2121,7 @@
         <v>1.4</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT20" t="n">
         <v>0.8</v>
@@ -5166,7 +5166,7 @@
         <v>1.2</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>2.6</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT33" t="n">
         <v>0.2</v>
@@ -8008,7 +8008,7 @@
         <v>1.4</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU37" t="n">
         <v>1.11</v>
@@ -8411,7 +8411,7 @@
         <v>3</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT39" t="n">
         <v>0.8</v>
@@ -8820,7 +8820,7 @@
         <v>1.2</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU41" t="n">
         <v>0.74</v>
@@ -9226,7 +9226,7 @@
         <v>1</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU43" t="n">
         <v>1.07</v>
@@ -9629,7 +9629,7 @@
         <v>3</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT45" t="n">
         <v>0.8</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT47" t="n">
         <v>0.8</v>
@@ -10647,7 +10647,7 @@
         <v>1.6</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU50" t="n">
         <v>1.29</v>
@@ -12068,7 +12068,7 @@
         <v>1.6</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU57" t="n">
         <v>0.67</v>
@@ -14298,7 +14298,7 @@
         <v>0.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT68" t="n">
         <v>0.2</v>
@@ -15316,7 +15316,7 @@
         <v>1.2</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU73" t="n">
         <v>1.46</v>
@@ -15925,7 +15925,7 @@
         <v>1.83</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU76" t="n">
         <v>1.37</v>
@@ -16531,7 +16531,7 @@
         <v>1.5</v>
       </c>
       <c r="AS79" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT79" t="n">
         <v>1.5</v>
@@ -16937,10 +16937,10 @@
         <v>1</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU81" t="n">
         <v>1.31</v>
@@ -18564,7 +18564,7 @@
         <v>1.4</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU89" t="n">
         <v>1.63</v>
@@ -20591,7 +20591,7 @@
         <v>1.5</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT99" t="n">
         <v>0.8</v>
@@ -21406,7 +21406,7 @@
         <v>1.83</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU103" t="n">
         <v>1.52</v>
@@ -21809,7 +21809,7 @@
         <v>1</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT105" t="n">
         <v>1.5</v>
@@ -22218,7 +22218,7 @@
         <v>1.33</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU107" t="n">
         <v>1.53</v>
@@ -22824,7 +22824,7 @@
         <v>1.33</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT110" t="n">
         <v>1.33</v>
@@ -23639,7 +23639,7 @@
         <v>1.2</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU114" t="n">
         <v>1.52</v>
@@ -24042,10 +24042,10 @@
         <v>1</v>
       </c>
       <c r="AS116" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU116" t="n">
         <v>2.02</v>
@@ -28305,10 +28305,10 @@
         <v>0.75</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU137" t="n">
         <v>1.04</v>
@@ -28714,7 +28714,7 @@
         <v>1.83</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU139" t="n">
         <v>1.34</v>
@@ -29320,10 +29320,10 @@
         <v>0.67</v>
       </c>
       <c r="AS142" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU142" t="n">
         <v>2.02</v>
@@ -29526,7 +29526,7 @@
         <v>2</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU143" t="n">
         <v>1.15</v>
@@ -29726,7 +29726,7 @@
         <v>0.67</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT144" t="n">
         <v>0.6</v>
@@ -30538,7 +30538,7 @@
         <v>1</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT148" t="n">
         <v>0.8</v>
@@ -30744,7 +30744,7 @@
         <v>1</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU149" t="n">
         <v>1.26</v>
@@ -35246,22 +35246,22 @@
         <v>0</v>
       </c>
       <c r="BF171" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BG171" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BH171" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI171" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BJ171" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BK171" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172">
@@ -36074,6 +36074,1021 @@
       </c>
       <c r="BK175" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>5067934</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45026.64583333334</v>
+      </c>
+      <c r="F176" t="n">
+        <v>11</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Guillermo Brown</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
+      <c r="K176" t="n">
+        <v>2</v>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="n">
+        <v>2</v>
+      </c>
+      <c r="N176" t="n">
+        <v>3</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>['20', '83']</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>11</v>
+      </c>
+      <c r="R176" t="n">
+        <v>2</v>
+      </c>
+      <c r="S176" t="n">
+        <v>13</v>
+      </c>
+      <c r="T176" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U176" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V176" t="n">
+        <v>4</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X176" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>5067931</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45026.70833333334</v>
+      </c>
+      <c r="F177" t="n">
+        <v>11</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Nueva Chicago</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Flandria</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N177" t="n">
+        <v>1</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>5</v>
+      </c>
+      <c r="R177" t="n">
+        <v>6</v>
+      </c>
+      <c r="S177" t="n">
+        <v>11</v>
+      </c>
+      <c r="T177" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U177" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V177" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X177" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>5067928</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45026.79513888889</v>
+      </c>
+      <c r="F178" t="n">
+        <v>11</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Defensores de Belgrano</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Patronato</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
+        <v>2</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N178" t="n">
+        <v>2</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>['74', '86']</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>4</v>
+      </c>
+      <c r="R178" t="n">
+        <v>3</v>
+      </c>
+      <c r="S178" t="n">
+        <v>7</v>
+      </c>
+      <c r="T178" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U178" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V178" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X178" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5067929</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45026.875</v>
+      </c>
+      <c r="F179" t="n">
+        <v>11</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Estudiantes Río Cuarto</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Gimnasia Mendoza</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="n">
+        <v>2</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>2</v>
+      </c>
+      <c r="R179" t="n">
+        <v>4</v>
+      </c>
+      <c r="S179" t="n">
+        <v>6</v>
+      </c>
+      <c r="T179" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U179" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V179" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X179" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5067933</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45026.88194444445</v>
+      </c>
+      <c r="F180" t="n">
+        <v>11</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Temperley</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Defensores Unidos</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" t="n">
+        <v>1</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>5</v>
+      </c>
+      <c r="R180" t="n">
+        <v>3</v>
+      </c>
+      <c r="S180" t="n">
+        <v>8</v>
+      </c>
+      <c r="T180" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U180" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V180" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X180" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
